--- a/TS Jatai Working/Padam Input Templates/TS 4.2 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 4.2 Padam Input Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AA3738-9CDA-486E-A6BE-2254A28A36FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA32A061-2E97-4A71-9794-853BCEDAA0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6303,7 +6303,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6439,8 +6439,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6468,6 +6473,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6499,7 +6510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6664,6 +6675,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6948,9 +6962,9 @@
   <dimension ref="A1:V2500"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1409" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="N1424" sqref="N1424"/>
+      <selection pane="bottomLeft" activeCell="N142" sqref="N142:N639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -12836,7 +12850,7 @@
         <f t="shared" si="8"/>
         <v>141</v>
       </c>
-      <c r="N142" s="37" t="s">
+      <c r="N142" s="57" t="s">
         <v>261</v>
       </c>
       <c r="O142" s="6" t="s">
@@ -30322,7 +30336,7 @@
         <f t="shared" si="29"/>
         <v>168</v>
       </c>
-      <c r="N639" s="37" t="s">
+      <c r="N639" s="57" t="s">
         <v>261</v>
       </c>
       <c r="O639" s="6" t="s">

--- a/TS Jatai Working/Padam Input Templates/TS 4.2 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 4.2 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3461247A-1CDE-408C-B016-6F8511411DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13C55D4-2103-4EB2-A031-E3502E222210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7130" uniqueCount="2087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7131" uniqueCount="2089">
   <si>
     <t>PS</t>
   </si>
@@ -6239,9 +6239,6 @@
     <t>Table Process</t>
   </si>
   <si>
-    <t>sauShadhIShu</t>
-  </si>
-  <si>
     <t>P[r]</t>
   </si>
   <si>
@@ -6297,13 +6294,22 @@
   </si>
   <si>
     <t>viqSvaPsni#yA</t>
+  </si>
+  <si>
+    <t>sauShadI</t>
+  </si>
+  <si>
+    <t>yo &amp;nu, yo &amp;nvanu</t>
+  </si>
+  <si>
+    <t>yo &amp;nu + yo anvanu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6449,8 +6455,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6465,12 +6477,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6478,6 +6484,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6509,7 +6533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6654,12 +6678,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -6669,39 +6687,63 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6983,12 +7025,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V2500"/>
+  <dimension ref="A1:X2500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A925" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2486" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="I936" sqref="I936:V936"/>
+      <selection pane="bottomLeft" activeCell="Q2452" sqref="Q2452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -7012,7 +7054,9 @@
     <col min="20" max="20" width="23.140625" style="1" customWidth="1"/>
     <col min="21" max="21" width="18.5703125" style="1" customWidth="1"/>
     <col min="22" max="22" width="62.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="263" width="9.140625" style="2"/>
+    <col min="23" max="23" width="9.140625" style="2"/>
+    <col min="24" max="24" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="263" width="9.140625" style="2"/>
     <col min="264" max="264" width="9.28515625" style="2" customWidth="1"/>
     <col min="265" max="266" width="9.140625" style="2"/>
     <col min="267" max="267" width="54.42578125" style="2" customWidth="1"/>
@@ -7930,7 +7974,7 @@
       <c r="N11" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="O11" s="56" t="s">
+      <c r="O11" s="54" t="s">
         <v>1</v>
       </c>
       <c r="P11" s="11"/>
@@ -8571,7 +8615,7 @@
       <c r="N27" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="O27" s="56" t="s">
+      <c r="O27" s="54" t="s">
         <v>1</v>
       </c>
       <c r="P27" s="11"/>
@@ -9243,7 +9287,7 @@
       <c r="N44" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="O44" s="56" t="s">
+      <c r="O44" s="54" t="s">
         <v>1</v>
       </c>
       <c r="P44" s="11"/>
@@ -9906,7 +9950,7 @@
       <c r="N61" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="O61" s="56" t="s">
+      <c r="O61" s="54" t="s">
         <v>1</v>
       </c>
       <c r="P61" s="11"/>
@@ -11032,7 +11076,7 @@
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="N91" s="37" t="s">
+      <c r="N91" s="66" t="s">
         <v>232</v>
       </c>
       <c r="O91" s="6" t="s">
@@ -11077,7 +11121,7 @@
         <f t="shared" si="5"/>
         <v>91</v>
       </c>
-      <c r="N92" s="37" t="s">
+      <c r="N92" s="66" t="s">
         <v>233</v>
       </c>
       <c r="O92" s="6"/>
@@ -12202,7 +12246,7 @@
         <v>90</v>
       </c>
       <c r="T123" s="6" t="s">
-        <v>183</v>
+        <v>2060</v>
       </c>
       <c r="U123" s="6"/>
       <c r="V123" s="37"/>
@@ -12874,8 +12918,8 @@
         <f t="shared" si="8"/>
         <v>141</v>
       </c>
-      <c r="N142" s="57" t="s">
-        <v>2086</v>
+      <c r="N142" s="55" t="s">
+        <v>2085</v>
       </c>
       <c r="O142" s="6" t="s">
         <v>0</v>
@@ -12951,7 +12995,7 @@
       <c r="N144" s="37" t="s">
         <v>349</v>
       </c>
-      <c r="O144" s="56" t="s">
+      <c r="O144" s="54" t="s">
         <v>1</v>
       </c>
       <c r="P144" s="11" t="s">
@@ -13732,7 +13776,7 @@
         <f t="shared" si="8"/>
         <v>165</v>
       </c>
-      <c r="N166" s="37" t="s">
+      <c r="N166" s="65" t="s">
         <v>279</v>
       </c>
       <c r="O166" s="5"/>
@@ -13772,7 +13816,7 @@
         <f t="shared" si="8"/>
         <v>166</v>
       </c>
-      <c r="N167" s="37" t="s">
+      <c r="N167" s="65" t="s">
         <v>280</v>
       </c>
       <c r="O167" s="6"/>
@@ -14194,7 +14238,7 @@
         <f t="shared" si="8"/>
         <v>178</v>
       </c>
-      <c r="N179" s="37" t="s">
+      <c r="N179" s="65" t="s">
         <v>230</v>
       </c>
       <c r="O179" s="5"/>
@@ -14951,7 +14995,7 @@
         <f t="shared" si="11"/>
         <v>200</v>
       </c>
-      <c r="N201" s="37" t="s">
+      <c r="N201" s="65" t="s">
         <v>304</v>
       </c>
       <c r="O201" s="5"/>
@@ -14986,7 +15030,7 @@
         <f t="shared" si="11"/>
         <v>201</v>
       </c>
-      <c r="N202" s="37" t="s">
+      <c r="N202" s="65" t="s">
         <v>305</v>
       </c>
       <c r="O202" s="6" t="s">
@@ -15058,7 +15102,7 @@
         <f t="shared" si="11"/>
         <v>203</v>
       </c>
-      <c r="N204" s="37" t="s">
+      <c r="N204" s="65" t="s">
         <v>255</v>
       </c>
       <c r="O204" s="5"/>
@@ -15337,7 +15381,7 @@
         <f t="shared" si="11"/>
         <v>211</v>
       </c>
-      <c r="N212" s="37" t="s">
+      <c r="N212" s="65" t="s">
         <v>232</v>
       </c>
       <c r="O212" s="5" t="s">
@@ -15374,7 +15418,7 @@
         <f t="shared" si="11"/>
         <v>212</v>
       </c>
-      <c r="N213" s="37" t="s">
+      <c r="N213" s="65" t="s">
         <v>312</v>
       </c>
       <c r="O213" s="5"/>
@@ -15623,7 +15667,7 @@
         <f t="shared" si="11"/>
         <v>219</v>
       </c>
-      <c r="N220" s="37" t="s">
+      <c r="N220" s="65" t="s">
         <v>255</v>
       </c>
       <c r="O220" s="6"/>
@@ -16165,7 +16209,7 @@
         <f t="shared" si="11"/>
         <v>235</v>
       </c>
-      <c r="N236" s="37" t="s">
+      <c r="N236" s="65" t="s">
         <v>255</v>
       </c>
       <c r="O236" s="5"/>
@@ -16612,7 +16656,7 @@
         <f t="shared" si="11"/>
         <v>248</v>
       </c>
-      <c r="N249" s="37" t="s">
+      <c r="N249" s="65" t="s">
         <v>1645</v>
       </c>
       <c r="O249" s="6"/>
@@ -17442,7 +17486,7 @@
     </row>
     <row r="271" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A271" s="6"/>
-      <c r="D271" s="52" t="s">
+      <c r="D271" s="50" t="s">
         <v>2063</v>
       </c>
       <c r="I271" s="39" t="s">
@@ -17477,7 +17521,7 @@
     </row>
     <row r="272" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A272" s="6"/>
-      <c r="D272" s="52" t="s">
+      <c r="D272" s="50" t="s">
         <v>2063</v>
       </c>
       <c r="I272" s="39" t="s">
@@ -17997,7 +18041,7 @@
         <f t="shared" si="14"/>
         <v>19</v>
       </c>
-      <c r="N286" s="37" t="s">
+      <c r="N286" s="53" t="s">
         <v>242</v>
       </c>
       <c r="O286" s="5"/>
@@ -18031,7 +18075,7 @@
         <f t="shared" si="14"/>
         <v>20</v>
       </c>
-      <c r="N287" s="37" t="s">
+      <c r="N287" s="53" t="s">
         <v>255</v>
       </c>
       <c r="O287" s="5"/>
@@ -18987,7 +19031,7 @@
         <f t="shared" si="14"/>
         <v>47</v>
       </c>
-      <c r="N314" s="37" t="s">
+      <c r="N314" s="53" t="s">
         <v>255</v>
       </c>
       <c r="O314" s="5"/>
@@ -20240,7 +20284,7 @@
         <f t="shared" si="17"/>
         <v>83</v>
       </c>
-      <c r="N350" s="37" t="s">
+      <c r="N350" s="53" t="s">
         <v>214</v>
       </c>
       <c r="O350" s="5"/>
@@ -20275,7 +20319,7 @@
         <f t="shared" si="17"/>
         <v>84</v>
       </c>
-      <c r="N351" s="37" t="s">
+      <c r="N351" s="53" t="s">
         <v>386</v>
       </c>
       <c r="O351" s="6"/>
@@ -20885,7 +20929,7 @@
     </row>
     <row r="369" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A369" s="6"/>
-      <c r="D369" s="52" t="s">
+      <c r="D369" s="50" t="s">
         <v>2064</v>
       </c>
       <c r="H369" s="44" t="s">
@@ -20923,7 +20967,7 @@
     </row>
     <row r="370" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A370" s="6"/>
-      <c r="D370" s="52" t="s">
+      <c r="D370" s="50" t="s">
         <v>2064</v>
       </c>
       <c r="H370" s="44" t="s">
@@ -21664,7 +21708,7 @@
         <f t="shared" si="20"/>
         <v>124</v>
       </c>
-      <c r="N391" s="37" t="s">
+      <c r="N391" s="53" t="s">
         <v>354</v>
       </c>
       <c r="O391" s="6" t="s">
@@ -21703,7 +21747,7 @@
         <f t="shared" si="20"/>
         <v>125</v>
       </c>
-      <c r="N392" s="37" t="s">
+      <c r="N392" s="53" t="s">
         <v>416</v>
       </c>
       <c r="O392" s="5"/>
@@ -21804,7 +21848,7 @@
         <f t="shared" si="20"/>
         <v>128</v>
       </c>
-      <c r="N395" s="37" t="s">
+      <c r="N395" s="53" t="s">
         <v>417</v>
       </c>
       <c r="O395" s="6"/>
@@ -21923,7 +21967,7 @@
     </row>
     <row r="399" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A399" s="6"/>
-      <c r="D399" s="52" t="s">
+      <c r="D399" s="50" t="s">
         <v>2065</v>
       </c>
       <c r="I399" s="39" t="s">
@@ -21958,7 +22002,7 @@
     </row>
     <row r="400" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A400" s="6"/>
-      <c r="D400" s="52" t="s">
+      <c r="D400" s="50" t="s">
         <v>2065</v>
       </c>
       <c r="I400" s="39" t="s">
@@ -22131,7 +22175,7 @@
     </row>
     <row r="405" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A405" s="6"/>
-      <c r="D405" s="53"/>
+      <c r="D405" s="51"/>
       <c r="I405" s="39" t="s">
         <v>31</v>
       </c>
@@ -22187,7 +22231,7 @@
         <f t="shared" si="20"/>
         <v>139</v>
       </c>
-      <c r="N406" s="37" t="s">
+      <c r="N406" s="53" t="s">
         <v>255</v>
       </c>
       <c r="O406" s="5"/>
@@ -22728,7 +22772,7 @@
         <f t="shared" si="20"/>
         <v>154</v>
       </c>
-      <c r="N421" s="37" t="s">
+      <c r="N421" s="53" t="s">
         <v>255</v>
       </c>
       <c r="O421" s="5"/>
@@ -22766,7 +22810,7 @@
         <f t="shared" si="20"/>
         <v>155</v>
       </c>
-      <c r="N422" s="37" t="s">
+      <c r="N422" s="53" t="s">
         <v>434</v>
       </c>
       <c r="O422" s="6" t="s">
@@ -23088,7 +23132,7 @@
       <c r="N431" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="O431" s="56" t="s">
+      <c r="O431" s="54" t="s">
         <v>1</v>
       </c>
       <c r="P431" s="6"/>
@@ -23198,7 +23242,7 @@
       <c r="N434" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="O434" s="56" t="s">
+      <c r="O434" s="54" t="s">
         <v>1</v>
       </c>
       <c r="P434" s="6"/>
@@ -23305,7 +23349,7 @@
         <f t="shared" si="20"/>
         <v>170</v>
       </c>
-      <c r="N437" s="37" t="s">
+      <c r="N437" s="53" t="s">
         <v>255</v>
       </c>
       <c r="O437" s="6"/>
@@ -24194,7 +24238,7 @@
         <f t="shared" si="23"/>
         <v>196</v>
       </c>
-      <c r="N463" s="37" t="s">
+      <c r="N463" s="53" t="s">
         <v>214</v>
       </c>
       <c r="O463" s="5"/>
@@ -24229,7 +24273,7 @@
         <f t="shared" si="23"/>
         <v>197</v>
       </c>
-      <c r="N464" s="37" t="s">
+      <c r="N464" s="53" t="s">
         <v>386</v>
       </c>
       <c r="O464" s="5"/>
@@ -24555,7 +24599,7 @@
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
-      <c r="N473" s="37" t="s">
+      <c r="N473" s="66" t="s">
         <v>464</v>
       </c>
       <c r="O473" s="6"/>
@@ -24593,7 +24637,7 @@
         <f t="shared" si="23"/>
         <v>3</v>
       </c>
-      <c r="N474" s="37" t="s">
+      <c r="N474" s="66" t="s">
         <v>233</v>
       </c>
       <c r="O474" s="5"/>
@@ -25021,10 +25065,10 @@
         <f t="shared" si="23"/>
         <v>15</v>
       </c>
-      <c r="N486" s="37" t="s">
+      <c r="N486" s="53" t="s">
         <v>262</v>
       </c>
-      <c r="O486" s="58" t="s">
+      <c r="O486" s="56" t="s">
         <v>1</v>
       </c>
       <c r="P486" s="6"/>
@@ -25059,7 +25103,7 @@
         <f t="shared" si="23"/>
         <v>16</v>
       </c>
-      <c r="N487" s="37" t="s">
+      <c r="N487" s="53" t="s">
         <v>472</v>
       </c>
       <c r="O487" s="5"/>
@@ -25099,7 +25143,7 @@
         <f t="shared" si="23"/>
         <v>17</v>
       </c>
-      <c r="N488" s="37" t="s">
+      <c r="N488" s="53" t="s">
         <v>277</v>
       </c>
       <c r="O488" s="6"/>
@@ -26797,7 +26841,7 @@
         <f t="shared" si="26"/>
         <v>66</v>
       </c>
-      <c r="N537" s="37" t="s">
+      <c r="N537" s="53" t="s">
         <v>232</v>
       </c>
       <c r="O537" s="5" t="s">
@@ -26834,7 +26878,7 @@
         <f t="shared" si="26"/>
         <v>67</v>
       </c>
-      <c r="N538" s="37" t="s">
+      <c r="N538" s="53" t="s">
         <v>418</v>
       </c>
       <c r="O538" s="5"/>
@@ -27032,7 +27076,7 @@
         <f t="shared" si="26"/>
         <v>73</v>
       </c>
-      <c r="N544" s="37" t="s">
+      <c r="N544" s="53" t="s">
         <v>338</v>
       </c>
       <c r="O544" s="5"/>
@@ -27067,7 +27111,7 @@
         <f t="shared" si="26"/>
         <v>74</v>
       </c>
-      <c r="N545" s="37" t="s">
+      <c r="N545" s="53" t="s">
         <v>322</v>
       </c>
       <c r="O545" s="5"/>
@@ -27899,7 +27943,7 @@
         <f t="shared" si="26"/>
         <v>98</v>
       </c>
-      <c r="N569" s="37" t="s">
+      <c r="N569" s="53" t="s">
         <v>255</v>
       </c>
       <c r="O569" s="5"/>
@@ -27937,7 +27981,7 @@
         <f t="shared" si="26"/>
         <v>99</v>
       </c>
-      <c r="N570" s="37" t="s">
+      <c r="N570" s="65" t="s">
         <v>525</v>
       </c>
       <c r="O570" s="5"/>
@@ -27977,7 +28021,7 @@
         <f t="shared" si="26"/>
         <v>100</v>
       </c>
-      <c r="N571" s="37" t="s">
+      <c r="N571" s="65" t="s">
         <v>274</v>
       </c>
       <c r="O571" s="5"/>
@@ -27990,10 +28034,9 @@
       <c r="V571" s="37"/>
     </row>
     <row r="572" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A572" s="50" t="s">
-        <v>2067</v>
-      </c>
-      <c r="B572" s="51"/>
+      <c r="A572" s="64" t="s">
+        <v>2086</v>
+      </c>
       <c r="D572" s="19"/>
       <c r="I572" s="39" t="s">
         <v>35</v>
@@ -28012,7 +28055,7 @@
         <f t="shared" si="26"/>
         <v>101</v>
       </c>
-      <c r="N572" s="37" t="s">
+      <c r="N572" s="63" t="s">
         <v>199</v>
       </c>
       <c r="O572" s="5"/>
@@ -28045,7 +28088,7 @@
         <f t="shared" si="26"/>
         <v>102</v>
       </c>
-      <c r="N573" s="37" t="s">
+      <c r="N573" s="67" t="s">
         <v>526</v>
       </c>
       <c r="O573" s="6"/>
@@ -28078,7 +28121,7 @@
         <f t="shared" si="26"/>
         <v>103</v>
       </c>
-      <c r="N574" s="37" t="s">
+      <c r="N574" s="67" t="s">
         <v>195</v>
       </c>
       <c r="O574" s="5" t="s">
@@ -28264,7 +28307,7 @@
         <v>90</v>
       </c>
       <c r="T579" s="6" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="U579" s="6"/>
       <c r="V579" s="37" t="s">
@@ -28818,7 +28861,7 @@
         <f t="shared" si="29"/>
         <v>124</v>
       </c>
-      <c r="N595" s="37" t="s">
+      <c r="N595" s="53" t="s">
         <v>535</v>
       </c>
       <c r="O595" s="6"/>
@@ -28919,7 +28962,7 @@
         <f t="shared" si="29"/>
         <v>127</v>
       </c>
-      <c r="N598" s="37" t="s">
+      <c r="N598" s="53" t="s">
         <v>255</v>
       </c>
       <c r="O598" s="5"/>
@@ -29316,7 +29359,7 @@
         <f t="shared" si="29"/>
         <v>138</v>
       </c>
-      <c r="N609" s="37" t="s">
+      <c r="N609" s="53" t="s">
         <v>535</v>
       </c>
       <c r="O609" s="5"/>
@@ -29419,7 +29462,7 @@
         <f t="shared" si="29"/>
         <v>141</v>
       </c>
-      <c r="N612" s="37" t="s">
+      <c r="N612" s="53" t="s">
         <v>255</v>
       </c>
       <c r="O612" s="5"/>
@@ -29633,7 +29676,7 @@
         <f t="shared" si="29"/>
         <v>147</v>
       </c>
-      <c r="N618" s="37" t="s">
+      <c r="N618" s="53" t="s">
         <v>543</v>
       </c>
       <c r="O618" s="5"/>
@@ -29668,7 +29711,7 @@
         <f t="shared" si="29"/>
         <v>148</v>
       </c>
-      <c r="N619" s="37" t="s">
+      <c r="N619" s="53" t="s">
         <v>477</v>
       </c>
       <c r="O619" s="6" t="s">
@@ -29881,7 +29924,7 @@
         <f t="shared" si="29"/>
         <v>154</v>
       </c>
-      <c r="N625" s="37" t="s">
+      <c r="N625" s="66" t="s">
         <v>255</v>
       </c>
       <c r="O625" s="5"/>
@@ -30263,7 +30306,7 @@
         <f t="shared" si="29"/>
         <v>165</v>
       </c>
-      <c r="N636" s="37" t="s">
+      <c r="N636" s="53" t="s">
         <v>230</v>
       </c>
       <c r="O636" s="5"/>
@@ -30366,8 +30409,8 @@
         <f t="shared" si="29"/>
         <v>168</v>
       </c>
-      <c r="N639" s="57" t="s">
-        <v>2086</v>
+      <c r="N639" s="55" t="s">
+        <v>2085</v>
       </c>
       <c r="O639" s="6" t="s">
         <v>0</v>
@@ -30443,7 +30486,7 @@
       <c r="N641" s="37" t="s">
         <v>349</v>
       </c>
-      <c r="O641" s="58" t="s">
+      <c r="O641" s="56" t="s">
         <v>1</v>
       </c>
       <c r="P641" s="11" t="s">
@@ -31198,7 +31241,7 @@
         <f t="shared" si="32"/>
         <v>192</v>
       </c>
-      <c r="N663" s="37" t="s">
+      <c r="N663" s="53" t="s">
         <v>557</v>
       </c>
       <c r="O663" s="5"/>
@@ -31233,7 +31276,7 @@
         <f t="shared" si="32"/>
         <v>193</v>
       </c>
-      <c r="N664" s="37" t="s">
+      <c r="N664" s="53" t="s">
         <v>558</v>
       </c>
       <c r="O664" s="6"/>
@@ -31475,7 +31518,7 @@
         <f t="shared" si="32"/>
         <v>200</v>
       </c>
-      <c r="N671" s="37" t="s">
+      <c r="N671" s="53" t="s">
         <v>564</v>
       </c>
       <c r="O671" s="5" t="s">
@@ -31513,7 +31556,7 @@
         <f t="shared" si="32"/>
         <v>201</v>
       </c>
-      <c r="N672" s="37" t="s">
+      <c r="N672" s="53" t="s">
         <v>563</v>
       </c>
       <c r="O672" s="5"/>
@@ -31702,7 +31745,7 @@
         <f t="shared" si="32"/>
         <v>207</v>
       </c>
-      <c r="N678" s="37" t="s">
+      <c r="N678" s="53" t="s">
         <v>255</v>
       </c>
       <c r="O678" s="6"/>
@@ -32113,7 +32156,7 @@
       <c r="N690" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="O690" s="58" t="s">
+      <c r="O690" s="56" t="s">
         <v>1</v>
       </c>
       <c r="P690" s="6"/>
@@ -32183,7 +32226,7 @@
       <c r="N692" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="O692" s="58" t="s">
+      <c r="O692" s="56" t="s">
         <v>1</v>
       </c>
       <c r="P692" s="6"/>
@@ -32284,7 +32327,7 @@
         <f t="shared" si="32"/>
         <v>8</v>
       </c>
-      <c r="N695" s="37" t="s">
+      <c r="N695" s="53" t="s">
         <v>577</v>
       </c>
       <c r="O695" s="5"/>
@@ -32320,7 +32363,7 @@
         <f t="shared" si="32"/>
         <v>9</v>
       </c>
-      <c r="N696" s="37" t="s">
+      <c r="N696" s="53" t="s">
         <v>578</v>
       </c>
       <c r="O696" s="5"/>
@@ -33652,7 +33695,7 @@
         <f t="shared" si="35"/>
         <v>50</v>
       </c>
-      <c r="N737" s="37" t="s">
+      <c r="N737" s="53" t="s">
         <v>602</v>
       </c>
       <c r="O737" s="5"/>
@@ -33684,7 +33727,7 @@
         <f t="shared" si="35"/>
         <v>51</v>
       </c>
-      <c r="N738" s="37" t="s">
+      <c r="N738" s="53" t="s">
         <v>603</v>
       </c>
       <c r="O738" s="6" t="s">
@@ -35680,7 +35723,7 @@
         <f t="shared" si="38"/>
         <v>111</v>
       </c>
-      <c r="N798" s="37" t="s">
+      <c r="N798" s="68" t="s">
         <v>637</v>
       </c>
       <c r="O798" s="5"/>
@@ -35783,7 +35826,7 @@
         <f t="shared" si="38"/>
         <v>114</v>
       </c>
-      <c r="N801" s="37" t="s">
+      <c r="N801" s="68" t="s">
         <v>639</v>
       </c>
       <c r="O801" s="5"/>
@@ -36129,7 +36172,7 @@
         <f t="shared" si="38"/>
         <v>124</v>
       </c>
-      <c r="N811" s="37" t="s">
+      <c r="N811" s="68" t="s">
         <v>255</v>
       </c>
       <c r="O811" s="5"/>
@@ -36590,7 +36633,7 @@
         <f t="shared" si="38"/>
         <v>138</v>
       </c>
-      <c r="N825" s="37" t="s">
+      <c r="N825" s="68" t="s">
         <v>242</v>
       </c>
       <c r="O825" s="5"/>
@@ -36624,7 +36667,7 @@
         <f t="shared" si="38"/>
         <v>139</v>
       </c>
-      <c r="N826" s="37" t="s">
+      <c r="N826" s="68" t="s">
         <v>656</v>
       </c>
       <c r="O826" s="6" t="s">
@@ -37027,7 +37070,7 @@
         <f t="shared" si="41"/>
         <v>151</v>
       </c>
-      <c r="N838" s="37" t="s">
+      <c r="N838" s="68" t="s">
         <v>255</v>
       </c>
       <c r="O838" s="5"/>
@@ -37124,7 +37167,7 @@
         <f t="shared" si="41"/>
         <v>154</v>
       </c>
-      <c r="N841" s="37" t="s">
+      <c r="N841" s="68" t="s">
         <v>270</v>
       </c>
       <c r="O841" s="5"/>
@@ -37159,7 +37202,7 @@
         <f t="shared" si="41"/>
         <v>155</v>
       </c>
-      <c r="N842" s="37" t="s">
+      <c r="N842" s="68" t="s">
         <v>233</v>
       </c>
       <c r="O842" s="6"/>
@@ -38185,7 +38228,7 @@
         <f t="shared" si="41"/>
         <v>187</v>
       </c>
-      <c r="N874" s="37" t="s">
+      <c r="N874" s="68" t="s">
         <v>674</v>
       </c>
       <c r="O874" s="5"/>
@@ -38222,7 +38265,7 @@
         <f t="shared" si="41"/>
         <v>188</v>
       </c>
-      <c r="N875" s="37" t="s">
+      <c r="N875" s="68" t="s">
         <v>675</v>
       </c>
       <c r="O875" s="6" t="s">
@@ -38320,7 +38363,7 @@
         <v>191</v>
       </c>
       <c r="N878" s="37" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="O878" s="5"/>
       <c r="P878" s="11" t="s">
@@ -38332,7 +38375,7 @@
       <c r="T878" s="6"/>
       <c r="U878" s="6"/>
       <c r="V878" s="37" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="879" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38525,7 +38568,7 @@
     </row>
     <row r="885" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A885" s="6" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="I885" s="39" t="s">
         <v>40</v>
@@ -39239,8 +39282,8 @@
       <c r="V905" s="37"/>
     </row>
     <row r="906" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="D906" s="54" t="s">
-        <v>2072</v>
+      <c r="D906" s="52" t="s">
+        <v>2071</v>
       </c>
       <c r="H906" s="30"/>
       <c r="I906" s="39" t="s">
@@ -39691,7 +39734,7 @@
         <f t="shared" si="44"/>
         <v>34</v>
       </c>
-      <c r="N919" s="37" t="s">
+      <c r="N919" s="68" t="s">
         <v>255</v>
       </c>
       <c r="O919" s="5"/>
@@ -40083,7 +40126,7 @@
         <f t="shared" si="44"/>
         <v>46</v>
       </c>
-      <c r="N931" s="37" t="s">
+      <c r="N931" s="68" t="s">
         <v>1645</v>
       </c>
       <c r="O931" s="5"/>
@@ -40234,36 +40277,36 @@
       </c>
     </row>
     <row r="936" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I936" s="61" t="s">
+      <c r="I936" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="J936" s="62">
+      <c r="J936" s="59">
         <v>19</v>
       </c>
-      <c r="K936" s="61">
+      <c r="K936" s="58">
         <f t="shared" si="42"/>
         <v>935</v>
       </c>
-      <c r="L936" s="61">
+      <c r="L936" s="58">
         <v>1</v>
       </c>
-      <c r="M936" s="61">
+      <c r="M936" s="58">
         <f t="shared" si="44"/>
         <v>51</v>
       </c>
-      <c r="N936" s="63" t="s">
+      <c r="N936" s="60" t="s">
         <v>1693</v>
       </c>
-      <c r="O936" s="64"/>
-      <c r="P936" s="65" t="s">
+      <c r="O936" s="61"/>
+      <c r="P936" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="Q936" s="66"/>
-      <c r="R936" s="66"/>
-      <c r="S936" s="66"/>
-      <c r="T936" s="66"/>
-      <c r="U936" s="66"/>
-      <c r="V936" s="63" t="s">
+      <c r="Q936" s="12"/>
+      <c r="R936" s="12"/>
+      <c r="S936" s="12"/>
+      <c r="T936" s="12"/>
+      <c r="U936" s="12"/>
+      <c r="V936" s="60" t="s">
         <v>1902</v>
       </c>
     </row>
@@ -40558,9 +40601,7 @@
       <c r="P945" s="6"/>
       <c r="Q945" s="6"/>
       <c r="R945" s="6"/>
-      <c r="S945" s="6" t="s">
-        <v>184</v>
-      </c>
+      <c r="S945" s="6"/>
       <c r="T945" s="6"/>
       <c r="U945" s="6"/>
       <c r="V945" s="37"/>
@@ -40777,7 +40818,7 @@
         <f t="shared" si="44"/>
         <v>67</v>
       </c>
-      <c r="N952" s="37" t="s">
+      <c r="N952" s="68" t="s">
         <v>405</v>
       </c>
       <c r="O952" s="5"/>
@@ -40813,7 +40854,7 @@
         <f t="shared" si="44"/>
         <v>68</v>
       </c>
-      <c r="N953" s="37" t="s">
+      <c r="N953" s="68" t="s">
         <v>707</v>
       </c>
       <c r="O953" s="5"/>
@@ -41289,7 +41330,7 @@
         <f t="shared" si="47"/>
         <v>82</v>
       </c>
-      <c r="N967" s="37" t="s">
+      <c r="N967" s="68" t="s">
         <v>557</v>
       </c>
       <c r="O967" s="5"/>
@@ -41322,7 +41363,7 @@
         <f t="shared" si="47"/>
         <v>83</v>
       </c>
-      <c r="N968" s="37" t="s">
+      <c r="N968" s="68" t="s">
         <v>716</v>
       </c>
       <c r="O968" s="5"/>
@@ -42896,7 +42937,7 @@
         <f t="shared" si="47"/>
         <v>131</v>
       </c>
-      <c r="N1016" s="37" t="s">
+      <c r="N1016" s="68" t="s">
         <v>270</v>
       </c>
       <c r="O1016" s="5"/>
@@ -42931,7 +42972,7 @@
         <f t="shared" si="47"/>
         <v>132</v>
       </c>
-      <c r="N1017" s="37" t="s">
+      <c r="N1017" s="68" t="s">
         <v>744</v>
       </c>
       <c r="O1017" s="6"/>
@@ -42993,7 +43034,7 @@
         <f t="shared" si="47"/>
         <v>134</v>
       </c>
-      <c r="N1019" s="37" t="s">
+      <c r="N1019" s="68" t="s">
         <v>746</v>
       </c>
       <c r="O1019" s="5"/>
@@ -43026,7 +43067,7 @@
         <f t="shared" si="47"/>
         <v>135</v>
       </c>
-      <c r="N1020" s="37" t="s">
+      <c r="N1020" s="68" t="s">
         <v>1700</v>
       </c>
       <c r="O1020" s="6" t="s">
@@ -43130,7 +43171,7 @@
         <f t="shared" si="47"/>
         <v>138</v>
       </c>
-      <c r="N1023" s="37" t="s">
+      <c r="N1023" s="68" t="s">
         <v>304</v>
       </c>
       <c r="O1023" s="6"/>
@@ -43167,7 +43208,7 @@
         <f t="shared" si="47"/>
         <v>139</v>
       </c>
-      <c r="N1024" s="37" t="s">
+      <c r="N1024" s="68" t="s">
         <v>748</v>
       </c>
       <c r="O1024" s="5"/>
@@ -45131,7 +45172,7 @@
         <f t="shared" si="50"/>
         <v>199</v>
       </c>
-      <c r="N1084" s="37" t="s">
+      <c r="N1084" s="68" t="s">
         <v>232</v>
       </c>
       <c r="O1084" s="5" t="s">
@@ -45167,7 +45208,7 @@
         <f t="shared" si="50"/>
         <v>200</v>
       </c>
-      <c r="N1085" s="37" t="s">
+      <c r="N1085" s="68" t="s">
         <v>782</v>
       </c>
       <c r="O1085" s="5"/>
@@ -45643,7 +45684,7 @@
         <v>117</v>
       </c>
       <c r="T1099" s="6" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="U1099" s="6"/>
       <c r="V1099" s="37"/>
@@ -47009,7 +47050,7 @@
         <f t="shared" si="53"/>
         <v>256</v>
       </c>
-      <c r="N1141" s="37" t="s">
+      <c r="N1141" s="68" t="s">
         <v>814</v>
       </c>
       <c r="O1141" s="5"/>
@@ -47045,7 +47086,7 @@
         <f t="shared" si="53"/>
         <v>257</v>
       </c>
-      <c r="N1142" s="37" t="s">
+      <c r="N1142" s="68" t="s">
         <v>233</v>
       </c>
       <c r="O1142" s="5"/>
@@ -48629,7 +48670,7 @@
         <f t="shared" si="56"/>
         <v>304</v>
       </c>
-      <c r="N1189" s="37" t="s">
+      <c r="N1189" s="68" t="s">
         <v>843</v>
       </c>
       <c r="O1189" s="5"/>
@@ -48665,7 +48706,7 @@
         <f t="shared" si="56"/>
         <v>305</v>
       </c>
-      <c r="N1190" s="37" t="s">
+      <c r="N1190" s="68" t="s">
         <v>844</v>
       </c>
       <c r="O1190" s="5"/>
@@ -49126,7 +49167,7 @@
         <f t="shared" si="56"/>
         <v>319</v>
       </c>
-      <c r="N1204" s="37" t="s">
+      <c r="N1204" s="68" t="s">
         <v>852</v>
       </c>
       <c r="O1204" s="5"/>
@@ -49159,7 +49200,7 @@
         <f t="shared" si="56"/>
         <v>320</v>
       </c>
-      <c r="N1205" s="37" t="s">
+      <c r="N1205" s="68" t="s">
         <v>853</v>
       </c>
       <c r="O1205" s="5"/>
@@ -49204,7 +49245,7 @@
     </row>
     <row r="1207" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1207" s="6" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="I1207" s="39" t="s">
         <v>46</v>
@@ -49929,7 +49970,7 @@
         <f t="shared" si="59"/>
         <v>22</v>
       </c>
-      <c r="N1229" s="37" t="s">
+      <c r="N1229" s="68" t="s">
         <v>270</v>
       </c>
       <c r="O1229" s="5"/>
@@ -49965,7 +50006,7 @@
         <f t="shared" si="59"/>
         <v>23</v>
       </c>
-      <c r="N1230" s="37" t="s">
+      <c r="N1230" s="68" t="s">
         <v>864</v>
       </c>
       <c r="O1230" s="6" t="s">
@@ -50922,7 +50963,7 @@
         <f t="shared" si="59"/>
         <v>52</v>
       </c>
-      <c r="N1259" s="37" t="s">
+      <c r="N1259" s="68" t="s">
         <v>879</v>
       </c>
       <c r="O1259" s="5"/>
@@ -50955,7 +50996,7 @@
         <f t="shared" si="59"/>
         <v>53</v>
       </c>
-      <c r="N1260" s="37" t="s">
+      <c r="N1260" s="68" t="s">
         <v>597</v>
       </c>
       <c r="O1260" s="5"/>
@@ -52168,7 +52209,7 @@
         <f t="shared" si="62"/>
         <v>90</v>
       </c>
-      <c r="N1297" s="37" t="s">
+      <c r="N1297" s="68" t="s">
         <v>1729</v>
       </c>
       <c r="O1297" s="6" t="s">
@@ -52640,10 +52681,10 @@
       <c r="Q1311" s="6"/>
       <c r="R1311" s="6"/>
       <c r="S1311" s="6" t="s">
+        <v>2074</v>
+      </c>
+      <c r="T1311" s="6" t="s">
         <v>2075</v>
-      </c>
-      <c r="T1311" s="6" t="s">
-        <v>2076</v>
       </c>
       <c r="U1311" s="6"/>
       <c r="V1311" s="37"/>
@@ -52707,7 +52748,7 @@
         <f t="shared" si="62"/>
         <v>106</v>
       </c>
-      <c r="N1313" s="37" t="s">
+      <c r="N1313" s="68" t="s">
         <v>907</v>
       </c>
       <c r="O1313" s="5"/>
@@ -52744,7 +52785,7 @@
         <f t="shared" si="62"/>
         <v>107</v>
       </c>
-      <c r="N1314" s="37" t="s">
+      <c r="N1314" s="68" t="s">
         <v>597</v>
       </c>
       <c r="O1314" s="5"/>
@@ -54399,8 +54440,8 @@
         <f t="shared" si="65"/>
         <v>156</v>
       </c>
-      <c r="N1363" s="37" t="s">
-        <v>2077</v>
+      <c r="N1363" s="68" t="s">
+        <v>2076</v>
       </c>
       <c r="O1363" s="6" t="s">
         <v>0</v>
@@ -55383,7 +55424,7 @@
         <f t="shared" si="65"/>
         <v>185</v>
       </c>
-      <c r="N1392" s="37" t="s">
+      <c r="N1392" s="68" t="s">
         <v>943</v>
       </c>
       <c r="O1392" s="6"/>
@@ -55417,7 +55458,7 @@
         <f t="shared" si="65"/>
         <v>186</v>
       </c>
-      <c r="N1393" s="37" t="s">
+      <c r="N1393" s="68" t="s">
         <v>1738</v>
       </c>
       <c r="O1393" s="6" t="s">
@@ -55861,7 +55902,7 @@
         <f t="shared" si="65"/>
         <v>199</v>
       </c>
-      <c r="N1406" s="37" t="s">
+      <c r="N1406" s="68" t="s">
         <v>1740</v>
       </c>
       <c r="O1406" s="5"/>
@@ -56071,7 +56112,7 @@
       <c r="N1412" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="O1412" s="58" t="s">
+      <c r="O1412" s="56" t="s">
         <v>1</v>
       </c>
       <c r="P1412" s="11" t="s">
@@ -56170,7 +56211,7 @@
         <f t="shared" si="68"/>
         <v>208</v>
       </c>
-      <c r="N1415" s="37" t="s">
+      <c r="N1415" s="68" t="s">
         <v>202</v>
       </c>
       <c r="O1415" s="5"/>
@@ -56204,7 +56245,7 @@
         <f t="shared" si="68"/>
         <v>209</v>
       </c>
-      <c r="N1416" s="37" t="s">
+      <c r="N1416" s="68" t="s">
         <v>950</v>
       </c>
       <c r="O1416" s="6" t="s">
@@ -56525,7 +56566,7 @@
       <c r="N1425" s="37" t="s">
         <v>349</v>
       </c>
-      <c r="O1425" s="58" t="s">
+      <c r="O1425" s="56" t="s">
         <v>1</v>
       </c>
       <c r="P1425" s="11" t="s">
@@ -56625,7 +56666,7 @@
         <v>221</v>
       </c>
       <c r="N1428" s="37" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="O1428" s="5"/>
       <c r="P1428" s="6"/>
@@ -58168,7 +58209,7 @@
     </row>
     <row r="1475" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1475" s="6" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="C1475" s="35"/>
       <c r="H1475" s="30"/>
@@ -58654,7 +58695,7 @@
         <f t="shared" si="71"/>
         <v>14</v>
       </c>
-      <c r="N1489" s="37" t="s">
+      <c r="N1489" s="68" t="s">
         <v>535</v>
       </c>
       <c r="O1489" s="5"/>
@@ -59149,7 +59190,7 @@
         <f t="shared" si="71"/>
         <v>29</v>
       </c>
-      <c r="N1504" s="37" t="s">
+      <c r="N1504" s="68" t="s">
         <v>214</v>
       </c>
       <c r="O1504" s="5"/>
@@ -59183,7 +59224,7 @@
         <f t="shared" si="71"/>
         <v>30</v>
       </c>
-      <c r="N1505" s="37" t="s">
+      <c r="N1505" s="68" t="s">
         <v>985</v>
       </c>
       <c r="O1505" s="6"/>
@@ -60583,7 +60624,7 @@
         <f t="shared" si="74"/>
         <v>72</v>
       </c>
-      <c r="N1547" s="37" t="s">
+      <c r="N1547" s="68" t="s">
         <v>1001</v>
       </c>
       <c r="O1547" s="5"/>
@@ -60616,7 +60657,7 @@
         <f t="shared" si="74"/>
         <v>73</v>
       </c>
-      <c r="N1548" s="37" t="s">
+      <c r="N1548" s="68" t="s">
         <v>1755</v>
       </c>
       <c r="O1548" s="6" t="s">
@@ -60909,7 +60950,7 @@
         <f t="shared" si="74"/>
         <v>82</v>
       </c>
-      <c r="N1557" s="37" t="s">
+      <c r="N1557" s="68" t="s">
         <v>255</v>
       </c>
       <c r="O1557" s="5"/>
@@ -61008,7 +61049,7 @@
         <f t="shared" si="74"/>
         <v>85</v>
       </c>
-      <c r="N1560" s="37" t="s">
+      <c r="N1560" s="68" t="s">
         <v>1010</v>
       </c>
       <c r="O1560" s="5" t="s">
@@ -61045,7 +61086,7 @@
         <f t="shared" si="74"/>
         <v>86</v>
       </c>
-      <c r="N1561" s="37" t="s">
+      <c r="N1561" s="68" t="s">
         <v>1011</v>
       </c>
       <c r="O1561" s="5"/>
@@ -62041,7 +62082,7 @@
         <v>118</v>
       </c>
       <c r="N1593" s="37" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="O1593" s="6" t="s">
         <v>0</v>
@@ -62096,7 +62137,7 @@
         <f t="shared" si="74"/>
         <v>120</v>
       </c>
-      <c r="N1595" s="55" t="s">
+      <c r="N1595" s="53" t="s">
         <v>1032</v>
       </c>
       <c r="V1595" s="37"/>
@@ -63583,7 +63624,7 @@
         <f t="shared" si="77"/>
         <v>177</v>
       </c>
-      <c r="N1652" s="37" t="s">
+      <c r="N1652" s="68" t="s">
         <v>472</v>
       </c>
       <c r="S1652" s="1" t="s">
@@ -63619,7 +63660,7 @@
         <f t="shared" si="77"/>
         <v>178</v>
       </c>
-      <c r="N1653" s="37" t="s">
+      <c r="N1653" s="68" t="s">
         <v>831</v>
       </c>
       <c r="V1653" s="37"/>
@@ -63721,7 +63762,7 @@
         <f t="shared" si="77"/>
         <v>182</v>
       </c>
-      <c r="N1657" s="37" t="s">
+      <c r="N1657" s="68" t="s">
         <v>1763</v>
       </c>
       <c r="O1657" s="6" t="s">
@@ -63730,7 +63771,7 @@
       <c r="P1657" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="U1657" s="1" t="s">
+      <c r="U1657" s="6" t="s">
         <v>94</v>
       </c>
       <c r="V1657" s="37" t="s">
@@ -63762,6 +63803,7 @@
       <c r="O1658" s="6" t="s">
         <v>0</v>
       </c>
+      <c r="U1658" s="6"/>
       <c r="V1658" s="37" t="s">
         <v>1560</v>
       </c>
@@ -63788,7 +63830,7 @@
       <c r="N1659" s="37" t="s">
         <v>1067</v>
       </c>
-      <c r="U1659" s="1" t="s">
+      <c r="U1659" s="6" t="s">
         <v>173</v>
       </c>
       <c r="V1659" s="37"/>
@@ -64168,7 +64210,7 @@
         <f t="shared" si="80"/>
         <v>9</v>
       </c>
-      <c r="N1673" s="37" t="s">
+      <c r="N1673" s="68" t="s">
         <v>720</v>
       </c>
       <c r="V1673" s="37"/>
@@ -64195,7 +64237,7 @@
         <f t="shared" si="80"/>
         <v>10</v>
       </c>
-      <c r="N1674" s="37" t="s">
+      <c r="N1674" s="68" t="s">
         <v>472</v>
       </c>
       <c r="S1674" s="1" t="s">
@@ -64579,7 +64621,7 @@
         <f t="shared" si="80"/>
         <v>24</v>
       </c>
-      <c r="N1688" s="37" t="s">
+      <c r="N1688" s="68" t="s">
         <v>1078</v>
       </c>
       <c r="U1688" s="1" t="s">
@@ -65162,7 +65204,7 @@
         <f t="shared" si="80"/>
         <v>47</v>
       </c>
-      <c r="N1711" s="37" t="s">
+      <c r="N1711" s="68" t="s">
         <v>1090</v>
       </c>
       <c r="U1711" s="1" t="s">
@@ -65902,7 +65944,7 @@
         <f t="shared" si="83"/>
         <v>75</v>
       </c>
-      <c r="N1739" s="37" t="s">
+      <c r="N1739" s="68" t="s">
         <v>1106</v>
       </c>
       <c r="U1739" s="1" t="s">
@@ -66077,7 +66119,7 @@
         <f t="shared" si="83"/>
         <v>81</v>
       </c>
-      <c r="N1745" s="37" t="s">
+      <c r="N1745" s="68" t="s">
         <v>417</v>
       </c>
       <c r="U1745" s="1" t="s">
@@ -66159,7 +66201,7 @@
         <v>90</v>
       </c>
       <c r="T1748" s="1" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="V1748" s="37"/>
     </row>
@@ -66467,7 +66509,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="1761" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1761" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1761" s="39" t="s">
         <v>57</v>
       </c>
@@ -66491,7 +66533,7 @@
       </c>
       <c r="V1761" s="37"/>
     </row>
-    <row r="1762" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1762" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1762" s="39" t="s">
         <v>57</v>
       </c>
@@ -66515,7 +66557,7 @@
       </c>
       <c r="V1762" s="37"/>
     </row>
-    <row r="1763" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1763" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1763" s="39" t="s">
         <v>57</v>
       </c>
@@ -66539,7 +66581,7 @@
       </c>
       <c r="V1763" s="37"/>
     </row>
-    <row r="1764" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1764" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1764" s="39" t="s">
         <v>57</v>
       </c>
@@ -66566,7 +66608,7 @@
       </c>
       <c r="V1764" s="37"/>
     </row>
-    <row r="1765" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1765" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="H1765" s="44" t="s">
         <v>155</v>
       </c>
@@ -66592,7 +66634,7 @@
       </c>
       <c r="V1765" s="37"/>
     </row>
-    <row r="1766" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1766" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="H1766" s="44" t="s">
         <v>155</v>
       </c>
@@ -66619,7 +66661,7 @@
       </c>
       <c r="V1766" s="37"/>
     </row>
-    <row r="1767" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1767" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="H1767" s="44" t="s">
         <v>155</v>
       </c>
@@ -66646,7 +66688,7 @@
       </c>
       <c r="V1767" s="37"/>
     </row>
-    <row r="1768" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1768" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="H1768" s="44" t="s">
         <v>155</v>
       </c>
@@ -66673,7 +66715,10 @@
       </c>
       <c r="V1768" s="37"/>
     </row>
-    <row r="1769" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1769" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A1769" s="6" t="s">
+        <v>2087</v>
+      </c>
       <c r="H1769" s="44" t="s">
         <v>155</v>
       </c>
@@ -66695,7 +66740,7 @@
         <f t="shared" si="83"/>
         <v>105</v>
       </c>
-      <c r="N1769" s="55" t="s">
+      <c r="N1769" s="68" t="s">
         <v>195</v>
       </c>
       <c r="O1769" s="5" t="s">
@@ -66703,7 +66748,7 @@
       </c>
       <c r="V1769" s="37"/>
     </row>
-    <row r="1770" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1770" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="H1770" s="44" t="s">
         <v>155</v>
       </c>
@@ -66725,12 +66770,12 @@
         <f t="shared" si="83"/>
         <v>106</v>
       </c>
-      <c r="N1770" s="37" t="s">
+      <c r="N1770" s="68" t="s">
         <v>418</v>
       </c>
       <c r="V1770" s="37"/>
     </row>
-    <row r="1771" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1771" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="H1771" s="44" t="s">
         <v>155</v>
       </c>
@@ -66757,7 +66802,7 @@
       </c>
       <c r="V1771" s="37"/>
     </row>
-    <row r="1772" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1772" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="H1772" s="44" t="s">
         <v>155</v>
       </c>
@@ -66789,7 +66834,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="1773" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1773" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1773" s="39" t="s">
         <v>58</v>
       </c>
@@ -66813,7 +66858,7 @@
       </c>
       <c r="V1773" s="37"/>
     </row>
-    <row r="1774" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1774" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1774" s="39" t="s">
         <v>58</v>
       </c>
@@ -66837,7 +66882,7 @@
       </c>
       <c r="V1774" s="37"/>
     </row>
-    <row r="1775" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1775" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1775" s="39" t="s">
         <v>58</v>
       </c>
@@ -66864,7 +66909,7 @@
       </c>
       <c r="V1775" s="37"/>
     </row>
-    <row r="1776" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1776" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I1776" s="39" t="s">
         <v>58</v>
       </c>
@@ -67064,7 +67109,7 @@
         <f t="shared" si="83"/>
         <v>119</v>
       </c>
-      <c r="N1783" s="37" t="s">
+      <c r="N1783" s="68" t="s">
         <v>602</v>
       </c>
       <c r="U1783" s="1" t="s">
@@ -67091,7 +67136,7 @@
         <f t="shared" si="83"/>
         <v>120</v>
       </c>
-      <c r="N1784" s="37" t="s">
+      <c r="N1784" s="68" t="s">
         <v>1118</v>
       </c>
       <c r="V1784" s="37"/>
@@ -67214,7 +67259,7 @@
       <c r="N1789" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="O1789" s="58" t="s">
+      <c r="O1789" s="56" t="s">
         <v>1</v>
       </c>
       <c r="P1789" s="11" t="s">
@@ -67243,7 +67288,7 @@
         <f t="shared" si="83"/>
         <v>126</v>
       </c>
-      <c r="N1790" s="37" t="s">
+      <c r="N1790" s="68" t="s">
         <v>578</v>
       </c>
       <c r="V1790" s="37"/>
@@ -67267,7 +67312,7 @@
         <f t="shared" si="83"/>
         <v>127</v>
       </c>
-      <c r="N1791" s="37" t="s">
+      <c r="N1791" s="68" t="s">
         <v>1120</v>
       </c>
       <c r="U1791" s="1" t="s">
@@ -67294,7 +67339,7 @@
         <f t="shared" si="83"/>
         <v>128</v>
       </c>
-      <c r="N1792" s="37" t="s">
+      <c r="N1792" s="68" t="s">
         <v>578</v>
       </c>
       <c r="V1792" s="37"/>
@@ -67664,7 +67709,7 @@
         <f t="shared" si="86"/>
         <v>142</v>
       </c>
-      <c r="N1806" s="37" t="s">
+      <c r="N1806" s="68" t="s">
         <v>354</v>
       </c>
       <c r="O1806" s="6" t="s">
@@ -67696,7 +67741,7 @@
         <f t="shared" si="86"/>
         <v>143</v>
       </c>
-      <c r="N1807" s="37" t="s">
+      <c r="N1807" s="68" t="s">
         <v>1124</v>
       </c>
       <c r="V1807" s="37"/>
@@ -67979,7 +68024,7 @@
       <c r="N1818" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="O1818" s="59" t="s">
+      <c r="O1818" s="57" t="s">
         <v>1</v>
       </c>
       <c r="P1818" s="11" t="s">
@@ -68135,7 +68180,7 @@
     </row>
     <row r="1825" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1825" s="6" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="I1825" s="39" t="s">
         <v>58</v>
@@ -69881,7 +69926,7 @@
       <c r="N1893" s="37" t="s">
         <v>349</v>
       </c>
-      <c r="O1893" s="58" t="s">
+      <c r="O1893" s="56" t="s">
         <v>1</v>
       </c>
       <c r="P1893" s="11" t="s">
@@ -71316,7 +71361,7 @@
         <f t="shared" si="92"/>
         <v>124</v>
       </c>
-      <c r="N1949" s="37" t="s">
+      <c r="N1949" s="68" t="s">
         <v>602</v>
       </c>
       <c r="U1949" s="1" t="s">
@@ -71343,7 +71388,7 @@
         <f t="shared" si="92"/>
         <v>125</v>
       </c>
-      <c r="N1950" s="37" t="s">
+      <c r="N1950" s="68" t="s">
         <v>233</v>
       </c>
       <c r="V1950" s="37"/>
@@ -72492,7 +72537,7 @@
         <f t="shared" si="95"/>
         <v>170</v>
       </c>
-      <c r="N1995" s="37" t="s">
+      <c r="N1995" s="68" t="s">
         <v>242</v>
       </c>
       <c r="V1995" s="37"/>
@@ -72516,10 +72561,10 @@
         <f t="shared" si="95"/>
         <v>171</v>
       </c>
-      <c r="N1996" s="37" t="s">
+      <c r="N1996" s="68" t="s">
         <v>255</v>
       </c>
-      <c r="T1996" s="1" t="s">
+      <c r="U1996" s="1" t="s">
         <v>186</v>
       </c>
       <c r="V1996" s="37"/>
@@ -72543,7 +72588,7 @@
         <f t="shared" si="95"/>
         <v>172</v>
       </c>
-      <c r="N1997" s="37" t="s">
+      <c r="N1997" s="68" t="s">
         <v>436</v>
       </c>
       <c r="V1997" s="37"/>
@@ -73135,7 +73180,7 @@
         <v>195</v>
       </c>
       <c r="N2020" s="37" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="V2020" s="37"/>
     </row>
@@ -73889,7 +73934,7 @@
       </c>
       <c r="V2048" s="37"/>
     </row>
-    <row r="2049" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2049" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="H2049" s="44" t="s">
         <v>158</v>
       </c>
@@ -73911,7 +73956,7 @@
         <f t="shared" si="95"/>
         <v>224</v>
       </c>
-      <c r="N2049" s="37" t="s">
+      <c r="N2049" s="68" t="s">
         <v>255</v>
       </c>
       <c r="U2049" s="1" t="s">
@@ -73919,7 +73964,7 @@
       </c>
       <c r="V2049" s="37"/>
     </row>
-    <row r="2050" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2050" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="H2050" s="44" t="s">
         <v>158</v>
       </c>
@@ -73946,7 +73991,7 @@
       </c>
       <c r="V2050" s="37"/>
     </row>
-    <row r="2051" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2051" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="H2051" s="44" t="s">
         <v>158</v>
       </c>
@@ -73978,7 +74023,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2052" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2052" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I2052" s="39" t="s">
         <v>63</v>
       </c>
@@ -74005,7 +74050,7 @@
       </c>
       <c r="V2052" s="37"/>
     </row>
-    <row r="2053" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2053" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I2053" s="39" t="s">
         <v>63</v>
       </c>
@@ -74029,7 +74074,7 @@
       </c>
       <c r="V2053" s="37"/>
     </row>
-    <row r="2054" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2054" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I2054" s="39" t="s">
         <v>63</v>
       </c>
@@ -74053,7 +74098,7 @@
       </c>
       <c r="V2054" s="37"/>
     </row>
-    <row r="2055" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2055" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I2055" s="39" t="s">
         <v>63</v>
       </c>
@@ -74082,7 +74127,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2056" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2056" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I2056" s="39" t="s">
         <v>63</v>
       </c>
@@ -74106,7 +74151,7 @@
       </c>
       <c r="V2056" s="37"/>
     </row>
-    <row r="2057" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2057" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I2057" s="39" t="s">
         <v>63</v>
       </c>
@@ -74130,7 +74175,7 @@
       </c>
       <c r="V2057" s="37"/>
     </row>
-    <row r="2058" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2058" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I2058" s="39" t="s">
         <v>63</v>
       </c>
@@ -74154,7 +74199,7 @@
       </c>
       <c r="V2058" s="37"/>
     </row>
-    <row r="2059" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2059" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I2059" s="39" t="s">
         <v>63</v>
       </c>
@@ -74181,7 +74226,7 @@
       </c>
       <c r="V2059" s="37"/>
     </row>
-    <row r="2060" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2060" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I2060" s="39" t="s">
         <v>63</v>
       </c>
@@ -74205,7 +74250,7 @@
       </c>
       <c r="V2060" s="37"/>
     </row>
-    <row r="2061" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2061" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I2061" s="39" t="s">
         <v>63</v>
       </c>
@@ -74229,7 +74274,7 @@
       </c>
       <c r="V2061" s="37"/>
     </row>
-    <row r="2062" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2062" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I2062" s="39" t="s">
         <v>63</v>
       </c>
@@ -74253,7 +74298,7 @@
       </c>
       <c r="V2062" s="37"/>
     </row>
-    <row r="2063" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2063" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I2063" s="39" t="s">
         <v>63</v>
       </c>
@@ -74277,7 +74322,12 @@
       </c>
       <c r="V2063" s="37"/>
     </row>
-    <row r="2064" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2064" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A2064" s="69" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B2064" s="70"/>
+      <c r="C2064" s="71"/>
       <c r="I2064" s="39" t="s">
         <v>63</v>
       </c>
@@ -74296,14 +74346,11 @@
         <f t="shared" si="98"/>
         <v>239</v>
       </c>
-      <c r="N2064" s="37" t="s">
+      <c r="N2064" s="72" t="s">
         <v>195</v>
       </c>
       <c r="O2064" s="5" t="s">
         <v>1</v>
-      </c>
-      <c r="U2064" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="V2064" s="37"/>
     </row>
@@ -74326,7 +74373,7 @@
         <f t="shared" si="98"/>
         <v>240</v>
       </c>
-      <c r="N2065" s="37" t="s">
+      <c r="N2065" s="72" t="s">
         <v>418</v>
       </c>
       <c r="V2065" s="37"/>
@@ -76298,7 +76345,7 @@
         <f t="shared" si="101"/>
         <v>12</v>
       </c>
-      <c r="N2141" s="37" t="s">
+      <c r="N2141" s="68" t="s">
         <v>232</v>
       </c>
       <c r="O2141" s="5" t="s">
@@ -76331,7 +76378,7 @@
         <f t="shared" si="101"/>
         <v>13</v>
       </c>
-      <c r="N2142" s="37" t="s">
+      <c r="N2142" s="68" t="s">
         <v>1251</v>
       </c>
       <c r="V2142" s="37"/>
@@ -76728,7 +76775,7 @@
         <f t="shared" si="101"/>
         <v>28</v>
       </c>
-      <c r="N2157" s="37" t="s">
+      <c r="N2157" s="68" t="s">
         <v>195</v>
       </c>
       <c r="O2157" s="5" t="s">
@@ -76758,7 +76805,7 @@
         <f t="shared" si="101"/>
         <v>29</v>
       </c>
-      <c r="N2158" s="37" t="s">
+      <c r="N2158" s="68" t="s">
         <v>242</v>
       </c>
       <c r="V2158" s="37"/>
@@ -77630,7 +77677,7 @@
         <f t="shared" si="103"/>
         <v>63</v>
       </c>
-      <c r="N2192" s="37" t="s">
+      <c r="N2192" s="68" t="s">
         <v>195</v>
       </c>
       <c r="O2192" s="5" t="s">
@@ -77660,7 +77707,7 @@
         <f t="shared" si="103"/>
         <v>64</v>
       </c>
-      <c r="N2193" s="37" t="s">
+      <c r="N2193" s="68" t="s">
         <v>242</v>
       </c>
       <c r="V2193" s="37"/>
@@ -77938,7 +77985,7 @@
         <f t="shared" si="103"/>
         <v>75</v>
       </c>
-      <c r="N2204" s="37" t="s">
+      <c r="N2204" s="68" t="s">
         <v>405</v>
       </c>
       <c r="U2204" s="1" t="s">
@@ -77965,7 +78012,7 @@
         <f t="shared" si="103"/>
         <v>76</v>
       </c>
-      <c r="N2205" s="37" t="s">
+      <c r="N2205" s="68" t="s">
         <v>1279</v>
       </c>
       <c r="V2205" s="37"/>
@@ -78738,7 +78785,7 @@
         <f t="shared" si="103"/>
         <v>106</v>
       </c>
-      <c r="N2235" s="37" t="s">
+      <c r="N2235" s="68" t="s">
         <v>195</v>
       </c>
       <c r="O2235" s="5" t="s">
@@ -78768,7 +78815,7 @@
         <f t="shared" si="103"/>
         <v>107</v>
       </c>
-      <c r="N2236" s="37" t="s">
+      <c r="N2236" s="68" t="s">
         <v>242</v>
       </c>
       <c r="V2236" s="37"/>
@@ -79853,7 +79900,7 @@
         <f t="shared" si="107"/>
         <v>150</v>
       </c>
-      <c r="N2279" s="37" t="s">
+      <c r="N2279" s="68" t="s">
         <v>195</v>
       </c>
       <c r="O2279" s="5" t="s">
@@ -79882,7 +79929,7 @@
         <f t="shared" si="107"/>
         <v>151</v>
       </c>
-      <c r="N2280" s="37" t="s">
+      <c r="N2280" s="68" t="s">
         <v>242</v>
       </c>
       <c r="V2280" s="37"/>
@@ -80178,7 +80225,7 @@
         <f t="shared" si="107"/>
         <v>162</v>
       </c>
-      <c r="N2291" s="37" t="s">
+      <c r="N2291" s="68" t="s">
         <v>288</v>
       </c>
       <c r="O2291" s="5" t="s">
@@ -80211,7 +80258,7 @@
         <f t="shared" si="107"/>
         <v>163</v>
       </c>
-      <c r="N2292" s="37" t="s">
+      <c r="N2292" s="68" t="s">
         <v>298</v>
       </c>
       <c r="V2292" s="37"/>
@@ -80358,7 +80405,7 @@
       <c r="N2298" s="37" t="s">
         <v>349</v>
       </c>
-      <c r="O2298" s="58" t="s">
+      <c r="O2298" s="56" t="s">
         <v>1</v>
       </c>
       <c r="P2298" s="11" t="s">
@@ -80522,7 +80569,7 @@
         <f t="shared" si="107"/>
         <v>175</v>
       </c>
-      <c r="N2304" s="37" t="s">
+      <c r="N2304" s="68" t="s">
         <v>255</v>
       </c>
       <c r="U2304" s="1" t="s">
@@ -80549,7 +80596,7 @@
         <f t="shared" si="107"/>
         <v>176</v>
       </c>
-      <c r="N2305" s="37" t="s">
+      <c r="N2305" s="68" t="s">
         <v>1307</v>
       </c>
       <c r="V2305" s="37"/>
@@ -80887,7 +80934,7 @@
         <f t="shared" si="110"/>
         <v>189</v>
       </c>
-      <c r="N2318" s="37" t="s">
+      <c r="N2318" s="68" t="s">
         <v>417</v>
       </c>
       <c r="P2318" s="11" t="s">
@@ -81114,7 +81161,7 @@
         <f t="shared" si="110"/>
         <v>198</v>
       </c>
-      <c r="N2327" s="37" t="s">
+      <c r="N2327" s="68" t="s">
         <v>417</v>
       </c>
       <c r="U2327" s="1" t="s">
@@ -81218,7 +81265,7 @@
         <f t="shared" si="110"/>
         <v>202</v>
       </c>
-      <c r="N2331" s="37" t="s">
+      <c r="N2331" s="68" t="s">
         <v>195</v>
       </c>
       <c r="O2331" s="5" t="s">
@@ -81248,7 +81295,7 @@
         <f t="shared" si="110"/>
         <v>203</v>
       </c>
-      <c r="N2332" s="37" t="s">
+      <c r="N2332" s="68" t="s">
         <v>242</v>
       </c>
       <c r="V2332" s="37"/>
@@ -81378,7 +81425,7 @@
     </row>
     <row r="2338" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2338" s="6" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="I2338" s="39" t="s">
         <v>68</v>
@@ -83524,7 +83571,7 @@
         <f t="shared" si="113"/>
         <v>79</v>
       </c>
-      <c r="N2417" s="37" t="s">
+      <c r="N2417" s="68" t="s">
         <v>1356</v>
       </c>
       <c r="V2417" s="37"/>
@@ -83548,7 +83595,7 @@
         <f t="shared" si="113"/>
         <v>80</v>
       </c>
-      <c r="N2418" s="37" t="s">
+      <c r="N2418" s="68" t="s">
         <v>1357</v>
       </c>
       <c r="U2418" s="1" t="s">
@@ -83575,7 +83622,7 @@
         <f t="shared" si="113"/>
         <v>81</v>
       </c>
-      <c r="N2419" s="37" t="s">
+      <c r="N2419" s="68" t="s">
         <v>1358</v>
       </c>
       <c r="V2419" s="37"/>
@@ -84130,7 +84177,7 @@
         <f t="shared" si="116"/>
         <v>102</v>
       </c>
-      <c r="N2440" s="37" t="s">
+      <c r="N2440" s="68" t="s">
         <v>419</v>
       </c>
       <c r="U2440" s="1" t="s">
@@ -84157,7 +84204,7 @@
         <f t="shared" si="116"/>
         <v>103</v>
       </c>
-      <c r="N2441" s="37" t="s">
+      <c r="N2441" s="68" t="s">
         <v>1367</v>
       </c>
       <c r="V2441" s="37"/>
@@ -84695,7 +84742,7 @@
       <c r="N2461" s="37" t="s">
         <v>1379</v>
       </c>
-      <c r="O2461" s="60"/>
+      <c r="O2461" s="6"/>
       <c r="V2461" s="37"/>
     </row>
     <row r="2462" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -84784,7 +84831,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="2465" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2465" spans="1:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I2465" s="39" t="s">
         <v>71</v>
       </c>
@@ -84803,7 +84850,7 @@
         <f t="shared" si="116"/>
         <v>127</v>
       </c>
-      <c r="N2465" s="37" t="s">
+      <c r="N2465" s="68" t="s">
         <v>354</v>
       </c>
       <c r="O2465" s="6" t="s">
@@ -84816,7 +84863,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="2466" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2466" spans="1:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I2466" s="39" t="s">
         <v>71</v>
       </c>
@@ -84835,7 +84882,7 @@
         <f t="shared" si="116"/>
         <v>128</v>
       </c>
-      <c r="N2466" s="37" t="s">
+      <c r="N2466" s="68" t="s">
         <v>255</v>
       </c>
       <c r="U2466" s="1" t="s">
@@ -84843,7 +84890,7 @@
       </c>
       <c r="V2466" s="37"/>
     </row>
-    <row r="2467" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2467" spans="1:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I2467" s="39" t="s">
         <v>71</v>
       </c>
@@ -84873,7 +84920,7 @@
       </c>
       <c r="V2467" s="37"/>
     </row>
-    <row r="2468" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2468" spans="1:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I2468" s="39" t="s">
         <v>71</v>
       </c>
@@ -84899,9 +84946,9 @@
       <c r="T2468" s="6"/>
       <c r="V2468" s="37"/>
     </row>
-    <row r="2469" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2469" spans="1:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2469" s="6" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="I2469" s="39" t="s">
         <v>71</v>
@@ -84921,14 +84968,17 @@
         <f t="shared" si="116"/>
         <v>131</v>
       </c>
-      <c r="N2469" s="55" t="s">
+      <c r="N2469" s="53" t="s">
         <v>199</v>
       </c>
       <c r="S2469" s="6"/>
       <c r="T2469" s="6"/>
       <c r="V2469" s="37"/>
-    </row>
-    <row r="2470" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="X2469" s="6" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I2470" s="39" t="s">
         <v>71</v>
       </c>
@@ -84947,14 +84997,14 @@
         <f t="shared" si="116"/>
         <v>132</v>
       </c>
-      <c r="N2470" s="55" t="s">
+      <c r="N2470" s="53" t="s">
         <v>526</v>
       </c>
       <c r="S2470" s="6"/>
       <c r="T2470" s="6"/>
       <c r="V2470" s="37"/>
     </row>
-    <row r="2471" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2471" spans="1:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I2471" s="39" t="s">
         <v>71</v>
       </c>
@@ -84973,7 +85023,7 @@
         <f t="shared" si="116"/>
         <v>133</v>
       </c>
-      <c r="N2471" s="37" t="s">
+      <c r="N2471" s="68" t="s">
         <v>195</v>
       </c>
       <c r="O2471" s="5" t="s">
@@ -84986,7 +85036,7 @@
       </c>
       <c r="V2471" s="37"/>
     </row>
-    <row r="2472" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2472" spans="1:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I2472" s="39" t="s">
         <v>71</v>
       </c>
@@ -85005,7 +85055,7 @@
         <f t="shared" si="116"/>
         <v>134</v>
       </c>
-      <c r="N2472" s="37" t="s">
+      <c r="N2472" s="68" t="s">
         <v>1672</v>
       </c>
       <c r="P2472" s="11" t="s">
@@ -85017,7 +85067,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="2473" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2473" spans="1:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I2473" s="39" t="s">
         <v>71</v>
       </c>
@@ -85043,7 +85093,7 @@
       <c r="T2473" s="6"/>
       <c r="V2473" s="37"/>
     </row>
-    <row r="2474" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2474" spans="1:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I2474" s="39" t="s">
         <v>71</v>
       </c>
@@ -85069,7 +85119,7 @@
       <c r="T2474" s="6"/>
       <c r="V2474" s="37"/>
     </row>
-    <row r="2475" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2475" spans="1:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I2475" s="39" t="s">
         <v>71</v>
       </c>
@@ -85095,7 +85145,7 @@
       <c r="T2475" s="6"/>
       <c r="V2475" s="37"/>
     </row>
-    <row r="2476" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2476" spans="1:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I2476" s="39" t="s">
         <v>71</v>
       </c>
@@ -85124,13 +85174,13 @@
         <v>90</v>
       </c>
       <c r="T2476" s="6" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="V2476" s="37" t="s">
         <v>1876</v>
       </c>
     </row>
-    <row r="2477" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2477" spans="1:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I2477" s="39" t="s">
         <v>71</v>
       </c>
@@ -85156,7 +85206,7 @@
       <c r="T2477" s="6"/>
       <c r="V2477" s="37"/>
     </row>
-    <row r="2478" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2478" spans="1:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I2478" s="39" t="s">
         <v>71</v>
       </c>
@@ -85182,7 +85232,7 @@
       <c r="T2478" s="6"/>
       <c r="V2478" s="37"/>
     </row>
-    <row r="2479" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2479" spans="1:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I2479" s="39" t="s">
         <v>71</v>
       </c>
@@ -85217,7 +85267,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="2480" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2480" spans="1:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="I2480" s="39" t="s">
         <v>71</v>
       </c>
@@ -85591,7 +85641,7 @@
         <f t="shared" si="116"/>
         <v>156</v>
       </c>
-      <c r="N2494" s="37" t="s">
+      <c r="N2494" s="68" t="s">
         <v>233</v>
       </c>
       <c r="V2494" s="37"/>
@@ -85618,7 +85668,7 @@
         <f t="shared" si="116"/>
         <v>157</v>
       </c>
-      <c r="N2495" s="37" t="s">
+      <c r="N2495" s="68" t="s">
         <v>255</v>
       </c>
       <c r="U2495" s="1" t="s">
@@ -85648,7 +85698,7 @@
         <f t="shared" si="116"/>
         <v>158</v>
       </c>
-      <c r="N2496" s="37" t="s">
+      <c r="N2496" s="68" t="s">
         <v>199</v>
       </c>
       <c r="V2496" s="37"/>
@@ -85702,7 +85752,7 @@
         <f t="shared" si="116"/>
         <v>160</v>
       </c>
-      <c r="N2498" s="37" t="s">
+      <c r="N2498" s="68" t="s">
         <v>233</v>
       </c>
       <c r="V2498" s="37"/>
@@ -85729,7 +85779,7 @@
         <f t="shared" si="116"/>
         <v>161</v>
       </c>
-      <c r="N2499" s="37" t="s">
+      <c r="N2499" s="68" t="s">
         <v>255</v>
       </c>
       <c r="P2499" s="11" t="s">

--- a/TS Jatai Working/Padam Input Templates/TS 4.2 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 4.2 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13C55D4-2103-4EB2-A031-E3502E222210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D210FDBC-E9E3-4676-B4AC-48891E4EAD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,9 +26,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -6218,9 +6221,6 @@
     <t>anvanu</t>
   </si>
   <si>
-    <t>P[s]+N{r]</t>
-  </si>
-  <si>
     <t>P[r]+N[r]</t>
   </si>
   <si>
@@ -6303,6 +6303,9 @@
   </si>
   <si>
     <t>yo &amp;nu + yo anvanu</t>
+  </si>
+  <si>
+    <t>P[s]+N[r]</t>
   </si>
 </sst>
 </file>
@@ -6533,7 +6536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6722,9 +6725,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7028,9 +7028,9 @@
   <dimension ref="A1:X2500"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2486" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="Q2452" sqref="Q2452"/>
+      <selection pane="bottomLeft" activeCell="N142" sqref="N142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -7554,7 +7554,7 @@
         <v>11</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="T1" s="10" t="s">
         <v>21</v>
@@ -11076,7 +11076,7 @@
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="N91" s="66" t="s">
+      <c r="N91" s="37" t="s">
         <v>232</v>
       </c>
       <c r="O91" s="6" t="s">
@@ -11121,7 +11121,7 @@
         <f t="shared" si="5"/>
         <v>91</v>
       </c>
-      <c r="N92" s="66" t="s">
+      <c r="N92" s="37" t="s">
         <v>233</v>
       </c>
       <c r="O92" s="6"/>
@@ -12060,8 +12060,8 @@
       <c r="S118" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="T118" s="6" t="s">
-        <v>2060</v>
+      <c r="T118" s="64" t="s">
+        <v>2088</v>
       </c>
       <c r="U118" s="6"/>
       <c r="V118" s="37"/>
@@ -12245,8 +12245,8 @@
       <c r="S123" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="T123" s="6" t="s">
-        <v>2060</v>
+      <c r="T123" s="64" t="s">
+        <v>2088</v>
       </c>
       <c r="U123" s="6"/>
       <c r="V123" s="37"/>
@@ -12539,7 +12539,7 @@
         <v>90</v>
       </c>
       <c r="T131" s="6" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="U131" s="6"/>
       <c r="V131" s="37"/>
@@ -12919,7 +12919,7 @@
         <v>141</v>
       </c>
       <c r="N142" s="55" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="O142" s="6" t="s">
         <v>0</v>
@@ -12966,7 +12966,7 @@
         <v>90</v>
       </c>
       <c r="T143" s="6" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="U143" s="6"/>
       <c r="V143" s="37"/>
@@ -17409,7 +17409,7 @@
         <v>90</v>
       </c>
       <c r="T268" s="6" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="U268" s="6"/>
       <c r="V268" s="37"/>
@@ -17487,7 +17487,7 @@
     <row r="271" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A271" s="6"/>
       <c r="D271" s="50" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="I271" s="39" t="s">
         <v>29</v>
@@ -17522,7 +17522,7 @@
     <row r="272" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A272" s="6"/>
       <c r="D272" s="50" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="I272" s="39" t="s">
         <v>29</v>
@@ -20930,7 +20930,7 @@
     <row r="369" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A369" s="6"/>
       <c r="D369" s="50" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="H369" s="44" t="s">
         <v>100</v>
@@ -20968,7 +20968,7 @@
     <row r="370" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A370" s="6"/>
       <c r="D370" s="50" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="H370" s="44" t="s">
         <v>100</v>
@@ -21968,7 +21968,7 @@
     <row r="399" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A399" s="6"/>
       <c r="D399" s="50" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="I399" s="39" t="s">
         <v>31</v>
@@ -22003,7 +22003,7 @@
     <row r="400" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A400" s="6"/>
       <c r="D400" s="50" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="I400" s="39" t="s">
         <v>31</v>
@@ -24599,7 +24599,7 @@
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
-      <c r="N473" s="66" t="s">
+      <c r="N473" s="37" t="s">
         <v>464</v>
       </c>
       <c r="O473" s="6"/>
@@ -24637,7 +24637,7 @@
         <f t="shared" si="23"/>
         <v>3</v>
       </c>
-      <c r="N474" s="66" t="s">
+      <c r="N474" s="37" t="s">
         <v>233</v>
       </c>
       <c r="O474" s="5"/>
@@ -28035,7 +28035,7 @@
     </row>
     <row r="572" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A572" s="64" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="D572" s="19"/>
       <c r="I572" s="39" t="s">
@@ -28088,7 +28088,7 @@
         <f t="shared" si="26"/>
         <v>102</v>
       </c>
-      <c r="N573" s="67" t="s">
+      <c r="N573" s="66" t="s">
         <v>526</v>
       </c>
       <c r="O573" s="6"/>
@@ -28121,7 +28121,7 @@
         <f t="shared" si="26"/>
         <v>103</v>
       </c>
-      <c r="N574" s="67" t="s">
+      <c r="N574" s="66" t="s">
         <v>195</v>
       </c>
       <c r="O574" s="5" t="s">
@@ -28307,7 +28307,7 @@
         <v>90</v>
       </c>
       <c r="T579" s="6" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="U579" s="6"/>
       <c r="V579" s="37" t="s">
@@ -29152,7 +29152,7 @@
         <v>90</v>
       </c>
       <c r="T603" s="6" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="U603" s="6"/>
       <c r="V603" s="37"/>
@@ -29263,7 +29263,7 @@
         <v>90</v>
       </c>
       <c r="T606" s="6" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="U606" s="6"/>
       <c r="V606" s="37"/>
@@ -29898,7 +29898,7 @@
         <v>90</v>
       </c>
       <c r="T624" s="6" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="U624" s="6"/>
       <c r="V624" s="37"/>
@@ -29924,7 +29924,7 @@
         <f t="shared" si="29"/>
         <v>154</v>
       </c>
-      <c r="N625" s="66" t="s">
+      <c r="N625" s="37" t="s">
         <v>255</v>
       </c>
       <c r="O625" s="5"/>
@@ -30038,7 +30038,7 @@
         <v>90</v>
       </c>
       <c r="T628" s="6" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="U628" s="6"/>
       <c r="V628" s="37"/>
@@ -30410,7 +30410,7 @@
         <v>168</v>
       </c>
       <c r="N639" s="55" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="O639" s="6" t="s">
         <v>0</v>
@@ -30768,7 +30768,7 @@
         <v>90</v>
       </c>
       <c r="T649" s="6" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="U649" s="6"/>
       <c r="V649" s="37"/>
@@ -35723,7 +35723,7 @@
         <f t="shared" si="38"/>
         <v>111</v>
       </c>
-      <c r="N798" s="68" t="s">
+      <c r="N798" s="67" t="s">
         <v>637</v>
       </c>
       <c r="O798" s="5"/>
@@ -35826,7 +35826,7 @@
         <f t="shared" si="38"/>
         <v>114</v>
       </c>
-      <c r="N801" s="68" t="s">
+      <c r="N801" s="67" t="s">
         <v>639</v>
       </c>
       <c r="O801" s="5"/>
@@ -36172,7 +36172,7 @@
         <f t="shared" si="38"/>
         <v>124</v>
       </c>
-      <c r="N811" s="68" t="s">
+      <c r="N811" s="67" t="s">
         <v>255</v>
       </c>
       <c r="O811" s="5"/>
@@ -36633,7 +36633,7 @@
         <f t="shared" si="38"/>
         <v>138</v>
       </c>
-      <c r="N825" s="68" t="s">
+      <c r="N825" s="67" t="s">
         <v>242</v>
       </c>
       <c r="O825" s="5"/>
@@ -36667,7 +36667,7 @@
         <f t="shared" si="38"/>
         <v>139</v>
       </c>
-      <c r="N826" s="68" t="s">
+      <c r="N826" s="67" t="s">
         <v>656</v>
       </c>
       <c r="O826" s="6" t="s">
@@ -37070,7 +37070,7 @@
         <f t="shared" si="41"/>
         <v>151</v>
       </c>
-      <c r="N838" s="68" t="s">
+      <c r="N838" s="67" t="s">
         <v>255</v>
       </c>
       <c r="O838" s="5"/>
@@ -37167,7 +37167,7 @@
         <f t="shared" si="41"/>
         <v>154</v>
       </c>
-      <c r="N841" s="68" t="s">
+      <c r="N841" s="67" t="s">
         <v>270</v>
       </c>
       <c r="O841" s="5"/>
@@ -37202,7 +37202,7 @@
         <f t="shared" si="41"/>
         <v>155</v>
       </c>
-      <c r="N842" s="68" t="s">
+      <c r="N842" s="67" t="s">
         <v>233</v>
       </c>
       <c r="O842" s="6"/>
@@ -38228,7 +38228,7 @@
         <f t="shared" si="41"/>
         <v>187</v>
       </c>
-      <c r="N874" s="68" t="s">
+      <c r="N874" s="67" t="s">
         <v>674</v>
       </c>
       <c r="O874" s="5"/>
@@ -38265,7 +38265,7 @@
         <f t="shared" si="41"/>
         <v>188</v>
       </c>
-      <c r="N875" s="68" t="s">
+      <c r="N875" s="67" t="s">
         <v>675</v>
       </c>
       <c r="O875" s="6" t="s">
@@ -38363,7 +38363,7 @@
         <v>191</v>
       </c>
       <c r="N878" s="37" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="O878" s="5"/>
       <c r="P878" s="11" t="s">
@@ -38375,7 +38375,7 @@
       <c r="T878" s="6"/>
       <c r="U878" s="6"/>
       <c r="V878" s="37" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="879" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38568,7 +38568,7 @@
     </row>
     <row r="885" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A885" s="6" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="I885" s="39" t="s">
         <v>40</v>
@@ -39283,7 +39283,7 @@
     </row>
     <row r="906" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="D906" s="52" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="H906" s="30"/>
       <c r="I906" s="39" t="s">
@@ -39734,7 +39734,7 @@
         <f t="shared" si="44"/>
         <v>34</v>
       </c>
-      <c r="N919" s="68" t="s">
+      <c r="N919" s="67" t="s">
         <v>255</v>
       </c>
       <c r="O919" s="5"/>
@@ -40126,7 +40126,7 @@
         <f t="shared" si="44"/>
         <v>46</v>
       </c>
-      <c r="N931" s="68" t="s">
+      <c r="N931" s="67" t="s">
         <v>1645</v>
       </c>
       <c r="O931" s="5"/>
@@ -40818,7 +40818,7 @@
         <f t="shared" si="44"/>
         <v>67</v>
       </c>
-      <c r="N952" s="68" t="s">
+      <c r="N952" s="67" t="s">
         <v>405</v>
       </c>
       <c r="O952" s="5"/>
@@ -40854,7 +40854,7 @@
         <f t="shared" si="44"/>
         <v>68</v>
       </c>
-      <c r="N953" s="68" t="s">
+      <c r="N953" s="67" t="s">
         <v>707</v>
       </c>
       <c r="O953" s="5"/>
@@ -41330,7 +41330,7 @@
         <f t="shared" si="47"/>
         <v>82</v>
       </c>
-      <c r="N967" s="68" t="s">
+      <c r="N967" s="67" t="s">
         <v>557</v>
       </c>
       <c r="O967" s="5"/>
@@ -41363,7 +41363,7 @@
         <f t="shared" si="47"/>
         <v>83</v>
       </c>
-      <c r="N968" s="68" t="s">
+      <c r="N968" s="67" t="s">
         <v>716</v>
       </c>
       <c r="O968" s="5"/>
@@ -42937,7 +42937,7 @@
         <f t="shared" si="47"/>
         <v>131</v>
       </c>
-      <c r="N1016" s="68" t="s">
+      <c r="N1016" s="67" t="s">
         <v>270</v>
       </c>
       <c r="O1016" s="5"/>
@@ -42972,7 +42972,7 @@
         <f t="shared" si="47"/>
         <v>132</v>
       </c>
-      <c r="N1017" s="68" t="s">
+      <c r="N1017" s="67" t="s">
         <v>744</v>
       </c>
       <c r="O1017" s="6"/>
@@ -43034,7 +43034,7 @@
         <f t="shared" si="47"/>
         <v>134</v>
       </c>
-      <c r="N1019" s="68" t="s">
+      <c r="N1019" s="67" t="s">
         <v>746</v>
       </c>
       <c r="O1019" s="5"/>
@@ -43067,7 +43067,7 @@
         <f t="shared" si="47"/>
         <v>135</v>
       </c>
-      <c r="N1020" s="68" t="s">
+      <c r="N1020" s="67" t="s">
         <v>1700</v>
       </c>
       <c r="O1020" s="6" t="s">
@@ -43171,7 +43171,7 @@
         <f t="shared" si="47"/>
         <v>138</v>
       </c>
-      <c r="N1023" s="68" t="s">
+      <c r="N1023" s="67" t="s">
         <v>304</v>
       </c>
       <c r="O1023" s="6"/>
@@ -43208,7 +43208,7 @@
         <f t="shared" si="47"/>
         <v>139</v>
       </c>
-      <c r="N1024" s="68" t="s">
+      <c r="N1024" s="67" t="s">
         <v>748</v>
       </c>
       <c r="O1024" s="5"/>
@@ -45172,7 +45172,7 @@
         <f t="shared" si="50"/>
         <v>199</v>
       </c>
-      <c r="N1084" s="68" t="s">
+      <c r="N1084" s="67" t="s">
         <v>232</v>
       </c>
       <c r="O1084" s="5" t="s">
@@ -45208,7 +45208,7 @@
         <f t="shared" si="50"/>
         <v>200</v>
       </c>
-      <c r="N1085" s="68" t="s">
+      <c r="N1085" s="67" t="s">
         <v>782</v>
       </c>
       <c r="O1085" s="5"/>
@@ -45684,7 +45684,7 @@
         <v>117</v>
       </c>
       <c r="T1099" s="6" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U1099" s="6"/>
       <c r="V1099" s="37"/>
@@ -47050,7 +47050,7 @@
         <f t="shared" si="53"/>
         <v>256</v>
       </c>
-      <c r="N1141" s="68" t="s">
+      <c r="N1141" s="67" t="s">
         <v>814</v>
       </c>
       <c r="O1141" s="5"/>
@@ -47086,7 +47086,7 @@
         <f t="shared" si="53"/>
         <v>257</v>
       </c>
-      <c r="N1142" s="68" t="s">
+      <c r="N1142" s="67" t="s">
         <v>233</v>
       </c>
       <c r="O1142" s="5"/>
@@ -48670,7 +48670,7 @@
         <f t="shared" si="56"/>
         <v>304</v>
       </c>
-      <c r="N1189" s="68" t="s">
+      <c r="N1189" s="67" t="s">
         <v>843</v>
       </c>
       <c r="O1189" s="5"/>
@@ -48706,7 +48706,7 @@
         <f t="shared" si="56"/>
         <v>305</v>
       </c>
-      <c r="N1190" s="68" t="s">
+      <c r="N1190" s="67" t="s">
         <v>844</v>
       </c>
       <c r="O1190" s="5"/>
@@ -49167,7 +49167,7 @@
         <f t="shared" si="56"/>
         <v>319</v>
       </c>
-      <c r="N1204" s="68" t="s">
+      <c r="N1204" s="67" t="s">
         <v>852</v>
       </c>
       <c r="O1204" s="5"/>
@@ -49200,7 +49200,7 @@
         <f t="shared" si="56"/>
         <v>320</v>
       </c>
-      <c r="N1205" s="68" t="s">
+      <c r="N1205" s="67" t="s">
         <v>853</v>
       </c>
       <c r="O1205" s="5"/>
@@ -49245,7 +49245,7 @@
     </row>
     <row r="1207" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1207" s="6" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="I1207" s="39" t="s">
         <v>46</v>
@@ -49970,7 +49970,7 @@
         <f t="shared" si="59"/>
         <v>22</v>
       </c>
-      <c r="N1229" s="68" t="s">
+      <c r="N1229" s="67" t="s">
         <v>270</v>
       </c>
       <c r="O1229" s="5"/>
@@ -50006,7 +50006,7 @@
         <f t="shared" si="59"/>
         <v>23</v>
       </c>
-      <c r="N1230" s="68" t="s">
+      <c r="N1230" s="67" t="s">
         <v>864</v>
       </c>
       <c r="O1230" s="6" t="s">
@@ -50963,7 +50963,7 @@
         <f t="shared" si="59"/>
         <v>52</v>
       </c>
-      <c r="N1259" s="68" t="s">
+      <c r="N1259" s="67" t="s">
         <v>879</v>
       </c>
       <c r="O1259" s="5"/>
@@ -50996,7 +50996,7 @@
         <f t="shared" si="59"/>
         <v>53</v>
       </c>
-      <c r="N1260" s="68" t="s">
+      <c r="N1260" s="67" t="s">
         <v>597</v>
       </c>
       <c r="O1260" s="5"/>
@@ -52209,7 +52209,7 @@
         <f t="shared" si="62"/>
         <v>90</v>
       </c>
-      <c r="N1297" s="68" t="s">
+      <c r="N1297" s="67" t="s">
         <v>1729</v>
       </c>
       <c r="O1297" s="6" t="s">
@@ -52681,10 +52681,10 @@
       <c r="Q1311" s="6"/>
       <c r="R1311" s="6"/>
       <c r="S1311" s="6" t="s">
+        <v>2073</v>
+      </c>
+      <c r="T1311" s="6" t="s">
         <v>2074</v>
-      </c>
-      <c r="T1311" s="6" t="s">
-        <v>2075</v>
       </c>
       <c r="U1311" s="6"/>
       <c r="V1311" s="37"/>
@@ -52748,7 +52748,7 @@
         <f t="shared" si="62"/>
         <v>106</v>
       </c>
-      <c r="N1313" s="68" t="s">
+      <c r="N1313" s="67" t="s">
         <v>907</v>
       </c>
       <c r="O1313" s="5"/>
@@ -52785,7 +52785,7 @@
         <f t="shared" si="62"/>
         <v>107</v>
       </c>
-      <c r="N1314" s="68" t="s">
+      <c r="N1314" s="67" t="s">
         <v>597</v>
       </c>
       <c r="O1314" s="5"/>
@@ -54440,8 +54440,8 @@
         <f t="shared" si="65"/>
         <v>156</v>
       </c>
-      <c r="N1363" s="68" t="s">
-        <v>2076</v>
+      <c r="N1363" s="67" t="s">
+        <v>2075</v>
       </c>
       <c r="O1363" s="6" t="s">
         <v>0</v>
@@ -55424,7 +55424,7 @@
         <f t="shared" si="65"/>
         <v>185</v>
       </c>
-      <c r="N1392" s="68" t="s">
+      <c r="N1392" s="67" t="s">
         <v>943</v>
       </c>
       <c r="O1392" s="6"/>
@@ -55458,7 +55458,7 @@
         <f t="shared" si="65"/>
         <v>186</v>
       </c>
-      <c r="N1393" s="68" t="s">
+      <c r="N1393" s="67" t="s">
         <v>1738</v>
       </c>
       <c r="O1393" s="6" t="s">
@@ -55902,7 +55902,7 @@
         <f t="shared" si="65"/>
         <v>199</v>
       </c>
-      <c r="N1406" s="68" t="s">
+      <c r="N1406" s="67" t="s">
         <v>1740</v>
       </c>
       <c r="O1406" s="5"/>
@@ -56211,7 +56211,7 @@
         <f t="shared" si="68"/>
         <v>208</v>
       </c>
-      <c r="N1415" s="68" t="s">
+      <c r="N1415" s="67" t="s">
         <v>202</v>
       </c>
       <c r="O1415" s="5"/>
@@ -56245,7 +56245,7 @@
         <f t="shared" si="68"/>
         <v>209</v>
       </c>
-      <c r="N1416" s="68" t="s">
+      <c r="N1416" s="67" t="s">
         <v>950</v>
       </c>
       <c r="O1416" s="6" t="s">
@@ -56666,7 +56666,7 @@
         <v>221</v>
       </c>
       <c r="N1428" s="37" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="O1428" s="5"/>
       <c r="P1428" s="6"/>
@@ -58209,7 +58209,7 @@
     </row>
     <row r="1475" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1475" s="6" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="C1475" s="35"/>
       <c r="H1475" s="30"/>
@@ -58695,7 +58695,7 @@
         <f t="shared" si="71"/>
         <v>14</v>
       </c>
-      <c r="N1489" s="68" t="s">
+      <c r="N1489" s="67" t="s">
         <v>535</v>
       </c>
       <c r="O1489" s="5"/>
@@ -59190,7 +59190,7 @@
         <f t="shared" si="71"/>
         <v>29</v>
       </c>
-      <c r="N1504" s="68" t="s">
+      <c r="N1504" s="67" t="s">
         <v>214</v>
       </c>
       <c r="O1504" s="5"/>
@@ -59224,7 +59224,7 @@
         <f t="shared" si="71"/>
         <v>30</v>
       </c>
-      <c r="N1505" s="68" t="s">
+      <c r="N1505" s="67" t="s">
         <v>985</v>
       </c>
       <c r="O1505" s="6"/>
@@ -60624,7 +60624,7 @@
         <f t="shared" si="74"/>
         <v>72</v>
       </c>
-      <c r="N1547" s="68" t="s">
+      <c r="N1547" s="67" t="s">
         <v>1001</v>
       </c>
       <c r="O1547" s="5"/>
@@ -60657,7 +60657,7 @@
         <f t="shared" si="74"/>
         <v>73</v>
       </c>
-      <c r="N1548" s="68" t="s">
+      <c r="N1548" s="67" t="s">
         <v>1755</v>
       </c>
       <c r="O1548" s="6" t="s">
@@ -60950,7 +60950,7 @@
         <f t="shared" si="74"/>
         <v>82</v>
       </c>
-      <c r="N1557" s="68" t="s">
+      <c r="N1557" s="67" t="s">
         <v>255</v>
       </c>
       <c r="O1557" s="5"/>
@@ -61049,7 +61049,7 @@
         <f t="shared" si="74"/>
         <v>85</v>
       </c>
-      <c r="N1560" s="68" t="s">
+      <c r="N1560" s="67" t="s">
         <v>1010</v>
       </c>
       <c r="O1560" s="5" t="s">
@@ -61086,7 +61086,7 @@
         <f t="shared" si="74"/>
         <v>86</v>
       </c>
-      <c r="N1561" s="68" t="s">
+      <c r="N1561" s="67" t="s">
         <v>1011</v>
       </c>
       <c r="O1561" s="5"/>
@@ -62082,7 +62082,7 @@
         <v>118</v>
       </c>
       <c r="N1593" s="37" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="O1593" s="6" t="s">
         <v>0</v>
@@ -63624,7 +63624,7 @@
         <f t="shared" si="77"/>
         <v>177</v>
       </c>
-      <c r="N1652" s="68" t="s">
+      <c r="N1652" s="67" t="s">
         <v>472</v>
       </c>
       <c r="S1652" s="1" t="s">
@@ -63660,7 +63660,7 @@
         <f t="shared" si="77"/>
         <v>178</v>
       </c>
-      <c r="N1653" s="68" t="s">
+      <c r="N1653" s="67" t="s">
         <v>831</v>
       </c>
       <c r="V1653" s="37"/>
@@ -63762,7 +63762,7 @@
         <f t="shared" si="77"/>
         <v>182</v>
       </c>
-      <c r="N1657" s="68" t="s">
+      <c r="N1657" s="67" t="s">
         <v>1763</v>
       </c>
       <c r="O1657" s="6" t="s">
@@ -64210,7 +64210,7 @@
         <f t="shared" si="80"/>
         <v>9</v>
       </c>
-      <c r="N1673" s="68" t="s">
+      <c r="N1673" s="67" t="s">
         <v>720</v>
       </c>
       <c r="V1673" s="37"/>
@@ -64237,7 +64237,7 @@
         <f t="shared" si="80"/>
         <v>10</v>
       </c>
-      <c r="N1674" s="68" t="s">
+      <c r="N1674" s="67" t="s">
         <v>472</v>
       </c>
       <c r="S1674" s="1" t="s">
@@ -64621,7 +64621,7 @@
         <f t="shared" si="80"/>
         <v>24</v>
       </c>
-      <c r="N1688" s="68" t="s">
+      <c r="N1688" s="67" t="s">
         <v>1078</v>
       </c>
       <c r="U1688" s="1" t="s">
@@ -65204,7 +65204,7 @@
         <f t="shared" si="80"/>
         <v>47</v>
       </c>
-      <c r="N1711" s="68" t="s">
+      <c r="N1711" s="67" t="s">
         <v>1090</v>
       </c>
       <c r="U1711" s="1" t="s">
@@ -65944,7 +65944,7 @@
         <f t="shared" si="83"/>
         <v>75</v>
       </c>
-      <c r="N1739" s="68" t="s">
+      <c r="N1739" s="67" t="s">
         <v>1106</v>
       </c>
       <c r="U1739" s="1" t="s">
@@ -66119,7 +66119,7 @@
         <f t="shared" si="83"/>
         <v>81</v>
       </c>
-      <c r="N1745" s="68" t="s">
+      <c r="N1745" s="67" t="s">
         <v>417</v>
       </c>
       <c r="U1745" s="1" t="s">
@@ -66201,7 +66201,7 @@
         <v>90</v>
       </c>
       <c r="T1748" s="1" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="V1748" s="37"/>
     </row>
@@ -66717,7 +66717,7 @@
     </row>
     <row r="1769" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1769" s="6" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="H1769" s="44" t="s">
         <v>155</v>
@@ -66740,7 +66740,7 @@
         <f t="shared" si="83"/>
         <v>105</v>
       </c>
-      <c r="N1769" s="68" t="s">
+      <c r="N1769" s="67" t="s">
         <v>195</v>
       </c>
       <c r="O1769" s="5" t="s">
@@ -66770,7 +66770,7 @@
         <f t="shared" si="83"/>
         <v>106</v>
       </c>
-      <c r="N1770" s="68" t="s">
+      <c r="N1770" s="67" t="s">
         <v>418</v>
       </c>
       <c r="V1770" s="37"/>
@@ -67109,7 +67109,7 @@
         <f t="shared" si="83"/>
         <v>119</v>
       </c>
-      <c r="N1783" s="68" t="s">
+      <c r="N1783" s="67" t="s">
         <v>602</v>
       </c>
       <c r="U1783" s="1" t="s">
@@ -67136,7 +67136,7 @@
         <f t="shared" si="83"/>
         <v>120</v>
       </c>
-      <c r="N1784" s="68" t="s">
+      <c r="N1784" s="67" t="s">
         <v>1118</v>
       </c>
       <c r="V1784" s="37"/>
@@ -67288,7 +67288,7 @@
         <f t="shared" si="83"/>
         <v>126</v>
       </c>
-      <c r="N1790" s="68" t="s">
+      <c r="N1790" s="67" t="s">
         <v>578</v>
       </c>
       <c r="V1790" s="37"/>
@@ -67312,7 +67312,7 @@
         <f t="shared" si="83"/>
         <v>127</v>
       </c>
-      <c r="N1791" s="68" t="s">
+      <c r="N1791" s="67" t="s">
         <v>1120</v>
       </c>
       <c r="U1791" s="1" t="s">
@@ -67339,7 +67339,7 @@
         <f t="shared" si="83"/>
         <v>128</v>
       </c>
-      <c r="N1792" s="68" t="s">
+      <c r="N1792" s="67" t="s">
         <v>578</v>
       </c>
       <c r="V1792" s="37"/>
@@ -67709,7 +67709,7 @@
         <f t="shared" si="86"/>
         <v>142</v>
       </c>
-      <c r="N1806" s="68" t="s">
+      <c r="N1806" s="67" t="s">
         <v>354</v>
       </c>
       <c r="O1806" s="6" t="s">
@@ -67741,7 +67741,7 @@
         <f t="shared" si="86"/>
         <v>143</v>
       </c>
-      <c r="N1807" s="68" t="s">
+      <c r="N1807" s="67" t="s">
         <v>1124</v>
       </c>
       <c r="V1807" s="37"/>
@@ -68180,7 +68180,7 @@
     </row>
     <row r="1825" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1825" s="6" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="I1825" s="39" t="s">
         <v>58</v>
@@ -71361,7 +71361,7 @@
         <f t="shared" si="92"/>
         <v>124</v>
       </c>
-      <c r="N1949" s="68" t="s">
+      <c r="N1949" s="67" t="s">
         <v>602</v>
       </c>
       <c r="U1949" s="1" t="s">
@@ -71388,7 +71388,7 @@
         <f t="shared" si="92"/>
         <v>125</v>
       </c>
-      <c r="N1950" s="68" t="s">
+      <c r="N1950" s="67" t="s">
         <v>233</v>
       </c>
       <c r="V1950" s="37"/>
@@ -72537,7 +72537,7 @@
         <f t="shared" si="95"/>
         <v>170</v>
       </c>
-      <c r="N1995" s="68" t="s">
+      <c r="N1995" s="67" t="s">
         <v>242</v>
       </c>
       <c r="V1995" s="37"/>
@@ -72561,7 +72561,7 @@
         <f t="shared" si="95"/>
         <v>171</v>
       </c>
-      <c r="N1996" s="68" t="s">
+      <c r="N1996" s="67" t="s">
         <v>255</v>
       </c>
       <c r="U1996" s="1" t="s">
@@ -72588,7 +72588,7 @@
         <f t="shared" si="95"/>
         <v>172</v>
       </c>
-      <c r="N1997" s="68" t="s">
+      <c r="N1997" s="67" t="s">
         <v>436</v>
       </c>
       <c r="V1997" s="37"/>
@@ -72853,7 +72853,7 @@
         <v>90</v>
       </c>
       <c r="T2007" s="1" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="V2007" s="37"/>
     </row>
@@ -73180,7 +73180,7 @@
         <v>195</v>
       </c>
       <c r="N2020" s="37" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="V2020" s="37"/>
     </row>
@@ -73956,7 +73956,7 @@
         <f t="shared" si="95"/>
         <v>224</v>
       </c>
-      <c r="N2049" s="68" t="s">
+      <c r="N2049" s="67" t="s">
         <v>255</v>
       </c>
       <c r="U2049" s="1" t="s">
@@ -74323,11 +74323,11 @@
       <c r="V2063" s="37"/>
     </row>
     <row r="2064" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A2064" s="69" t="s">
-        <v>2088</v>
-      </c>
-      <c r="B2064" s="70"/>
-      <c r="C2064" s="71"/>
+      <c r="A2064" s="68" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B2064" s="69"/>
+      <c r="C2064" s="70"/>
       <c r="I2064" s="39" t="s">
         <v>63</v>
       </c>
@@ -74346,7 +74346,7 @@
         <f t="shared" si="98"/>
         <v>239</v>
       </c>
-      <c r="N2064" s="72" t="s">
+      <c r="N2064" s="71" t="s">
         <v>195</v>
       </c>
       <c r="O2064" s="5" t="s">
@@ -74373,7 +74373,7 @@
         <f t="shared" si="98"/>
         <v>240</v>
       </c>
-      <c r="N2065" s="72" t="s">
+      <c r="N2065" s="71" t="s">
         <v>418</v>
       </c>
       <c r="V2065" s="37"/>
@@ -76345,7 +76345,7 @@
         <f t="shared" si="101"/>
         <v>12</v>
       </c>
-      <c r="N2141" s="68" t="s">
+      <c r="N2141" s="67" t="s">
         <v>232</v>
       </c>
       <c r="O2141" s="5" t="s">
@@ -76378,7 +76378,7 @@
         <f t="shared" si="101"/>
         <v>13</v>
       </c>
-      <c r="N2142" s="68" t="s">
+      <c r="N2142" s="67" t="s">
         <v>1251</v>
       </c>
       <c r="V2142" s="37"/>
@@ -76775,7 +76775,7 @@
         <f t="shared" si="101"/>
         <v>28</v>
       </c>
-      <c r="N2157" s="68" t="s">
+      <c r="N2157" s="67" t="s">
         <v>195</v>
       </c>
       <c r="O2157" s="5" t="s">
@@ -76805,7 +76805,7 @@
         <f t="shared" si="101"/>
         <v>29</v>
       </c>
-      <c r="N2158" s="68" t="s">
+      <c r="N2158" s="67" t="s">
         <v>242</v>
       </c>
       <c r="V2158" s="37"/>
@@ -77677,7 +77677,7 @@
         <f t="shared" si="103"/>
         <v>63</v>
       </c>
-      <c r="N2192" s="68" t="s">
+      <c r="N2192" s="67" t="s">
         <v>195</v>
       </c>
       <c r="O2192" s="5" t="s">
@@ -77707,7 +77707,7 @@
         <f t="shared" si="103"/>
         <v>64</v>
       </c>
-      <c r="N2193" s="68" t="s">
+      <c r="N2193" s="67" t="s">
         <v>242</v>
       </c>
       <c r="V2193" s="37"/>
@@ -77985,7 +77985,7 @@
         <f t="shared" si="103"/>
         <v>75</v>
       </c>
-      <c r="N2204" s="68" t="s">
+      <c r="N2204" s="67" t="s">
         <v>405</v>
       </c>
       <c r="U2204" s="1" t="s">
@@ -78012,7 +78012,7 @@
         <f t="shared" si="103"/>
         <v>76</v>
       </c>
-      <c r="N2205" s="68" t="s">
+      <c r="N2205" s="67" t="s">
         <v>1279</v>
       </c>
       <c r="V2205" s="37"/>
@@ -78785,7 +78785,7 @@
         <f t="shared" si="103"/>
         <v>106</v>
       </c>
-      <c r="N2235" s="68" t="s">
+      <c r="N2235" s="67" t="s">
         <v>195</v>
       </c>
       <c r="O2235" s="5" t="s">
@@ -78815,7 +78815,7 @@
         <f t="shared" si="103"/>
         <v>107</v>
       </c>
-      <c r="N2236" s="68" t="s">
+      <c r="N2236" s="67" t="s">
         <v>242</v>
       </c>
       <c r="V2236" s="37"/>
@@ -79900,7 +79900,7 @@
         <f t="shared" si="107"/>
         <v>150</v>
       </c>
-      <c r="N2279" s="68" t="s">
+      <c r="N2279" s="67" t="s">
         <v>195</v>
       </c>
       <c r="O2279" s="5" t="s">
@@ -79929,7 +79929,7 @@
         <f t="shared" si="107"/>
         <v>151</v>
       </c>
-      <c r="N2280" s="68" t="s">
+      <c r="N2280" s="67" t="s">
         <v>242</v>
       </c>
       <c r="V2280" s="37"/>
@@ -80225,7 +80225,7 @@
         <f t="shared" si="107"/>
         <v>162</v>
       </c>
-      <c r="N2291" s="68" t="s">
+      <c r="N2291" s="67" t="s">
         <v>288</v>
       </c>
       <c r="O2291" s="5" t="s">
@@ -80258,7 +80258,7 @@
         <f t="shared" si="107"/>
         <v>163</v>
       </c>
-      <c r="N2292" s="68" t="s">
+      <c r="N2292" s="67" t="s">
         <v>298</v>
       </c>
       <c r="V2292" s="37"/>
@@ -80569,7 +80569,7 @@
         <f t="shared" si="107"/>
         <v>175</v>
       </c>
-      <c r="N2304" s="68" t="s">
+      <c r="N2304" s="67" t="s">
         <v>255</v>
       </c>
       <c r="U2304" s="1" t="s">
@@ -80596,7 +80596,7 @@
         <f t="shared" si="107"/>
         <v>176</v>
       </c>
-      <c r="N2305" s="68" t="s">
+      <c r="N2305" s="67" t="s">
         <v>1307</v>
       </c>
       <c r="V2305" s="37"/>
@@ -80934,7 +80934,7 @@
         <f t="shared" si="110"/>
         <v>189</v>
       </c>
-      <c r="N2318" s="68" t="s">
+      <c r="N2318" s="67" t="s">
         <v>417</v>
       </c>
       <c r="P2318" s="11" t="s">
@@ -81161,7 +81161,7 @@
         <f t="shared" si="110"/>
         <v>198</v>
       </c>
-      <c r="N2327" s="68" t="s">
+      <c r="N2327" s="67" t="s">
         <v>417</v>
       </c>
       <c r="U2327" s="1" t="s">
@@ -81265,7 +81265,7 @@
         <f t="shared" si="110"/>
         <v>202</v>
       </c>
-      <c r="N2331" s="68" t="s">
+      <c r="N2331" s="67" t="s">
         <v>195</v>
       </c>
       <c r="O2331" s="5" t="s">
@@ -81295,7 +81295,7 @@
         <f t="shared" si="110"/>
         <v>203</v>
       </c>
-      <c r="N2332" s="68" t="s">
+      <c r="N2332" s="67" t="s">
         <v>242</v>
       </c>
       <c r="V2332" s="37"/>
@@ -81425,7 +81425,7 @@
     </row>
     <row r="2338" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2338" s="6" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="I2338" s="39" t="s">
         <v>68</v>
@@ -83571,7 +83571,7 @@
         <f t="shared" si="113"/>
         <v>79</v>
       </c>
-      <c r="N2417" s="68" t="s">
+      <c r="N2417" s="67" t="s">
         <v>1356</v>
       </c>
       <c r="V2417" s="37"/>
@@ -83595,7 +83595,7 @@
         <f t="shared" si="113"/>
         <v>80</v>
       </c>
-      <c r="N2418" s="68" t="s">
+      <c r="N2418" s="67" t="s">
         <v>1357</v>
       </c>
       <c r="U2418" s="1" t="s">
@@ -83622,7 +83622,7 @@
         <f t="shared" si="113"/>
         <v>81</v>
       </c>
-      <c r="N2419" s="68" t="s">
+      <c r="N2419" s="67" t="s">
         <v>1358</v>
       </c>
       <c r="V2419" s="37"/>
@@ -84177,7 +84177,7 @@
         <f t="shared" si="116"/>
         <v>102</v>
       </c>
-      <c r="N2440" s="68" t="s">
+      <c r="N2440" s="67" t="s">
         <v>419</v>
       </c>
       <c r="U2440" s="1" t="s">
@@ -84204,7 +84204,7 @@
         <f t="shared" si="116"/>
         <v>103</v>
       </c>
-      <c r="N2441" s="68" t="s">
+      <c r="N2441" s="67" t="s">
         <v>1367</v>
       </c>
       <c r="V2441" s="37"/>
@@ -84850,7 +84850,7 @@
         <f t="shared" si="116"/>
         <v>127</v>
       </c>
-      <c r="N2465" s="68" t="s">
+      <c r="N2465" s="67" t="s">
         <v>354</v>
       </c>
       <c r="O2465" s="6" t="s">
@@ -84882,7 +84882,7 @@
         <f t="shared" si="116"/>
         <v>128</v>
       </c>
-      <c r="N2466" s="68" t="s">
+      <c r="N2466" s="67" t="s">
         <v>255</v>
       </c>
       <c r="U2466" s="1" t="s">
@@ -84948,7 +84948,7 @@
     </row>
     <row r="2469" spans="1:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2469" s="6" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="I2469" s="39" t="s">
         <v>71</v>
@@ -84975,7 +84975,7 @@
       <c r="T2469" s="6"/>
       <c r="V2469" s="37"/>
       <c r="X2469" s="6" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="2470" spans="1:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -85023,7 +85023,7 @@
         <f t="shared" si="116"/>
         <v>133</v>
       </c>
-      <c r="N2471" s="68" t="s">
+      <c r="N2471" s="67" t="s">
         <v>195</v>
       </c>
       <c r="O2471" s="5" t="s">
@@ -85055,7 +85055,7 @@
         <f t="shared" si="116"/>
         <v>134</v>
       </c>
-      <c r="N2472" s="68" t="s">
+      <c r="N2472" s="67" t="s">
         <v>1672</v>
       </c>
       <c r="P2472" s="11" t="s">
@@ -85174,7 +85174,7 @@
         <v>90</v>
       </c>
       <c r="T2476" s="6" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="V2476" s="37" t="s">
         <v>1876</v>
@@ -85641,7 +85641,7 @@
         <f t="shared" si="116"/>
         <v>156</v>
       </c>
-      <c r="N2494" s="68" t="s">
+      <c r="N2494" s="67" t="s">
         <v>233</v>
       </c>
       <c r="V2494" s="37"/>
@@ -85668,7 +85668,7 @@
         <f t="shared" si="116"/>
         <v>157</v>
       </c>
-      <c r="N2495" s="68" t="s">
+      <c r="N2495" s="67" t="s">
         <v>255</v>
       </c>
       <c r="U2495" s="1" t="s">
@@ -85698,7 +85698,7 @@
         <f t="shared" si="116"/>
         <v>158</v>
       </c>
-      <c r="N2496" s="68" t="s">
+      <c r="N2496" s="67" t="s">
         <v>199</v>
       </c>
       <c r="V2496" s="37"/>
@@ -85752,7 +85752,7 @@
         <f t="shared" si="116"/>
         <v>160</v>
       </c>
-      <c r="N2498" s="68" t="s">
+      <c r="N2498" s="67" t="s">
         <v>233</v>
       </c>
       <c r="V2498" s="37"/>
@@ -85779,7 +85779,7 @@
         <f t="shared" si="116"/>
         <v>161</v>
       </c>
-      <c r="N2499" s="68" t="s">
+      <c r="N2499" s="67" t="s">
         <v>255</v>
       </c>
       <c r="P2499" s="11" t="s">

--- a/TS Jatai Working/Padam Input Templates/TS 4.2 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 4.2 Padam Input Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D024890-01A5-4DE5-946C-51294751806C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F0537D-35EF-4936-8EDC-77DC6D2FAF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TS 4,2" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TS 4,2'!$A$1:$V$2500</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>

--- a/TS Jatai Working/Padam Input Templates/TS 4.2 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 4.2 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CA6F64-E914-4D95-A907-856E6405A5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5D1571-55AE-4563-A710-DC19299BE4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6525,7 +6525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6744,21 +6744,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7044,9 +7029,9 @@
   <dimension ref="A1:X2500"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2484" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A624" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="N2498" sqref="N2498"/>
+      <selection pane="bottomLeft" activeCell="N640" sqref="N640"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -30472,8 +30457,8 @@
       <c r="S640" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="T640" s="6" t="s">
-        <v>91</v>
+      <c r="T640" s="64" t="s">
+        <v>2058</v>
       </c>
       <c r="U640" s="6"/>
       <c r="V640" s="37"/>
@@ -49808,127 +49793,127 @@
       <c r="V1223" s="37"/>
     </row>
     <row r="1224" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I1224" s="76" t="s">
+      <c r="I1224" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="J1224" s="77">
+      <c r="J1224" s="38">
         <v>24</v>
       </c>
-      <c r="K1224" s="76">
+      <c r="K1224" s="39">
         <f t="shared" si="57"/>
         <v>1223</v>
       </c>
-      <c r="L1224" s="76">
+      <c r="L1224" s="39">
         <f t="shared" si="58"/>
         <v>17</v>
       </c>
-      <c r="M1224" s="76">
+      <c r="M1224" s="39">
         <f t="shared" si="59"/>
         <v>17</v>
       </c>
-      <c r="N1224" s="78" t="s">
+      <c r="N1224" s="37" t="s">
         <v>858</v>
       </c>
-      <c r="O1224" s="79"/>
-      <c r="P1224" s="80"/>
-      <c r="Q1224" s="80"/>
-      <c r="R1224" s="80"/>
-      <c r="S1224" s="80"/>
-      <c r="T1224" s="80"/>
-      <c r="U1224" s="80"/>
+      <c r="O1224" s="5"/>
+      <c r="P1224" s="6"/>
+      <c r="Q1224" s="6"/>
+      <c r="R1224" s="6"/>
+      <c r="S1224" s="6"/>
+      <c r="T1224" s="6"/>
+      <c r="U1224" s="6"/>
       <c r="V1224" s="37"/>
     </row>
     <row r="1225" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I1225" s="76" t="s">
+      <c r="I1225" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="J1225" s="77">
+      <c r="J1225" s="38">
         <v>24</v>
       </c>
-      <c r="K1225" s="76">
+      <c r="K1225" s="39">
         <f t="shared" si="57"/>
         <v>1224</v>
       </c>
-      <c r="L1225" s="76">
+      <c r="L1225" s="39">
         <f t="shared" si="58"/>
         <v>18</v>
       </c>
-      <c r="M1225" s="76">
+      <c r="M1225" s="39">
         <f t="shared" si="59"/>
         <v>18</v>
       </c>
-      <c r="N1225" s="78" t="s">
+      <c r="N1225" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="O1225" s="79"/>
-      <c r="P1225" s="80"/>
-      <c r="Q1225" s="80"/>
-      <c r="R1225" s="80"/>
-      <c r="S1225" s="80"/>
-      <c r="T1225" s="80"/>
-      <c r="U1225" s="80"/>
+      <c r="O1225" s="5"/>
+      <c r="P1225" s="6"/>
+      <c r="Q1225" s="6"/>
+      <c r="R1225" s="6"/>
+      <c r="S1225" s="6"/>
+      <c r="T1225" s="6"/>
+      <c r="U1225" s="6"/>
       <c r="V1225" s="37"/>
     </row>
     <row r="1226" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I1226" s="76" t="s">
+      <c r="I1226" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="J1226" s="77">
+      <c r="J1226" s="38">
         <v>24</v>
       </c>
-      <c r="K1226" s="76">
+      <c r="K1226" s="39">
         <f t="shared" si="57"/>
         <v>1225</v>
       </c>
-      <c r="L1226" s="76">
+      <c r="L1226" s="39">
         <f t="shared" si="58"/>
         <v>19</v>
       </c>
-      <c r="M1226" s="76">
+      <c r="M1226" s="39">
         <f t="shared" si="59"/>
         <v>19</v>
       </c>
-      <c r="N1226" s="78" t="s">
+      <c r="N1226" s="37" t="s">
         <v>861</v>
       </c>
-      <c r="O1226" s="79"/>
-      <c r="P1226" s="80"/>
-      <c r="Q1226" s="80"/>
-      <c r="R1226" s="80"/>
-      <c r="S1226" s="80"/>
-      <c r="T1226" s="80"/>
-      <c r="U1226" s="80"/>
+      <c r="O1226" s="5"/>
+      <c r="P1226" s="6"/>
+      <c r="Q1226" s="6"/>
+      <c r="R1226" s="6"/>
+      <c r="S1226" s="6"/>
+      <c r="T1226" s="6"/>
+      <c r="U1226" s="6"/>
       <c r="V1226" s="37"/>
     </row>
     <row r="1227" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I1227" s="76" t="s">
+      <c r="I1227" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="J1227" s="77">
+      <c r="J1227" s="38">
         <v>24</v>
       </c>
-      <c r="K1227" s="76">
+      <c r="K1227" s="39">
         <f t="shared" si="57"/>
         <v>1226</v>
       </c>
-      <c r="L1227" s="76">
+      <c r="L1227" s="39">
         <f t="shared" si="58"/>
         <v>20</v>
       </c>
-      <c r="M1227" s="76">
+      <c r="M1227" s="39">
         <f t="shared" si="59"/>
         <v>20</v>
       </c>
-      <c r="N1227" s="78" t="s">
+      <c r="N1227" s="37" t="s">
         <v>595</v>
       </c>
-      <c r="O1227" s="79"/>
-      <c r="P1227" s="80"/>
-      <c r="Q1227" s="80"/>
-      <c r="R1227" s="80"/>
-      <c r="S1227" s="80"/>
-      <c r="T1227" s="80"/>
-      <c r="U1227" s="80"/>
+      <c r="O1227" s="5"/>
+      <c r="P1227" s="6"/>
+      <c r="Q1227" s="6"/>
+      <c r="R1227" s="6"/>
+      <c r="S1227" s="6"/>
+      <c r="T1227" s="6"/>
+      <c r="U1227" s="6"/>
       <c r="V1227" s="37"/>
     </row>
     <row r="1228" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">

--- a/TS Jatai Working/Padam Input Templates/TS 4.2 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 4.2 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5D1571-55AE-4563-A710-DC19299BE4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08AF494-7240-4EC3-9C6F-683917448670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7029,9 +7029,9 @@
   <dimension ref="A1:X2500"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A624" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="N640" sqref="N640"/>
+      <selection pane="bottomLeft" activeCell="U130" sqref="U130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -12387,8 +12387,8 @@
       <c r="S127" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="T127" s="6" t="s">
-        <v>183</v>
+      <c r="T127" s="64" t="s">
+        <v>2057</v>
       </c>
       <c r="U127" s="6"/>
       <c r="V127" s="37"/>

--- a/TS Jatai Working/Padam Input Templates/TS 4.2 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 4.2 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08AF494-7240-4EC3-9C6F-683917448670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D273BB-2B40-4E1A-8C81-A6C41953E864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7131" uniqueCount="2089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7131" uniqueCount="2090">
   <si>
     <t>PS</t>
   </si>
@@ -6295,6 +6295,9 @@
   </si>
   <si>
     <t>N[Sh]%S</t>
+  </si>
+  <si>
+    <t>athoq ityatho$</t>
   </si>
 </sst>
 </file>
@@ -7028,10 +7031,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X2500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="U130" sqref="U130"/>
+      <selection pane="bottomLeft" activeCell="V233" sqref="V233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -15677,8 +15680,8 @@
       <c r="R220" s="6"/>
       <c r="S220" s="6"/>
       <c r="T220" s="6"/>
-      <c r="U220" s="6" t="s">
-        <v>94</v>
+      <c r="U220" s="64" t="s">
+        <v>179</v>
       </c>
       <c r="V220" s="37"/>
     </row>
@@ -16257,8 +16260,8 @@
       <c r="S237" s="6"/>
       <c r="T237" s="6"/>
       <c r="U237" s="6"/>
-      <c r="V237" s="37" t="s">
-        <v>1399</v>
+      <c r="V237" s="49" t="s">
+        <v>2089</v>
       </c>
     </row>
     <row r="238" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">

--- a/TS Jatai Working/Padam Input Templates/TS 4.2 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 4.2 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D273BB-2B40-4E1A-8C81-A6C41953E864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D3018B-F776-4F25-ACD3-99C89CC7034D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7032,9 +7032,9 @@
   <dimension ref="A1:X2500"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A375" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="V233" sqref="V233"/>
+      <selection pane="bottomLeft" activeCell="U392" sqref="U392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -21723,8 +21723,8 @@
       <c r="R391" s="6"/>
       <c r="S391" s="6"/>
       <c r="T391" s="6"/>
-      <c r="U391" s="6" t="s">
-        <v>122</v>
+      <c r="U391" s="64" t="s">
+        <v>173</v>
       </c>
       <c r="V391" s="37" t="s">
         <v>1411</v>

--- a/TS Jatai Working/Padam Input Templates/TS 4.2 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 4.2 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF33F691-447D-4FDC-B553-E89996883FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65945BB0-8141-4B5D-A0CF-8E22C953067E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7132" uniqueCount="2089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7132" uniqueCount="2090">
   <si>
     <t>PS</t>
   </si>
@@ -6295,6 +6295,9 @@
   </si>
   <si>
     <t>aqkaqraqmitya#karam</t>
+  </si>
+  <si>
+    <t>maqrudBi#H</t>
   </si>
 </sst>
 </file>
@@ -7029,9 +7032,9 @@
   <dimension ref="A1:X2500"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A963" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1185" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="N977" sqref="N977"/>
+      <selection pane="bottomLeft" activeCell="N1200" sqref="N1200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -49041,7 +49044,7 @@
         <v>315</v>
       </c>
       <c r="N1200" s="37" t="s">
-        <v>536</v>
+        <v>2089</v>
       </c>
       <c r="O1200" s="6" t="s">
         <v>0</v>

--- a/TS Jatai Working/Padam Input Templates/TS 4.2 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 4.2 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65945BB0-8141-4B5D-A0CF-8E22C953067E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCE3657-0032-4AC7-8EFF-8136937D1C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7132" uniqueCount="2090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7131" uniqueCount="2090">
   <si>
     <t>PS</t>
   </si>
@@ -6528,7 +6528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6748,6 +6748,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7032,9 +7035,9 @@
   <dimension ref="A1:X2500"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1185" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1404" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="N1200" sqref="N1200"/>
+      <selection pane="bottomLeft" activeCell="N1415" sqref="N1415:N1416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -56217,7 +56220,7 @@
         <f t="shared" si="68"/>
         <v>208</v>
       </c>
-      <c r="N1415" s="67" t="s">
+      <c r="N1415" s="76" t="s">
         <v>202</v>
       </c>
       <c r="O1415" s="5"/>
@@ -56226,9 +56229,7 @@
       <c r="R1415" s="6"/>
       <c r="S1415" s="6"/>
       <c r="T1415" s="6"/>
-      <c r="U1415" s="6" t="s">
-        <v>87</v>
-      </c>
+      <c r="U1415" s="6"/>
       <c r="V1415" s="37"/>
     </row>
     <row r="1416" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56251,7 +56252,7 @@
         <f t="shared" si="68"/>
         <v>209</v>
       </c>
-      <c r="N1416" s="67" t="s">
+      <c r="N1416" s="76" t="s">
         <v>948</v>
       </c>
       <c r="O1416" s="6" t="s">

--- a/TS Jatai Working/Padam Input Templates/TS 4.2 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 4.2 Padam Input Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3AC6AC-DCFE-4651-BBE9-DF0624EF9483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3826FA9-C6DA-4306-B20F-870F78D90799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4635,9 +4635,6 @@
     <t>dhIqtiBiqriti# dhIqti - BiqH</t>
   </si>
   <si>
-    <t>tve iti# tve</t>
-  </si>
-  <si>
     <t>BUri#retasaq itiq BUri# - reqtaqsaqH</t>
   </si>
   <si>
@@ -6298,6 +6295,9 @@
   </si>
   <si>
     <t>saqdAvRu#dhaH</t>
+  </si>
+  <si>
+    <t>tve itiq tve</t>
   </si>
 </sst>
 </file>
@@ -7032,9 +7032,9 @@
   <dimension ref="A1:X2500"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2418" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1571" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="N2434" sqref="N2434"/>
+      <selection pane="bottomLeft" activeCell="V1578" sqref="V1578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -7558,7 +7558,7 @@
         <v>11</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="T1" s="10" t="s">
         <v>21</v>
@@ -9930,7 +9930,7 @@
     </row>
     <row r="61" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="D61" s="19"/>
       <c r="I61" s="39" t="s">
@@ -10194,7 +10194,7 @@
       <c r="T67" s="11"/>
       <c r="U67" s="11"/>
       <c r="V67" s="37" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="68" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10529,7 +10529,7 @@
       <c r="T76" s="11"/>
       <c r="U76" s="11"/>
       <c r="V76" s="37" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="77" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10972,7 +10972,7 @@
       </c>
       <c r="U88" s="11"/>
       <c r="V88" s="37" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="89" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11402,7 +11402,7 @@
         <v>99</v>
       </c>
       <c r="N100" s="37" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="O100" s="5"/>
       <c r="P100" s="11" t="s">
@@ -11414,7 +11414,7 @@
       <c r="T100" s="6"/>
       <c r="U100" s="6"/>
       <c r="V100" s="37" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="101" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11726,7 +11726,7 @@
         <v>108</v>
       </c>
       <c r="N109" s="37" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="O109" s="6" t="s">
         <v>0</v>
@@ -11740,7 +11740,7 @@
       <c r="T109" s="6"/>
       <c r="U109" s="6"/>
       <c r="V109" s="37" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="110" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12065,7 +12065,7 @@
         <v>89</v>
       </c>
       <c r="T118" s="64" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="U118" s="6"/>
       <c r="V118" s="37"/>
@@ -12215,7 +12215,7 @@
       <c r="T122" s="6"/>
       <c r="U122" s="6"/>
       <c r="V122" s="37" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="123" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12250,7 +12250,7 @@
         <v>89</v>
       </c>
       <c r="T123" s="64" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="U123" s="6"/>
       <c r="V123" s="37"/>
@@ -12310,7 +12310,7 @@
         <v>124</v>
       </c>
       <c r="N125" s="49" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="O125" s="5" t="s">
         <v>1</v>
@@ -12391,7 +12391,7 @@
         <v>89</v>
       </c>
       <c r="T127" s="64" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="U127" s="6"/>
       <c r="V127" s="37"/>
@@ -12505,7 +12505,7 @@
       <c r="T130" s="6"/>
       <c r="U130" s="6"/>
       <c r="V130" s="37" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="131" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12543,7 +12543,7 @@
         <v>89</v>
       </c>
       <c r="T131" s="6" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="U131" s="6"/>
       <c r="V131" s="37"/>
@@ -12661,7 +12661,7 @@
       </c>
       <c r="U134" s="6"/>
       <c r="V134" s="37" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="135" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12752,7 +12752,7 @@
         <v>136</v>
       </c>
       <c r="N137" s="49" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="O137" s="5" t="s">
         <v>1</v>
@@ -12886,7 +12886,7 @@
         <v>140</v>
       </c>
       <c r="N141" s="37" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="O141" s="5"/>
       <c r="P141" s="11" t="s">
@@ -12898,7 +12898,7 @@
       <c r="T141" s="6"/>
       <c r="U141" s="6"/>
       <c r="V141" s="37" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="142" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12923,7 +12923,7 @@
         <v>141</v>
       </c>
       <c r="N142" s="55" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="O142" s="6" t="s">
         <v>0</v>
@@ -12970,7 +12970,7 @@
         <v>89</v>
       </c>
       <c r="T143" s="6" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="U143" s="6"/>
       <c r="V143" s="37"/>
@@ -13011,7 +13011,7 @@
       <c r="T144" s="6"/>
       <c r="U144" s="6"/>
       <c r="V144" s="37" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="145" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13344,7 +13344,7 @@
         <v>153</v>
       </c>
       <c r="N154" s="37" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="O154" s="6"/>
       <c r="P154" s="11" t="s">
@@ -13356,7 +13356,7 @@
       <c r="T154" s="6"/>
       <c r="U154" s="6"/>
       <c r="V154" s="37" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="155" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13631,7 +13631,7 @@
         <v>161</v>
       </c>
       <c r="N162" s="37" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="O162" s="5"/>
       <c r="P162" s="11" t="s">
@@ -13643,7 +13643,7 @@
       <c r="T162" s="6"/>
       <c r="U162" s="6"/>
       <c r="V162" s="37" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="163" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13928,7 +13928,7 @@
         <v>169</v>
       </c>
       <c r="N170" s="37" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="O170" s="6" t="s">
         <v>0</v>
@@ -13942,7 +13942,7 @@
       <c r="T170" s="6"/>
       <c r="U170" s="6"/>
       <c r="V170" s="37" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="171" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14206,7 +14206,7 @@
         <v>177</v>
       </c>
       <c r="N178" s="37" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="O178" s="6"/>
       <c r="P178" s="11" t="s">
@@ -14218,7 +14218,7 @@
       <c r="T178" s="6"/>
       <c r="U178" s="6"/>
       <c r="V178" s="37" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="179" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14556,7 +14556,7 @@
         <v>187</v>
       </c>
       <c r="N188" s="37" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="O188" s="5"/>
       <c r="P188" s="11" t="s">
@@ -14568,7 +14568,7 @@
       <c r="T188" s="6"/>
       <c r="U188" s="6"/>
       <c r="V188" s="37" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="189" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14863,7 +14863,7 @@
         <v>196</v>
       </c>
       <c r="N197" s="37" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="O197" s="6"/>
       <c r="P197" s="11" t="s">
@@ -14875,7 +14875,7 @@
       <c r="T197" s="6"/>
       <c r="U197" s="6"/>
       <c r="V197" s="37" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="198" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -15177,7 +15177,7 @@
         <v>205</v>
       </c>
       <c r="N206" s="37" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="O206" s="5"/>
       <c r="P206" s="11" t="s">
@@ -15189,7 +15189,7 @@
       <c r="T206" s="6"/>
       <c r="U206" s="6"/>
       <c r="V206" s="37" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="207" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -15598,7 +15598,7 @@
         <v>217</v>
       </c>
       <c r="N218" s="37" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="O218" s="6"/>
       <c r="P218" s="11" t="s">
@@ -15610,7 +15610,7 @@
       <c r="T218" s="6"/>
       <c r="U218" s="6"/>
       <c r="V218" s="37" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="219" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -15851,7 +15851,7 @@
       <c r="T225" s="6"/>
       <c r="U225" s="6"/>
       <c r="V225" s="37" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="226" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16090,7 +16090,7 @@
       <c r="T232" s="6"/>
       <c r="U232" s="6"/>
       <c r="V232" s="37" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="233" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16261,7 +16261,7 @@
       <c r="T237" s="6"/>
       <c r="U237" s="6"/>
       <c r="V237" s="49" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="238" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16365,7 +16365,7 @@
       <c r="T240" s="6"/>
       <c r="U240" s="6"/>
       <c r="V240" s="37" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="241" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16661,7 +16661,7 @@
         <v>248</v>
       </c>
       <c r="N249" s="72" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="O249" s="6"/>
       <c r="P249" s="11" t="s">
@@ -16967,7 +16967,7 @@
         <v>256</v>
       </c>
       <c r="N257" s="37" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="O257" s="6" t="s">
         <v>0</v>
@@ -16981,7 +16981,7 @@
       <c r="T257" s="6"/>
       <c r="U257" s="6"/>
       <c r="V257" s="37" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="258" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17379,7 +17379,7 @@
       <c r="T267" s="6"/>
       <c r="U267" s="6"/>
       <c r="V267" s="37" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="268" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17413,7 +17413,7 @@
         <v>89</v>
       </c>
       <c r="T268" s="6" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="U268" s="6"/>
       <c r="V268" s="37"/>
@@ -17491,7 +17491,7 @@
     <row r="271" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A271" s="6"/>
       <c r="D271" s="50" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="I271" s="39" t="s">
         <v>29</v>
@@ -17526,7 +17526,7 @@
     <row r="272" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A272" s="6"/>
       <c r="D272" s="50" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="I272" s="39" t="s">
         <v>29</v>
@@ -17683,7 +17683,7 @@
         <v>9</v>
       </c>
       <c r="N276" s="37" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="O276" s="6" t="s">
         <v>0</v>
@@ -17697,7 +17697,7 @@
       <c r="T276" s="6"/>
       <c r="U276" s="6"/>
       <c r="V276" s="37" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="277" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17972,7 +17972,7 @@
         <v>17</v>
       </c>
       <c r="N284" s="37" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="O284" s="6" t="s">
         <v>0</v>
@@ -17986,7 +17986,7 @@
       <c r="T284" s="6"/>
       <c r="U284" s="6"/>
       <c r="V284" s="37" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="285" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -18323,7 +18323,7 @@
         <v>27</v>
       </c>
       <c r="N294" s="37" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="O294" s="6" t="s">
         <v>0</v>
@@ -18337,7 +18337,7 @@
       <c r="T294" s="6"/>
       <c r="U294" s="6"/>
       <c r="V294" s="37" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="295" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -18704,7 +18704,7 @@
         <v>38</v>
       </c>
       <c r="N305" s="37" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="O305" s="6" t="s">
         <v>0</v>
@@ -18718,7 +18718,7 @@
       <c r="T305" s="6"/>
       <c r="U305" s="6"/>
       <c r="V305" s="37" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="306" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19071,7 +19071,7 @@
         <v>48</v>
       </c>
       <c r="N315" s="37" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="O315" s="6"/>
       <c r="P315" s="11" t="s">
@@ -19083,7 +19083,7 @@
       <c r="T315" s="6"/>
       <c r="U315" s="6"/>
       <c r="V315" s="37" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="316" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19338,7 +19338,7 @@
         <v>56</v>
       </c>
       <c r="N323" s="37" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="O323" s="6"/>
       <c r="P323" s="11" t="s">
@@ -19350,7 +19350,7 @@
       <c r="T323" s="6"/>
       <c r="U323" s="6"/>
       <c r="V323" s="37" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="324" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19655,7 +19655,7 @@
       <c r="T332" s="6"/>
       <c r="U332" s="6"/>
       <c r="V332" s="37" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="333" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20093,7 +20093,7 @@
       </c>
       <c r="U344" s="6"/>
       <c r="V344" s="37" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="345" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20359,7 +20359,7 @@
         <v>85</v>
       </c>
       <c r="N352" s="49" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="O352" s="5" t="s">
         <v>1</v>
@@ -20394,7 +20394,7 @@
         <v>86</v>
       </c>
       <c r="N353" s="37" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="O353" s="5"/>
       <c r="P353" s="11" t="s">
@@ -20406,7 +20406,7 @@
       <c r="T353" s="6"/>
       <c r="U353" s="6"/>
       <c r="V353" s="37" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="354" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20705,7 +20705,7 @@
         <v>95</v>
       </c>
       <c r="N362" s="37" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="O362" s="6"/>
       <c r="P362" s="11" t="s">
@@ -20717,7 +20717,7 @@
       <c r="T362" s="6"/>
       <c r="U362" s="6"/>
       <c r="V362" s="37" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="363" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20934,7 +20934,7 @@
     <row r="369" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A369" s="6"/>
       <c r="D369" s="50" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="H369" s="44" t="s">
         <v>99</v>
@@ -20972,7 +20972,7 @@
     <row r="370" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A370" s="6"/>
       <c r="D370" s="50" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="H370" s="44" t="s">
         <v>99</v>
@@ -21008,7 +21008,7 @@
       <c r="T370" s="6"/>
       <c r="U370" s="6"/>
       <c r="V370" s="37" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="371" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21336,7 +21336,7 @@
         <v>113</v>
       </c>
       <c r="N380" s="37" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="O380" s="5"/>
       <c r="P380" s="11" t="s">
@@ -21348,7 +21348,7 @@
       <c r="T380" s="6"/>
       <c r="U380" s="6"/>
       <c r="V380" s="37" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="381" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21575,7 +21575,7 @@
         <v>120</v>
       </c>
       <c r="N387" s="37" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="O387" s="6" t="s">
         <v>0</v>
@@ -21589,7 +21589,7 @@
       <c r="T387" s="6"/>
       <c r="U387" s="6"/>
       <c r="V387" s="37" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="388" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21921,7 +21921,7 @@
         <v>130</v>
       </c>
       <c r="N397" s="37" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="O397" s="5"/>
       <c r="P397" s="11" t="s">
@@ -21933,7 +21933,7 @@
       <c r="T397" s="6"/>
       <c r="U397" s="6"/>
       <c r="V397" s="37" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="398" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21972,7 +21972,7 @@
     <row r="399" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A399" s="6"/>
       <c r="D399" s="50" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="I399" s="39" t="s">
         <v>31</v>
@@ -22007,7 +22007,7 @@
     <row r="400" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A400" s="6"/>
       <c r="D400" s="50" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="I400" s="39" t="s">
         <v>31</v>
@@ -22250,7 +22250,7 @@
         <v>93</v>
       </c>
       <c r="V406" s="37" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="407" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22613,7 +22613,7 @@
       <c r="T416" s="6"/>
       <c r="U416" s="6"/>
       <c r="V416" s="37" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="417" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22815,7 +22815,7 @@
         <v>155</v>
       </c>
       <c r="N422" s="73" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="O422" s="6" t="s">
         <v>0</v>
@@ -22827,7 +22827,7 @@
       <c r="T422" s="6"/>
       <c r="U422" s="6"/>
       <c r="V422" s="49" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="423" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22927,7 +22927,7 @@
         <v>158</v>
       </c>
       <c r="N425" s="37" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="O425" s="5"/>
       <c r="P425" s="11" t="s">
@@ -22939,7 +22939,7 @@
       <c r="T425" s="6"/>
       <c r="U425" s="6"/>
       <c r="V425" s="37" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="426" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -23283,7 +23283,7 @@
         <v>168</v>
       </c>
       <c r="N435" s="37" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="O435" s="6"/>
       <c r="P435" s="11" t="s">
@@ -23295,7 +23295,7 @@
       <c r="T435" s="6"/>
       <c r="U435" s="6"/>
       <c r="V435" s="37" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="436" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -23589,7 +23589,7 @@
         <v>177</v>
       </c>
       <c r="N444" s="37" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="O444" s="5"/>
       <c r="P444" s="11" t="s">
@@ -23601,7 +23601,7 @@
       <c r="T444" s="6"/>
       <c r="U444" s="6"/>
       <c r="V444" s="37" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="445" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -23896,7 +23896,7 @@
         <v>186</v>
       </c>
       <c r="N453" s="37" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="O453" s="5"/>
       <c r="P453" s="11" t="s">
@@ -23908,7 +23908,7 @@
       <c r="T453" s="6"/>
       <c r="U453" s="6"/>
       <c r="V453" s="37" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="454" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24206,7 +24206,7 @@
         <v>195</v>
       </c>
       <c r="N462" s="37" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="O462" s="5"/>
       <c r="P462" s="11" t="s">
@@ -24218,7 +24218,7 @@
       <c r="T462" s="6"/>
       <c r="U462" s="6"/>
       <c r="V462" s="37" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="463" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24524,7 +24524,7 @@
         <v>204</v>
       </c>
       <c r="N471" s="37" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="O471" s="6" t="s">
         <v>0</v>
@@ -24538,7 +24538,7 @@
       <c r="T471" s="6"/>
       <c r="U471" s="6"/>
       <c r="V471" s="37" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="472" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24750,7 +24750,7 @@
         <v>6</v>
       </c>
       <c r="N477" s="37" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="O477" s="5"/>
       <c r="P477" s="11" t="s">
@@ -24762,7 +24762,7 @@
       <c r="T477" s="6"/>
       <c r="U477" s="6"/>
       <c r="V477" s="37" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="478" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25028,7 +25028,7 @@
         <v>14</v>
       </c>
       <c r="N485" s="37" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="O485" s="6" t="s">
         <v>0</v>
@@ -25042,7 +25042,7 @@
       <c r="T485" s="6"/>
       <c r="U485" s="6"/>
       <c r="V485" s="37" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="486" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25325,7 +25325,7 @@
         <v>22</v>
       </c>
       <c r="N493" s="37" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="O493" s="6" t="s">
         <v>0</v>
@@ -25339,7 +25339,7 @@
       <c r="T493" s="6"/>
       <c r="U493" s="6"/>
       <c r="V493" s="37" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="494" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25537,7 +25537,7 @@
         <v>28</v>
       </c>
       <c r="N499" s="37" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="O499" s="6" t="s">
         <v>0</v>
@@ -25551,7 +25551,7 @@
       <c r="T499" s="6"/>
       <c r="U499" s="6"/>
       <c r="V499" s="37" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="500" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25827,7 +25827,7 @@
       <c r="T507" s="6"/>
       <c r="U507" s="6"/>
       <c r="V507" s="37" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="508" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -26072,7 +26072,7 @@
       <c r="T514" s="6"/>
       <c r="U514" s="6"/>
       <c r="V514" s="37" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="515" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -26266,7 +26266,7 @@
         <v>49</v>
       </c>
       <c r="N520" s="37" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="O520" s="5"/>
       <c r="P520" s="11" t="s">
@@ -26278,7 +26278,7 @@
       <c r="T520" s="6"/>
       <c r="U520" s="6"/>
       <c r="V520" s="37" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="521" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -26403,7 +26403,7 @@
         <v>53</v>
       </c>
       <c r="N524" s="37" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="O524" s="5"/>
       <c r="P524" s="11" t="s">
@@ -26415,7 +26415,7 @@
       <c r="T524" s="6"/>
       <c r="U524" s="6"/>
       <c r="V524" s="37" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="525" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -26809,7 +26809,7 @@
         <v>65</v>
       </c>
       <c r="N536" s="37" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="O536" s="6"/>
       <c r="P536" s="11" t="s">
@@ -26821,7 +26821,7 @@
       <c r="T536" s="6"/>
       <c r="U536" s="6"/>
       <c r="V536" s="37" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="537" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -27161,7 +27161,7 @@
       <c r="T546" s="6"/>
       <c r="U546" s="6"/>
       <c r="V546" s="37" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="547" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -27519,7 +27519,7 @@
         <v>86</v>
       </c>
       <c r="N557" s="37" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="O557" s="5"/>
       <c r="P557" s="11" t="s">
@@ -27531,7 +27531,7 @@
       <c r="T557" s="6"/>
       <c r="U557" s="6"/>
       <c r="V557" s="37" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="558" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -27876,7 +27876,7 @@
       <c r="T567" s="6"/>
       <c r="U567" s="6"/>
       <c r="V567" s="37" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="568" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28039,7 +28039,7 @@
     </row>
     <row r="572" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A572" s="64" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="D572" s="19"/>
       <c r="I572" s="39" t="s">
@@ -28163,7 +28163,7 @@
         <v>104</v>
       </c>
       <c r="N575" s="37" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="O575" s="5"/>
       <c r="P575" s="11" t="s">
@@ -28175,7 +28175,7 @@
       <c r="T575" s="6"/>
       <c r="U575" s="6"/>
       <c r="V575" s="37" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="576" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28311,11 +28311,11 @@
         <v>89</v>
       </c>
       <c r="T579" s="6" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="U579" s="6"/>
       <c r="V579" s="37" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="580" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28474,7 +28474,7 @@
         <v>113</v>
       </c>
       <c r="N584" s="37" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="O584" s="5"/>
       <c r="P584" s="11" t="s">
@@ -28486,7 +28486,7 @@
       <c r="T584" s="6"/>
       <c r="U584" s="6"/>
       <c r="V584" s="37" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="585" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28738,7 +28738,7 @@
       <c r="T591" s="6"/>
       <c r="U591" s="6"/>
       <c r="V591" s="37" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="592" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28981,7 +28981,7 @@
         <v>93</v>
       </c>
       <c r="V598" s="37" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="599" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -29156,7 +29156,7 @@
         <v>89</v>
       </c>
       <c r="T603" s="6" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="U603" s="6"/>
       <c r="V603" s="37"/>
@@ -29218,7 +29218,7 @@
         <v>134</v>
       </c>
       <c r="N605" s="37" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="O605" s="5"/>
       <c r="P605" s="11" t="s">
@@ -29267,7 +29267,7 @@
         <v>89</v>
       </c>
       <c r="T606" s="6" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="U606" s="6"/>
       <c r="V606" s="37"/>
@@ -29481,7 +29481,7 @@
         <v>93</v>
       </c>
       <c r="V612" s="37" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="613" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -29824,7 +29824,7 @@
         <v>151</v>
       </c>
       <c r="N622" s="49" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="O622" s="5" t="s">
         <v>1</v>
@@ -29902,7 +29902,7 @@
         <v>89</v>
       </c>
       <c r="T624" s="6" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="U624" s="6"/>
       <c r="V624" s="37"/>
@@ -30007,7 +30007,7 @@
       <c r="T627" s="6"/>
       <c r="U627" s="6"/>
       <c r="V627" s="37" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="628" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -30042,7 +30042,7 @@
         <v>89</v>
       </c>
       <c r="T628" s="6" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="U628" s="6"/>
       <c r="V628" s="37"/>
@@ -30151,7 +30151,7 @@
       </c>
       <c r="U631" s="6"/>
       <c r="V631" s="37" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="632" spans="1:22" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -30243,7 +30243,7 @@
         <v>163</v>
       </c>
       <c r="N634" s="49" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="O634" s="5" t="s">
         <v>1</v>
@@ -30377,7 +30377,7 @@
         <v>167</v>
       </c>
       <c r="N638" s="37" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="O638" s="5"/>
       <c r="P638" s="11" t="s">
@@ -30389,7 +30389,7 @@
       <c r="T638" s="6"/>
       <c r="U638" s="6"/>
       <c r="V638" s="37" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="639" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -30414,7 +30414,7 @@
         <v>168</v>
       </c>
       <c r="N639" s="55" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="O639" s="6" t="s">
         <v>0</v>
@@ -30461,7 +30461,7 @@
         <v>89</v>
       </c>
       <c r="T640" s="64" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="U640" s="6"/>
       <c r="V640" s="37"/>
@@ -30502,7 +30502,7 @@
       <c r="T641" s="6"/>
       <c r="U641" s="6"/>
       <c r="V641" s="37" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="642" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -30772,7 +30772,7 @@
         <v>89</v>
       </c>
       <c r="T649" s="6" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="U649" s="6"/>
       <c r="V649" s="37"/>
@@ -31141,7 +31141,7 @@
         <v>189</v>
       </c>
       <c r="N660" s="37" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="O660" s="5"/>
       <c r="P660" s="11" t="s">
@@ -31153,7 +31153,7 @@
       <c r="T660" s="6"/>
       <c r="U660" s="6"/>
       <c r="V660" s="37" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="661" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -31415,7 +31415,7 @@
         <v>197</v>
       </c>
       <c r="N668" s="37" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="O668" s="6" t="s">
         <v>0</v>
@@ -31429,7 +31429,7 @@
       <c r="T668" s="6"/>
       <c r="U668" s="6"/>
       <c r="V668" s="37" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="669" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31764,7 +31764,7 @@
         <v>175</v>
       </c>
       <c r="V678" s="37" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="679" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31950,7 +31950,7 @@
         <v>213</v>
       </c>
       <c r="N684" s="37" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="O684" s="6" t="s">
         <v>0</v>
@@ -31964,7 +31964,7 @@
       <c r="T684" s="6"/>
       <c r="U684" s="6"/>
       <c r="V684" s="37" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="685" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32052,7 +32052,7 @@
         <v>216</v>
       </c>
       <c r="N687" s="37" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="O687" s="5"/>
       <c r="P687" s="11" t="s">
@@ -32064,7 +32064,7 @@
       <c r="T687" s="6"/>
       <c r="U687" s="6"/>
       <c r="V687" s="37" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="688" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32572,7 +32572,7 @@
         <v>15</v>
       </c>
       <c r="N702" s="37" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="O702" s="5"/>
       <c r="P702" s="11" t="s">
@@ -32584,7 +32584,7 @@
       <c r="T702" s="6"/>
       <c r="U702" s="6"/>
       <c r="V702" s="37" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="703" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32890,7 +32890,7 @@
         <v>25</v>
       </c>
       <c r="N712" s="37" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="O712" s="6"/>
       <c r="P712" s="11" t="s">
@@ -32902,7 +32902,7 @@
       <c r="T712" s="6"/>
       <c r="U712" s="6"/>
       <c r="V712" s="37" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="713" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -33310,7 +33310,7 @@
         <v>38</v>
       </c>
       <c r="N725" s="37" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="O725" s="5"/>
       <c r="P725" s="11" t="s">
@@ -33322,7 +33322,7 @@
       <c r="T725" s="6"/>
       <c r="U725" s="6"/>
       <c r="V725" s="37" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="726" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -33614,7 +33614,7 @@
       <c r="T734" s="6"/>
       <c r="U734" s="6"/>
       <c r="V734" s="37" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="735" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -33833,7 +33833,7 @@
         <v>54</v>
       </c>
       <c r="N741" s="37" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="O741" s="5"/>
       <c r="P741" s="11" t="s">
@@ -33845,7 +33845,7 @@
       <c r="T741" s="6"/>
       <c r="U741" s="6"/>
       <c r="V741" s="37" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="742" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34158,7 +34158,7 @@
         <v>64</v>
       </c>
       <c r="N751" s="37" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="O751" s="5"/>
       <c r="P751" s="11" t="s">
@@ -34170,7 +34170,7 @@
       <c r="T751" s="6"/>
       <c r="U751" s="6"/>
       <c r="V751" s="37" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="752" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34446,7 +34446,7 @@
         <v>73</v>
       </c>
       <c r="N760" s="37" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="O760" s="6" t="s">
         <v>0</v>
@@ -34460,7 +34460,7 @@
       <c r="T760" s="6"/>
       <c r="U760" s="6"/>
       <c r="V760" s="37" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="761" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35097,7 +35097,7 @@
       <c r="T779" s="6"/>
       <c r="U779" s="6"/>
       <c r="V779" s="37" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="780" spans="6:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35451,7 +35451,7 @@
         <v>103</v>
       </c>
       <c r="N790" s="37" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="O790" s="5"/>
       <c r="P790" s="11" t="s">
@@ -35463,7 +35463,7 @@
       <c r="T790" s="6"/>
       <c r="U790" s="6"/>
       <c r="V790" s="37" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="791" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35903,7 +35903,7 @@
         <v>116</v>
       </c>
       <c r="N803" s="37" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="O803" s="6" t="s">
         <v>0</v>
@@ -35917,7 +35917,7 @@
       <c r="T803" s="6"/>
       <c r="U803" s="6"/>
       <c r="V803" s="37" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="804" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -36111,7 +36111,7 @@
         <v>122</v>
       </c>
       <c r="N809" s="37" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="O809" s="5"/>
       <c r="P809" s="11" t="s">
@@ -36123,7 +36123,7 @@
       <c r="T809" s="6"/>
       <c r="U809" s="6"/>
       <c r="V809" s="37" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="810" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -36373,7 +36373,7 @@
         <v>130</v>
       </c>
       <c r="N817" s="37" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="O817" s="6"/>
       <c r="P817" s="11" t="s">
@@ -36385,7 +36385,7 @@
       <c r="T817" s="6"/>
       <c r="U817" s="6"/>
       <c r="V817" s="37" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="818" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -36742,7 +36742,7 @@
         <v>141</v>
       </c>
       <c r="N828" s="37" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="O828" s="5" t="s">
         <v>18</v>
@@ -36977,7 +36977,7 @@
         <v>148</v>
       </c>
       <c r="N835" s="37" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="O835" s="5"/>
       <c r="P835" s="11" t="s">
@@ -36991,7 +36991,7 @@
         <v>172</v>
       </c>
       <c r="V835" s="37" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="836" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -37283,7 +37283,7 @@
       <c r="T844" s="6"/>
       <c r="U844" s="6"/>
       <c r="V844" s="37" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="845" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -37885,7 +37885,7 @@
       <c r="T863" s="6"/>
       <c r="U863" s="6"/>
       <c r="V863" s="49" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="864" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -37982,7 +37982,7 @@
       <c r="T866" s="6"/>
       <c r="U866" s="6"/>
       <c r="V866" s="37" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="867" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38164,7 +38164,7 @@
         <v>185</v>
       </c>
       <c r="N872" s="37" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="O872" s="5"/>
       <c r="P872" s="11" t="s">
@@ -38367,7 +38367,7 @@
         <v>191</v>
       </c>
       <c r="N878" s="37" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="O878" s="5"/>
       <c r="P878" s="11" t="s">
@@ -38379,7 +38379,7 @@
       <c r="T878" s="6"/>
       <c r="U878" s="6"/>
       <c r="V878" s="37" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="879" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38572,7 +38572,7 @@
     </row>
     <row r="885" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A885" s="6" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="I885" s="39" t="s">
         <v>40</v>
@@ -38801,7 +38801,7 @@
       <c r="T891" s="6"/>
       <c r="U891" s="6"/>
       <c r="V891" s="37" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="892" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38824,7 +38824,7 @@
         <v>7</v>
       </c>
       <c r="N892" s="37" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="O892" s="6" t="s">
         <v>0</v>
@@ -38838,7 +38838,7 @@
       <c r="T892" s="6"/>
       <c r="U892" s="6"/>
       <c r="V892" s="37" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="893" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39287,7 +39287,7 @@
     </row>
     <row r="906" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="D906" s="52" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="H906" s="30"/>
       <c r="I906" s="39" t="s">
@@ -39309,7 +39309,7 @@
         <v>21</v>
       </c>
       <c r="N906" s="37" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="O906" s="5"/>
       <c r="P906" s="11" t="s">
@@ -39321,7 +39321,7 @@
       <c r="T906" s="6"/>
       <c r="U906" s="6"/>
       <c r="V906" s="49" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="907" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39525,7 +39525,7 @@
       <c r="T912" s="6"/>
       <c r="U912" s="6"/>
       <c r="V912" s="37" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="913" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39654,7 +39654,7 @@
       <c r="T916" s="6"/>
       <c r="U916" s="6"/>
       <c r="V916" s="37" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="917" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39858,7 +39858,7 @@
       <c r="T922" s="6"/>
       <c r="U922" s="6"/>
       <c r="V922" s="37" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="923" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40131,7 +40131,7 @@
         <v>46</v>
       </c>
       <c r="N931" s="67" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="O931" s="5"/>
       <c r="P931" s="11" t="s">
@@ -40145,7 +40145,7 @@
         <v>93</v>
       </c>
       <c r="V931" s="37" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="932" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40299,7 +40299,7 @@
         <v>51</v>
       </c>
       <c r="N936" s="60" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="O936" s="61"/>
       <c r="P936" s="62" t="s">
@@ -40311,7 +40311,7 @@
       <c r="T936" s="12"/>
       <c r="U936" s="12"/>
       <c r="V936" s="60" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="937" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40645,7 +40645,7 @@
       <c r="T946" s="6"/>
       <c r="U946" s="6"/>
       <c r="V946" s="37" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="947" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40968,7 +40968,7 @@
         <v>71</v>
       </c>
       <c r="N956" s="37" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="O956" s="6"/>
       <c r="P956" s="11" t="s">
@@ -40980,7 +40980,7 @@
       <c r="T956" s="6"/>
       <c r="U956" s="6"/>
       <c r="V956" s="37" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="957" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41269,7 +41269,7 @@
         <v>80</v>
       </c>
       <c r="N965" s="37" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="O965" s="5"/>
       <c r="P965" s="11" t="s">
@@ -41281,7 +41281,7 @@
       <c r="T965" s="6"/>
       <c r="U965" s="6"/>
       <c r="V965" s="37" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="966" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41492,7 +41492,7 @@
         <v>87</v>
       </c>
       <c r="N972" s="37" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="O972" s="5"/>
       <c r="P972" s="11" t="s">
@@ -41504,7 +41504,7 @@
       <c r="T972" s="6"/>
       <c r="U972" s="6"/>
       <c r="V972" s="37" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="973" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41748,7 +41748,7 @@
         <v>95</v>
       </c>
       <c r="N980" s="37" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="O980" s="5"/>
       <c r="P980" s="11" t="s">
@@ -42080,7 +42080,7 @@
         <v>105</v>
       </c>
       <c r="N990" s="37" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="O990" s="5"/>
       <c r="P990" s="11" t="s">
@@ -42092,7 +42092,7 @@
       <c r="T990" s="6"/>
       <c r="U990" s="6"/>
       <c r="V990" s="37" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="991" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42385,7 +42385,7 @@
       <c r="T999" s="6"/>
       <c r="U999" s="6"/>
       <c r="V999" s="37" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="1000" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42643,7 +42643,7 @@
         <v>122</v>
       </c>
       <c r="N1007" s="37" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="O1007" s="6" t="s">
         <v>0</v>
@@ -42657,7 +42657,7 @@
       <c r="T1007" s="6"/>
       <c r="U1007" s="6"/>
       <c r="V1007" s="37" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="1008" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43074,7 +43074,7 @@
         <v>135</v>
       </c>
       <c r="N1020" s="67" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="O1020" s="6" t="s">
         <v>0</v>
@@ -43088,7 +43088,7 @@
       <c r="T1020" s="6"/>
       <c r="U1020" s="6"/>
       <c r="V1020" s="37" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="1021" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43371,7 +43371,7 @@
         <v>144</v>
       </c>
       <c r="N1029" s="37" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="O1029" s="6" t="s">
         <v>0</v>
@@ -43385,7 +43385,7 @@
       <c r="T1029" s="6"/>
       <c r="U1029" s="6"/>
       <c r="V1029" s="37" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1030" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43769,7 +43769,7 @@
       <c r="T1041" s="6"/>
       <c r="U1041" s="6"/>
       <c r="V1041" s="37" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="1042" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44025,7 +44025,7 @@
         <v>164</v>
       </c>
       <c r="N1049" s="37" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="O1049" s="5"/>
       <c r="P1049" s="11" t="s">
@@ -44037,7 +44037,7 @@
       <c r="T1049" s="6"/>
       <c r="U1049" s="6"/>
       <c r="V1049" s="37" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="1050" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44410,7 +44410,7 @@
       <c r="T1060" s="6"/>
       <c r="U1060" s="6"/>
       <c r="V1060" s="37" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="1061" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44685,7 +44685,7 @@
         <v>184</v>
       </c>
       <c r="N1069" s="37" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="O1069" s="6" t="s">
         <v>0</v>
@@ -44699,7 +44699,7 @@
       <c r="T1069" s="6"/>
       <c r="U1069" s="6"/>
       <c r="V1069" s="37" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="1070" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44990,7 +44990,7 @@
       <c r="T1078" s="6"/>
       <c r="U1078" s="6"/>
       <c r="V1078" s="37" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="1079" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -45246,7 +45246,7 @@
         <v>201</v>
       </c>
       <c r="N1086" s="37" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="O1086" s="6" t="s">
         <v>0</v>
@@ -45260,7 +45260,7 @@
       <c r="T1086" s="6"/>
       <c r="U1086" s="6"/>
       <c r="V1086" s="37" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="1087" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -45546,7 +45546,7 @@
         <v>210</v>
       </c>
       <c r="N1095" s="37" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="O1095" s="5"/>
       <c r="P1095" s="11" t="s">
@@ -45690,7 +45690,7 @@
         <v>116</v>
       </c>
       <c r="T1099" s="6" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="U1099" s="6"/>
       <c r="V1099" s="37"/>
@@ -45752,7 +45752,7 @@
         <v>216</v>
       </c>
       <c r="N1101" s="37" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="O1101" s="5"/>
       <c r="P1101" s="11" t="s">
@@ -45764,7 +45764,7 @@
       <c r="T1101" s="6"/>
       <c r="U1101" s="6"/>
       <c r="V1101" s="37" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1102" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46011,7 +46011,7 @@
         <v>224</v>
       </c>
       <c r="N1109" s="37" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="O1109" s="5"/>
       <c r="P1109" s="11" t="s">
@@ -46023,7 +46023,7 @@
       <c r="T1109" s="6"/>
       <c r="U1109" s="6"/>
       <c r="V1109" s="37" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1110" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46147,7 +46147,7 @@
         <v>228</v>
       </c>
       <c r="N1113" s="37" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="O1113" s="6" t="s">
         <v>0</v>
@@ -46161,7 +46161,7 @@
       <c r="T1113" s="6"/>
       <c r="U1113" s="6"/>
       <c r="V1113" s="37" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="1114" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46246,7 +46246,7 @@
         <v>231</v>
       </c>
       <c r="N1116" s="37" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="O1116" s="5"/>
       <c r="P1116" s="11" t="s">
@@ -46260,7 +46260,7 @@
         <v>172</v>
       </c>
       <c r="V1116" s="37" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1117" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46474,7 +46474,7 @@
         <v>238</v>
       </c>
       <c r="N1123" s="37" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="O1123" s="6"/>
       <c r="P1123" s="11" t="s">
@@ -46486,7 +46486,7 @@
       <c r="T1123" s="6"/>
       <c r="U1123" s="6"/>
       <c r="V1123" s="37" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1124" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46571,7 +46571,7 @@
         <v>241</v>
       </c>
       <c r="N1126" s="37" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="O1126" s="6"/>
       <c r="P1126" s="11" t="s">
@@ -46583,7 +46583,7 @@
       <c r="T1126" s="6"/>
       <c r="U1126" s="6"/>
       <c r="V1126" s="37" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="1127" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46889,7 +46889,7 @@
         <v>251</v>
       </c>
       <c r="N1136" s="37" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="O1136" s="5"/>
       <c r="P1136" s="11" t="s">
@@ -46901,7 +46901,7 @@
       <c r="T1136" s="6"/>
       <c r="U1136" s="6"/>
       <c r="V1136" s="37" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1137" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47299,7 +47299,7 @@
         <v>263</v>
       </c>
       <c r="N1148" s="37" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="O1148" s="6"/>
       <c r="P1148" s="11" t="s">
@@ -47311,7 +47311,7 @@
       <c r="T1148" s="6"/>
       <c r="U1148" s="6"/>
       <c r="V1148" s="37" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="1149" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47435,7 +47435,7 @@
         <v>267</v>
       </c>
       <c r="N1152" s="37" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="O1152" s="6" t="s">
         <v>0</v>
@@ -47449,7 +47449,7 @@
       <c r="T1152" s="6"/>
       <c r="U1152" s="6"/>
       <c r="V1152" s="37" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="1153" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47719,7 +47719,7 @@
         <v>275</v>
       </c>
       <c r="N1160" s="37" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="O1160" s="5"/>
       <c r="P1160" s="11" t="s">
@@ -47731,7 +47731,7 @@
       <c r="T1160" s="6"/>
       <c r="U1160" s="6"/>
       <c r="V1160" s="37" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1161" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47789,7 +47789,7 @@
         <v>277</v>
       </c>
       <c r="N1162" s="37" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="O1162" s="6" t="s">
         <v>0</v>
@@ -47803,7 +47803,7 @@
       <c r="T1162" s="6"/>
       <c r="U1162" s="6"/>
       <c r="V1162" s="37" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1163" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48155,7 +48155,7 @@
         <v>288</v>
       </c>
       <c r="N1173" s="37" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="O1173" s="6"/>
       <c r="P1173" s="11" t="s">
@@ -48167,7 +48167,7 @@
       <c r="T1173" s="6"/>
       <c r="U1173" s="6"/>
       <c r="V1173" s="37" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="1174" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48411,7 +48411,7 @@
         <v>296</v>
       </c>
       <c r="N1181" s="37" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="O1181" s="5"/>
       <c r="P1181" s="11" t="s">
@@ -48423,7 +48423,7 @@
       <c r="T1181" s="6"/>
       <c r="U1181" s="6"/>
       <c r="V1181" s="37" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="1182" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48617,7 +48617,7 @@
       <c r="T1187" s="6"/>
       <c r="U1187" s="6"/>
       <c r="V1187" s="37" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1188" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48782,7 +48782,7 @@
         <v>307</v>
       </c>
       <c r="N1192" s="37" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="O1192" s="6" t="s">
         <v>0</v>
@@ -48796,7 +48796,7 @@
       <c r="T1192" s="6"/>
       <c r="U1192" s="6"/>
       <c r="V1192" s="37" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="1193" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49044,7 +49044,7 @@
         <v>315</v>
       </c>
       <c r="N1200" s="37" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="O1200" s="6" t="s">
         <v>0</v>
@@ -49058,7 +49058,7 @@
       <c r="T1200" s="6"/>
       <c r="U1200" s="6"/>
       <c r="V1200" s="37" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="1201" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49251,7 +49251,7 @@
     </row>
     <row r="1207" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1207" s="6" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="I1207" s="39" t="s">
         <v>46</v>
@@ -49272,7 +49272,7 @@
         <v>322</v>
       </c>
       <c r="N1207" s="37" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="O1207" s="6" t="s">
         <v>0</v>
@@ -49286,7 +49286,7 @@
       <c r="T1207" s="6"/>
       <c r="U1207" s="6"/>
       <c r="V1207" s="37" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="1208" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49478,7 +49478,7 @@
       <c r="T1213" s="6"/>
       <c r="U1213" s="6"/>
       <c r="V1213" s="37" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1214" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49699,7 +49699,7 @@
       <c r="T1220" s="6"/>
       <c r="U1220" s="6"/>
       <c r="V1220" s="37" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1221" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49941,7 +49941,7 @@
         <v>21</v>
       </c>
       <c r="N1228" s="37" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="O1228" s="5"/>
       <c r="P1228" s="11" t="s">
@@ -49953,7 +49953,7 @@
       <c r="T1228" s="6"/>
       <c r="U1228" s="6"/>
       <c r="V1228" s="37" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="1229" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50177,7 +50177,7 @@
         <v>28</v>
       </c>
       <c r="N1235" s="37" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="O1235" s="5"/>
       <c r="P1235" s="11" t="s">
@@ -50189,7 +50189,7 @@
       <c r="T1235" s="6"/>
       <c r="U1235" s="6"/>
       <c r="V1235" s="37" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="1236" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50356,7 +50356,7 @@
       <c r="T1240" s="6"/>
       <c r="U1240" s="6"/>
       <c r="V1240" s="37" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1241" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50507,7 +50507,7 @@
         <v>38</v>
       </c>
       <c r="N1245" s="37" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="O1245" s="5"/>
       <c r="P1245" s="11" t="s">
@@ -50519,7 +50519,7 @@
       <c r="T1245" s="6"/>
       <c r="U1245" s="6"/>
       <c r="V1245" s="37" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="1246" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50761,7 +50761,7 @@
         <v>46</v>
       </c>
       <c r="N1253" s="37" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="O1253" s="5"/>
       <c r="P1253" s="11" t="s">
@@ -50773,7 +50773,7 @@
       <c r="T1253" s="6"/>
       <c r="U1253" s="6"/>
       <c r="V1253" s="37" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1254" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50935,7 +50935,7 @@
         <v>51</v>
       </c>
       <c r="N1258" s="37" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="O1258" s="6"/>
       <c r="P1258" s="11" t="s">
@@ -50947,7 +50947,7 @@
       <c r="T1258" s="6"/>
       <c r="U1258" s="6"/>
       <c r="V1258" s="37" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1259" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51162,7 +51162,7 @@
         <v>58</v>
       </c>
       <c r="N1265" s="37" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="O1265" s="5"/>
       <c r="P1265" s="11" t="s">
@@ -51174,7 +51174,7 @@
       <c r="T1265" s="6"/>
       <c r="U1265" s="6"/>
       <c r="V1265" s="37" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="1266" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51407,7 +51407,7 @@
         <v>65</v>
       </c>
       <c r="N1272" s="37" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="O1272" s="5"/>
       <c r="P1272" s="11" t="s">
@@ -51419,7 +51419,7 @@
       <c r="T1272" s="6"/>
       <c r="U1272" s="6"/>
       <c r="V1272" s="37" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="1273" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51628,7 +51628,7 @@
         <v>72</v>
       </c>
       <c r="N1279" s="37" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="O1279" s="6" t="s">
         <v>0</v>
@@ -51642,7 +51642,7 @@
       <c r="T1279" s="6"/>
       <c r="U1279" s="6"/>
       <c r="V1279" s="37" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1280" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51824,7 +51824,7 @@
         <v>78</v>
       </c>
       <c r="N1285" s="37" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="O1285" s="5"/>
       <c r="P1285" s="11" t="s">
@@ -51836,7 +51836,7 @@
       <c r="T1285" s="6"/>
       <c r="U1285" s="6"/>
       <c r="V1285" s="37" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1286" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52034,7 +52034,7 @@
       <c r="T1291" s="6"/>
       <c r="U1291" s="6"/>
       <c r="V1291" s="37" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1292" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52216,7 +52216,7 @@
         <v>90</v>
       </c>
       <c r="N1297" s="75" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="O1297" s="6" t="s">
         <v>0</v>
@@ -52232,7 +52232,7 @@
         <v>93</v>
       </c>
       <c r="V1297" s="37" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="1298" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52478,7 +52478,7 @@
         <v>98</v>
       </c>
       <c r="N1305" s="37" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="O1305" s="6" t="s">
         <v>0</v>
@@ -52492,7 +52492,7 @@
       <c r="T1305" s="6"/>
       <c r="U1305" s="6"/>
       <c r="V1305" s="37" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1306" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52687,10 +52687,10 @@
       <c r="Q1311" s="6"/>
       <c r="R1311" s="6"/>
       <c r="S1311" s="6" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="T1311" s="64" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="U1311" s="6"/>
       <c r="V1311" s="37"/>
@@ -52716,7 +52716,7 @@
         <v>105</v>
       </c>
       <c r="N1312" s="37" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="O1312" s="5"/>
       <c r="P1312" s="11" t="s">
@@ -52728,7 +52728,7 @@
       <c r="T1312" s="6"/>
       <c r="U1312" s="6"/>
       <c r="V1312" s="37" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1313" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53015,7 +53015,7 @@
       <c r="T1320" s="6"/>
       <c r="U1320" s="6"/>
       <c r="V1320" s="37" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="1321" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53307,7 +53307,7 @@
         <v>122</v>
       </c>
       <c r="N1329" s="37" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="O1329" s="5"/>
       <c r="P1329" s="11" t="s">
@@ -53319,7 +53319,7 @@
       <c r="T1329" s="6"/>
       <c r="U1329" s="6"/>
       <c r="V1329" s="37" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="1330" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53543,7 +53543,7 @@
         <v>129</v>
       </c>
       <c r="N1336" s="37" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="O1336" s="5"/>
       <c r="P1336" s="11" t="s">
@@ -53555,7 +53555,7 @@
       <c r="T1336" s="6"/>
       <c r="U1336" s="6"/>
       <c r="V1336" s="37" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="1337" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53707,7 +53707,7 @@
         <v>134</v>
       </c>
       <c r="N1341" s="37" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="O1341" s="5"/>
       <c r="P1341" s="11" t="s">
@@ -53719,7 +53719,7 @@
       <c r="T1341" s="6"/>
       <c r="U1341" s="6"/>
       <c r="V1341" s="37" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="1342" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53941,7 +53941,7 @@
         <v>141</v>
       </c>
       <c r="N1348" s="37" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="O1348" s="5"/>
       <c r="P1348" s="11" t="s">
@@ -53953,7 +53953,7 @@
       <c r="T1348" s="6"/>
       <c r="U1348" s="6"/>
       <c r="V1348" s="37" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1349" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54215,7 +54215,7 @@
       <c r="T1356" s="6"/>
       <c r="U1356" s="6"/>
       <c r="V1356" s="37" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="1357" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54447,7 +54447,7 @@
         <v>156</v>
       </c>
       <c r="N1363" s="67" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="O1363" s="6" t="s">
         <v>0</v>
@@ -54461,7 +54461,7 @@
       <c r="T1363" s="6"/>
       <c r="U1363" s="6"/>
       <c r="V1363" s="37" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1364" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54731,7 +54731,7 @@
       <c r="T1371" s="6"/>
       <c r="U1371" s="6"/>
       <c r="V1371" s="37" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1372" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54920,7 +54920,7 @@
         <v>170</v>
       </c>
       <c r="N1377" s="37" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="O1377" s="5"/>
       <c r="P1377" s="11" t="s">
@@ -55120,7 +55120,7 @@
         <v>176</v>
       </c>
       <c r="N1383" s="37" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="O1383" s="6" t="s">
         <v>0</v>
@@ -55134,7 +55134,7 @@
       <c r="T1383" s="6"/>
       <c r="U1383" s="6"/>
       <c r="V1383" s="37" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="1384" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55263,7 +55263,7 @@
         <v>180</v>
       </c>
       <c r="N1387" s="37" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="O1387" s="6" t="s">
         <v>0</v>
@@ -55277,7 +55277,7 @@
       <c r="T1387" s="6"/>
       <c r="U1387" s="6"/>
       <c r="V1387" s="37" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="1388" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55465,7 +55465,7 @@
         <v>186</v>
       </c>
       <c r="N1393" s="67" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="O1393" s="6" t="s">
         <v>0</v>
@@ -55481,7 +55481,7 @@
         <v>93</v>
       </c>
       <c r="V1393" s="37" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="1394" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55729,7 +55729,7 @@
         <v>194</v>
       </c>
       <c r="N1401" s="37" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="O1401" s="5"/>
       <c r="P1401" s="11" t="s">
@@ -55741,7 +55741,7 @@
       <c r="T1401" s="6"/>
       <c r="U1401" s="6"/>
       <c r="V1401" s="37" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="1402" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55909,7 +55909,7 @@
         <v>199</v>
       </c>
       <c r="N1406" s="67" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="O1406" s="5"/>
       <c r="P1406" s="11" t="s">
@@ -55923,7 +55923,7 @@
         <v>93</v>
       </c>
       <c r="V1406" s="37" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="1407" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56130,7 +56130,7 @@
       <c r="T1412" s="6"/>
       <c r="U1412" s="6"/>
       <c r="V1412" s="37" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="1413" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56388,7 +56388,7 @@
         <v>213</v>
       </c>
       <c r="N1420" s="37" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="O1420" s="6"/>
       <c r="P1420" s="11" t="s">
@@ -56400,7 +56400,7 @@
       <c r="T1420" s="6"/>
       <c r="U1420" s="6"/>
       <c r="V1420" s="37" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="1421" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56582,7 +56582,7 @@
       <c r="T1425" s="6"/>
       <c r="U1425" s="6"/>
       <c r="V1425" s="37" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="1426" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56670,7 +56670,7 @@
         <v>221</v>
       </c>
       <c r="N1428" s="37" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="O1428" s="5"/>
       <c r="P1428" s="6"/>
@@ -56798,7 +56798,7 @@
         <v>225</v>
       </c>
       <c r="N1432" s="37" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="O1432" s="5"/>
       <c r="P1432" s="11" t="s">
@@ -56810,7 +56810,7 @@
       <c r="T1432" s="6"/>
       <c r="U1432" s="6"/>
       <c r="V1432" s="37" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="1433" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57062,7 +57062,7 @@
         <v>233</v>
       </c>
       <c r="N1440" s="37" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="O1440" s="6" t="s">
         <v>0</v>
@@ -57076,7 +57076,7 @@
       <c r="T1440" s="6"/>
       <c r="U1440" s="6"/>
       <c r="V1440" s="37" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="1441" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57330,7 +57330,7 @@
         <v>241</v>
       </c>
       <c r="N1448" s="37" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="O1448" s="5"/>
       <c r="P1448" s="11" t="s">
@@ -57342,7 +57342,7 @@
       <c r="T1448" s="6"/>
       <c r="U1448" s="6"/>
       <c r="V1448" s="37" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="1449" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57622,7 +57622,7 @@
         <v>250</v>
       </c>
       <c r="N1457" s="37" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="O1457" s="5"/>
       <c r="P1457" s="11" t="s">
@@ -57634,7 +57634,7 @@
       <c r="T1457" s="6"/>
       <c r="U1457" s="6"/>
       <c r="V1457" s="37" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="1458" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57836,7 +57836,7 @@
         <v>256</v>
       </c>
       <c r="N1463" s="37" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="O1463" s="6" t="s">
         <v>0</v>
@@ -57850,7 +57850,7 @@
       <c r="T1463" s="6"/>
       <c r="U1463" s="6"/>
       <c r="V1463" s="37" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="1464" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58036,7 +58036,7 @@
         <v>262</v>
       </c>
       <c r="N1469" s="37" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="O1469" s="5"/>
       <c r="P1469" s="11" t="s">
@@ -58048,7 +58048,7 @@
       <c r="T1469" s="6"/>
       <c r="U1469" s="6"/>
       <c r="V1469" s="37" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="1470" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58213,7 +58213,7 @@
     </row>
     <row r="1475" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1475" s="6" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="C1475" s="35"/>
       <c r="H1475" s="30"/>
@@ -58236,7 +58236,7 @@
         <v>268</v>
       </c>
       <c r="N1475" s="37" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="O1475" s="5"/>
       <c r="P1475" s="11" t="s">
@@ -58248,7 +58248,7 @@
       <c r="T1475" s="6"/>
       <c r="U1475" s="6"/>
       <c r="V1475" s="37" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="1476" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58612,7 +58612,7 @@
       <c r="T1486" s="6"/>
       <c r="U1486" s="6"/>
       <c r="V1486" s="37" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="1487" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58926,7 +58926,7 @@
         <v>21</v>
       </c>
       <c r="N1496" s="37" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="O1496" s="5"/>
       <c r="P1496" s="11" t="s">
@@ -58938,7 +58938,7 @@
       <c r="T1496" s="6"/>
       <c r="U1496" s="6"/>
       <c r="V1496" s="37" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="1497" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59105,7 +59105,7 @@
       <c r="T1501" s="6"/>
       <c r="U1501" s="6"/>
       <c r="V1501" s="37" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="1502" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59295,7 +59295,7 @@
         <v>32</v>
       </c>
       <c r="N1507" s="37" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="O1507" s="5"/>
       <c r="P1507" s="11" t="s">
@@ -59307,7 +59307,7 @@
       <c r="T1507" s="6"/>
       <c r="U1507" s="6"/>
       <c r="V1507" s="37" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="1508" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59623,7 +59623,7 @@
         <v>42</v>
       </c>
       <c r="N1517" s="37" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="O1517" s="6"/>
       <c r="P1517" s="11" t="s">
@@ -59635,7 +59635,7 @@
       <c r="T1517" s="6"/>
       <c r="U1517" s="6"/>
       <c r="V1517" s="37" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="1518" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59723,7 +59723,7 @@
         <v>45</v>
       </c>
       <c r="N1520" s="37" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="O1520" s="5"/>
       <c r="P1520" s="11" t="s">
@@ -59735,7 +59735,7 @@
       <c r="T1520" s="6"/>
       <c r="U1520" s="6"/>
       <c r="V1520" s="37" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="1521" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60068,7 +60068,7 @@
         <v>55</v>
       </c>
       <c r="N1530" s="37" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="O1530" s="6"/>
       <c r="P1530" s="11" t="s">
@@ -60080,7 +60080,7 @@
       <c r="T1530" s="6"/>
       <c r="U1530" s="6"/>
       <c r="V1530" s="37" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1531" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60408,7 +60408,7 @@
         <v>65</v>
       </c>
       <c r="N1540" s="37" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="O1540" s="5"/>
       <c r="P1540" s="11" t="s">
@@ -60420,7 +60420,7 @@
       <c r="T1540" s="6"/>
       <c r="U1540" s="6"/>
       <c r="V1540" s="37" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="1541" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60662,7 +60662,7 @@
         <v>73</v>
       </c>
       <c r="N1548" s="67" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="O1548" s="6" t="s">
         <v>17</v>
@@ -60676,7 +60676,7 @@
       <c r="T1548" s="6"/>
       <c r="U1548" s="6"/>
       <c r="V1548" s="37" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1549" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60889,7 +60889,7 @@
         <v>80</v>
       </c>
       <c r="N1555" s="37" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="O1555" s="5"/>
       <c r="P1555" s="11" t="s">
@@ -60901,7 +60901,7 @@
       <c r="T1555" s="6"/>
       <c r="U1555" s="6"/>
       <c r="V1555" s="37" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="1556" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61122,7 +61122,7 @@
         <v>87</v>
       </c>
       <c r="N1562" s="37" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="O1562" s="5"/>
       <c r="P1562" s="11" t="s">
@@ -61136,7 +61136,7 @@
         <v>172</v>
       </c>
       <c r="V1562" s="37" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="1563" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61391,7 +61391,7 @@
       <c r="T1570" s="6"/>
       <c r="U1570" s="6"/>
       <c r="V1570" s="37" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1571" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61611,7 +61611,7 @@
         <v>102</v>
       </c>
       <c r="N1577" s="37" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="O1577" s="5"/>
       <c r="P1577" s="11" t="s">
@@ -61623,7 +61623,7 @@
       <c r="T1577" s="6"/>
       <c r="U1577" s="6"/>
       <c r="V1577" s="37" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="1578" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61657,8 +61657,8 @@
       <c r="S1578" s="6"/>
       <c r="T1578" s="6"/>
       <c r="U1578" s="6"/>
-      <c r="V1578" s="37" t="s">
-        <v>1535</v>
+      <c r="V1578" s="49" t="s">
+        <v>2089</v>
       </c>
     </row>
     <row r="1579" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61775,7 +61775,7 @@
         <v>0</v>
       </c>
       <c r="V1582" s="37" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="1583" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61804,7 +61804,7 @@
         <v>0</v>
       </c>
       <c r="V1583" s="37" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="1584" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61836,7 +61836,7 @@
         <v>19</v>
       </c>
       <c r="V1584" s="37" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="1585" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61865,7 +61865,7 @@
         <v>0</v>
       </c>
       <c r="V1585" s="37" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="1586" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61894,7 +61894,7 @@
         <v>0</v>
       </c>
       <c r="V1586" s="37" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="1587" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61926,7 +61926,7 @@
         <v>0</v>
       </c>
       <c r="V1587" s="37" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="1588" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62015,7 +62015,7 @@
         <v>19</v>
       </c>
       <c r="V1590" s="37" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="1591" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62086,13 +62086,13 @@
         <v>118</v>
       </c>
       <c r="N1593" s="37" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="O1593" s="6" t="s">
         <v>0</v>
       </c>
       <c r="V1593" s="37" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="1594" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62172,7 +62172,7 @@
         <v>18</v>
       </c>
       <c r="V1596" s="37" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="1597" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62257,7 +62257,7 @@
         <v>0</v>
       </c>
       <c r="V1599" s="37" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="1600" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62310,7 +62310,7 @@
         <v>0</v>
       </c>
       <c r="V1601" s="37" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="1602" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62435,7 +62435,7 @@
         <v>19</v>
       </c>
       <c r="V1606" s="37" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="1607" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62464,7 +62464,7 @@
         <v>0</v>
       </c>
       <c r="V1607" s="37" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="1608" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62493,7 +62493,7 @@
         <v>0</v>
       </c>
       <c r="V1608" s="37" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="1609" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62618,7 +62618,7 @@
         <v>19</v>
       </c>
       <c r="V1613" s="37" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="1614" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62647,7 +62647,7 @@
         <v>0</v>
       </c>
       <c r="V1614" s="37" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1615" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62700,7 +62700,7 @@
         <v>0</v>
       </c>
       <c r="V1616" s="37" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="1617" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62771,13 +62771,13 @@
         <v>144</v>
       </c>
       <c r="N1619" s="37" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="P1619" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V1619" s="37" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="1620" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62878,7 +62878,7 @@
         <v>0</v>
       </c>
       <c r="V1623" s="37" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="1624" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62954,7 +62954,7 @@
         <v>19</v>
       </c>
       <c r="V1626" s="37" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1627" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63031,7 +63031,7 @@
         <v>0</v>
       </c>
       <c r="V1629" s="37" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="1630" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63060,7 +63060,7 @@
         <v>0</v>
       </c>
       <c r="V1630" s="37" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="1631" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63203,13 +63203,13 @@
         <v>161</v>
       </c>
       <c r="N1636" s="37" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="P1636" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V1636" s="37" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="1637" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63406,13 +63406,13 @@
         <v>169</v>
       </c>
       <c r="N1644" s="37" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="P1644" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V1644" s="37" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="1645" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63486,7 +63486,7 @@
         <v>172</v>
       </c>
       <c r="N1647" s="37" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="O1647" s="6" t="s">
         <v>0</v>
@@ -63495,7 +63495,7 @@
         <v>19</v>
       </c>
       <c r="V1647" s="37" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1648" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63767,7 +63767,7 @@
         <v>182</v>
       </c>
       <c r="N1657" s="67" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="O1657" s="6" t="s">
         <v>0</v>
@@ -63779,7 +63779,7 @@
         <v>93</v>
       </c>
       <c r="V1657" s="37" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="1658" spans="6:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63809,7 +63809,7 @@
       </c>
       <c r="U1658" s="6"/>
       <c r="V1658" s="37" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="1659" spans="6:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63937,7 +63937,7 @@
         <v>0</v>
       </c>
       <c r="V1663" s="37" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="1664" spans="6:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63960,13 +63960,13 @@
         <v>189</v>
       </c>
       <c r="N1664" s="37" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="P1664" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V1664" s="37" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="1665" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64308,7 +64308,7 @@
         <v>19</v>
       </c>
       <c r="V1676" s="37" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="1677" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64550,7 +64550,7 @@
         <v>0</v>
       </c>
       <c r="V1685" s="37" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="1686" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64573,13 +64573,13 @@
         <v>22</v>
       </c>
       <c r="N1686" s="37" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="P1686" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V1686" s="37" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="1687" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64707,7 +64707,7 @@
         <v>0</v>
       </c>
       <c r="V1691" s="37" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="1692" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64802,13 +64802,13 @@
         <v>31</v>
       </c>
       <c r="N1695" s="37" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="P1695" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V1695" s="37" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="1696" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64909,7 +64909,7 @@
         <v>18</v>
       </c>
       <c r="V1699" s="37" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="1700" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64938,7 +64938,7 @@
         <v>0</v>
       </c>
       <c r="V1700" s="37" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="1701" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65033,7 +65033,7 @@
         <v>40</v>
       </c>
       <c r="N1704" s="37" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="P1704" s="11" t="s">
         <v>19</v>
@@ -65042,7 +65042,7 @@
         <v>172</v>
       </c>
       <c r="V1704" s="37" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="1705" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65236,13 +65236,13 @@
         <v>48</v>
       </c>
       <c r="N1712" s="37" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="P1712" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V1712" s="37" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="1713" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65459,13 +65459,13 @@
         <v>57</v>
       </c>
       <c r="N1721" s="37" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="P1721" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V1721" s="37" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="1722" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65644,7 +65644,7 @@
         <v>0</v>
       </c>
       <c r="V1728" s="37" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="1729" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65700,7 +65700,7 @@
         <v>66</v>
       </c>
       <c r="N1730" s="37" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="P1730" s="11" t="s">
         <v>19</v>
@@ -65712,7 +65712,7 @@
         <v>152</v>
       </c>
       <c r="V1730" s="37" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="1731" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65789,7 +65789,7 @@
         <v>0</v>
       </c>
       <c r="V1733" s="37" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="1734" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65842,7 +65842,7 @@
         <v>0</v>
       </c>
       <c r="V1735" s="37" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="1736" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66009,7 +66009,7 @@
         <v>77</v>
       </c>
       <c r="N1741" s="37" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="P1741" s="11" t="s">
         <v>19</v>
@@ -66021,7 +66021,7 @@
         <v>153</v>
       </c>
       <c r="V1741" s="37" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1742" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66050,7 +66050,7 @@
         <v>0</v>
       </c>
       <c r="V1742" s="37" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="1743" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66205,7 +66205,7 @@
         <v>89</v>
       </c>
       <c r="T1748" s="1" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="V1748" s="37"/>
     </row>
@@ -66259,13 +66259,13 @@
         <v>86</v>
       </c>
       <c r="N1750" s="37" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="P1750" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V1750" s="37" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="1751" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66504,13 +66504,13 @@
         <v>96</v>
       </c>
       <c r="N1760" s="37" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="P1760" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V1760" s="37" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="1761" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66721,7 +66721,7 @@
     </row>
     <row r="1769" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1769" s="6" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="H1769" s="44" t="s">
         <v>154</v>
@@ -66829,13 +66829,13 @@
         <v>108</v>
       </c>
       <c r="N1772" s="37" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="P1772" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V1772" s="37" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="1773" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66939,7 +66939,7 @@
         <v>0</v>
       </c>
       <c r="V1776" s="37" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="1777" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67061,13 +67061,13 @@
         <v>117</v>
       </c>
       <c r="N1781" s="37" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="P1781" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V1781" s="37" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="1782" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67270,7 +67270,7 @@
         <v>19</v>
       </c>
       <c r="V1789" s="37" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="1790" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67446,7 +67446,7 @@
         <v>19</v>
       </c>
       <c r="V1796" s="37" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="1797" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67661,13 +67661,13 @@
         <v>140</v>
       </c>
       <c r="N1804" s="37" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="P1804" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V1804" s="37" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="1805" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67848,7 +67848,7 @@
         <v>19</v>
       </c>
       <c r="V1811" s="37" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="1812" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67925,7 +67925,7 @@
         <v>0</v>
       </c>
       <c r="V1814" s="37" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="1815" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68035,7 +68035,7 @@
         <v>19</v>
       </c>
       <c r="V1818" s="37" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="1819" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68184,7 +68184,7 @@
     </row>
     <row r="1825" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1825" s="6" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="I1825" s="39" t="s">
         <v>58</v>
@@ -68211,7 +68211,7 @@
         <v>19</v>
       </c>
       <c r="V1825" s="37" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="1826" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68334,7 +68334,7 @@
         <v>0</v>
       </c>
       <c r="V1830" s="37" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="1831" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68357,7 +68357,7 @@
         <v>6</v>
       </c>
       <c r="N1831" s="37" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="O1831" s="6" t="s">
         <v>0</v>
@@ -68366,7 +68366,7 @@
         <v>19</v>
       </c>
       <c r="V1831" s="37" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1832" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68542,7 +68542,7 @@
         <v>0</v>
       </c>
       <c r="V1838" s="37" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="1839" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68619,7 +68619,7 @@
         <v>19</v>
       </c>
       <c r="V1841" s="37" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="1842" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69061,7 +69061,7 @@
         <v>0</v>
       </c>
       <c r="V1859" s="37" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="1860" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69354,7 +69354,7 @@
         <v>0</v>
       </c>
       <c r="V1871" s="37" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="1872" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69383,7 +69383,7 @@
         <v>0</v>
       </c>
       <c r="V1872" s="37" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="1873" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69412,7 +69412,7 @@
         <v>0</v>
       </c>
       <c r="V1873" s="37" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="1874" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69441,7 +69441,7 @@
         <v>0</v>
       </c>
       <c r="V1874" s="37" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="1875" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69470,7 +69470,7 @@
         <v>0</v>
       </c>
       <c r="V1875" s="37" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="1876" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69693,7 +69693,7 @@
         <v>0</v>
       </c>
       <c r="V1884" s="37" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="1885" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69818,7 +69818,7 @@
         <v>19</v>
       </c>
       <c r="V1889" s="37" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="1890" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69847,7 +69847,7 @@
         <v>0</v>
       </c>
       <c r="V1890" s="37" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="1891" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69876,7 +69876,7 @@
         <v>0</v>
       </c>
       <c r="V1891" s="37" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="1892" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69905,7 +69905,7 @@
         <v>0</v>
       </c>
       <c r="V1892" s="37" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="1893" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69937,7 +69937,7 @@
         <v>19</v>
       </c>
       <c r="V1893" s="37" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="1894" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70137,7 +70137,7 @@
         <v>19</v>
       </c>
       <c r="V1901" s="37" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1902" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70214,7 +70214,7 @@
         <v>0</v>
       </c>
       <c r="V1904" s="37" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="1905" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70261,7 +70261,7 @@
         <v>81</v>
       </c>
       <c r="N1906" s="37" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="O1906" s="6" t="s">
         <v>0</v>
@@ -70270,7 +70270,7 @@
         <v>19</v>
       </c>
       <c r="V1906" s="37" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="1907" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70443,7 +70443,7 @@
         <v>19</v>
       </c>
       <c r="V1913" s="37" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="1914" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70727,13 +70727,13 @@
         <v>99</v>
       </c>
       <c r="N1924" s="37" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="P1924" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V1924" s="37" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="1925" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70762,7 +70762,7 @@
         <v>0</v>
       </c>
       <c r="V1925" s="37" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="1926" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70856,13 +70856,13 @@
         <v>104</v>
       </c>
       <c r="N1929" s="37" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="P1929" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V1929" s="37" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="1930" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70939,7 +70939,7 @@
         <v>0</v>
       </c>
       <c r="V1932" s="37" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="1933" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71010,13 +71010,13 @@
         <v>110</v>
       </c>
       <c r="N1935" s="37" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="P1935" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V1935" s="37" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="1936" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71117,7 +71117,7 @@
         <v>19</v>
       </c>
       <c r="V1939" s="37" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="1940" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71242,7 +71242,7 @@
         <v>0</v>
       </c>
       <c r="V1944" s="37" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="1945" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71289,13 +71289,13 @@
         <v>121</v>
       </c>
       <c r="N1946" s="37" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="P1946" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V1946" s="37" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="1947" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71423,7 +71423,7 @@
         <v>19</v>
       </c>
       <c r="V1951" s="37" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1952" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71452,7 +71452,7 @@
         <v>0</v>
       </c>
       <c r="V1952" s="37" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="1953" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71535,7 +71535,7 @@
         <v>116</v>
       </c>
       <c r="V1955" s="37" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="1956" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71591,7 +71591,7 @@
         <v>19</v>
       </c>
       <c r="V1957" s="37" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="1958" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71692,7 +71692,7 @@
         <v>19</v>
       </c>
       <c r="V1961" s="37" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="1962" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71883,13 +71883,13 @@
         <v>144</v>
       </c>
       <c r="N1969" s="37" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="P1969" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V1969" s="37" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="1970" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71960,7 +71960,7 @@
         <v>147</v>
       </c>
       <c r="N1972" s="37" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="O1972" s="6" t="s">
         <v>0</v>
@@ -71969,7 +71969,7 @@
         <v>19</v>
       </c>
       <c r="V1972" s="37" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1973" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72135,13 +72135,13 @@
         <v>154</v>
       </c>
       <c r="N1979" s="37" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="P1979" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V1979" s="37" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="1980" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72236,7 +72236,7 @@
         <v>158</v>
       </c>
       <c r="N1983" s="37" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="O1983" s="6" t="s">
         <v>0</v>
@@ -72245,7 +72245,7 @@
         <v>19</v>
       </c>
       <c r="V1983" s="37" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="1984" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72364,13 +72364,13 @@
         <v>163</v>
       </c>
       <c r="N1988" s="37" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="P1988" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V1988" s="37" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="1989" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72492,13 +72492,13 @@
         <v>168</v>
       </c>
       <c r="N1993" s="37" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="P1993" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V1993" s="37" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="1994" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72650,7 +72650,7 @@
         <v>0</v>
       </c>
       <c r="V1999" s="37" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="2000" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72703,7 +72703,7 @@
         <v>0</v>
       </c>
       <c r="V2001" s="37" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="2002" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72726,7 +72726,7 @@
         <v>177</v>
       </c>
       <c r="N2002" s="37" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="O2002" s="6" t="s">
         <v>0</v>
@@ -72735,7 +72735,7 @@
         <v>19</v>
       </c>
       <c r="V2002" s="37" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="2003" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72782,7 +72782,7 @@
         <v>179</v>
       </c>
       <c r="N2004" s="49" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="V2004" s="37"/>
     </row>
@@ -72860,7 +72860,7 @@
         <v>89</v>
       </c>
       <c r="T2007" s="1" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="V2007" s="37"/>
     </row>
@@ -72890,7 +72890,7 @@
         <v>19</v>
       </c>
       <c r="V2008" s="37" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="2009" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73111,7 +73111,7 @@
         <v>19</v>
       </c>
       <c r="V2017" s="37" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="2018" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73140,7 +73140,7 @@
         <v>17</v>
       </c>
       <c r="V2018" s="37" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="2019" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73187,7 +73187,7 @@
         <v>195</v>
       </c>
       <c r="N2020" s="37" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="V2020" s="37"/>
     </row>
@@ -73283,13 +73283,13 @@
         <v>199</v>
       </c>
       <c r="N2024" s="37" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="P2024" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2024" s="37" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="2025" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73318,7 +73318,7 @@
         <v>0</v>
       </c>
       <c r="V2025" s="37" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="2026" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73394,7 +73394,7 @@
         <v>0</v>
       </c>
       <c r="V2028" s="37" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="2029" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73471,7 +73471,7 @@
         <v>0</v>
       </c>
       <c r="V2031" s="37" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="2032" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73524,7 +73524,7 @@
         <v>19</v>
       </c>
       <c r="V2033" s="37" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="2034" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73733,13 +73733,13 @@
         <v>216</v>
       </c>
       <c r="N2041" s="37" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="P2041" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2041" s="37" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="2042" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73810,13 +73810,13 @@
         <v>219</v>
       </c>
       <c r="N2044" s="37" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="P2044" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2044" s="37" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="2045" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73905,7 +73905,7 @@
         <v>116</v>
       </c>
       <c r="V2047" s="37" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="2048" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74027,7 +74027,7 @@
         <v>19</v>
       </c>
       <c r="V2051" s="37" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="2052" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74050,7 +74050,7 @@
         <v>227</v>
       </c>
       <c r="N2052" s="49" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="O2052" s="5" t="s">
         <v>1</v>
@@ -74125,13 +74125,13 @@
         <v>230</v>
       </c>
       <c r="N2055" s="37" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="P2055" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2055" s="37" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="2056" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74331,7 +74331,7 @@
     </row>
     <row r="2064" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2064" s="68" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B2064" s="69"/>
       <c r="C2064" s="70"/>
@@ -74429,13 +74429,13 @@
         <v>242</v>
       </c>
       <c r="N2067" s="37" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="P2067" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2067" s="37" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="2068" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74539,7 +74539,7 @@
         <v>0</v>
       </c>
       <c r="V2071" s="37" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="2072" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74660,13 +74660,13 @@
         <v>251</v>
       </c>
       <c r="N2076" s="37" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="P2076" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2076" s="37" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="2077" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74863,7 +74863,7 @@
         <v>19</v>
       </c>
       <c r="V2084" s="37" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="2085" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75006,13 +75006,13 @@
         <v>265</v>
       </c>
       <c r="N2090" s="37" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="P2090" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2090" s="37" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="2091" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75272,13 +75272,13 @@
         <v>275</v>
       </c>
       <c r="N2100" s="37" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="P2100" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2100" s="37" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="2101" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75379,13 +75379,13 @@
         <v>279</v>
       </c>
       <c r="N2104" s="37" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="P2104" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2104" s="37" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="2105" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75483,13 +75483,13 @@
         <v>283</v>
       </c>
       <c r="N2108" s="37" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="P2108" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2108" s="37" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="2109" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75584,13 +75584,13 @@
         <v>287</v>
       </c>
       <c r="N2112" s="37" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="P2112" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2112" s="37" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="2113" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75655,7 +75655,7 @@
         <v>0</v>
       </c>
       <c r="V2114" s="37" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="2115" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75687,7 +75687,7 @@
         <v>0</v>
       </c>
       <c r="V2115" s="37" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="2116" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75806,13 +75806,13 @@
         <v>295</v>
       </c>
       <c r="N2120" s="37" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="P2120" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2120" s="37" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="2121" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75961,7 +75961,7 @@
         <v>0</v>
       </c>
       <c r="V2126" s="37" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="2127" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76032,13 +76032,13 @@
         <v>304</v>
       </c>
       <c r="N2129" s="37" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="P2129" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2129" s="37" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="2130" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76137,7 +76137,7 @@
         <v>0</v>
       </c>
       <c r="V2133" s="37" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="2134" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76190,7 +76190,7 @@
         <v>0</v>
       </c>
       <c r="V2135" s="37" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="2136" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76213,7 +76213,7 @@
         <v>7</v>
       </c>
       <c r="N2136" s="37" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="O2136" s="6" t="s">
         <v>0</v>
@@ -76222,7 +76222,7 @@
         <v>19</v>
       </c>
       <c r="V2136" s="37" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="2137" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76419,7 +76419,7 @@
         <v>0</v>
       </c>
       <c r="V2143" s="37" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="2144" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76472,13 +76472,13 @@
         <v>16</v>
       </c>
       <c r="N2145" s="37" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="P2145" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2145" s="37" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="2146" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76579,7 +76579,7 @@
         <v>0</v>
       </c>
       <c r="V2149" s="37" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="2150" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76632,7 +76632,7 @@
         <v>0</v>
       </c>
       <c r="V2151" s="37" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="2152" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76706,13 +76706,13 @@
         <v>25</v>
       </c>
       <c r="N2154" s="37" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="P2154" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2154" s="37" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="2155" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76933,7 +76933,7 @@
         <v>34</v>
       </c>
       <c r="N2163" s="49" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="O2163" s="5" t="s">
         <v>1</v>
@@ -76972,7 +76972,7 @@
         <v>149</v>
       </c>
       <c r="V2164" s="37" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="2165" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77169,7 +77169,7 @@
         <v>19</v>
       </c>
       <c r="V2172" s="37" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="2173" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77276,7 +77276,7 @@
         <v>0</v>
       </c>
       <c r="V2176" s="37" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="2177" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77406,7 +77406,7 @@
         <v>52</v>
       </c>
       <c r="N2181" s="37" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="O2181" s="6" t="s">
         <v>0</v>
@@ -77415,7 +77415,7 @@
         <v>19</v>
       </c>
       <c r="V2181" s="37" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="2182" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77516,7 +77516,7 @@
         <v>0</v>
       </c>
       <c r="V2185" s="37" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="2186" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77611,13 +77611,13 @@
         <v>60</v>
       </c>
       <c r="N2189" s="37" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="P2189" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2189" s="37" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="2190" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77838,7 +77838,7 @@
         <v>69</v>
       </c>
       <c r="N2198" s="49" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="O2198" s="5" t="s">
         <v>1</v>
@@ -77877,7 +77877,7 @@
         <v>149</v>
       </c>
       <c r="V2199" s="37" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="2200" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78053,7 +78053,7 @@
         <v>0</v>
       </c>
       <c r="V2206" s="37" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="2207" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78076,7 +78076,7 @@
         <v>78</v>
       </c>
       <c r="N2207" s="37" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="O2207" s="6" t="s">
         <v>0</v>
@@ -78085,7 +78085,7 @@
         <v>19</v>
       </c>
       <c r="V2207" s="37" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="2208" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78138,7 +78138,7 @@
         <v>0</v>
       </c>
       <c r="V2209" s="37" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="2210" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78167,7 +78167,7 @@
         <v>0</v>
       </c>
       <c r="V2210" s="37" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="2211" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78310,7 +78310,7 @@
         <v>87</v>
       </c>
       <c r="N2216" s="37" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="O2216" s="6" t="s">
         <v>0</v>
@@ -78319,7 +78319,7 @@
         <v>19</v>
       </c>
       <c r="V2216" s="37" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="2217" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78396,7 +78396,7 @@
         <v>0</v>
       </c>
       <c r="V2219" s="37" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="2220" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78449,7 +78449,7 @@
         <v>0</v>
       </c>
       <c r="V2221" s="37" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="2222" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78502,7 +78502,7 @@
         <v>19</v>
       </c>
       <c r="V2223" s="37" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="2224" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78716,7 +78716,7 @@
         <v>103</v>
       </c>
       <c r="N2232" s="37" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="O2232" s="6" t="s">
         <v>0</v>
@@ -78725,7 +78725,7 @@
         <v>19</v>
       </c>
       <c r="V2232" s="37" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="2233" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78946,7 +78946,7 @@
         <v>112</v>
       </c>
       <c r="N2241" s="49" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="O2241" s="5" t="s">
         <v>1</v>
@@ -78985,7 +78985,7 @@
         <v>149</v>
       </c>
       <c r="V2242" s="37" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="2243" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79176,13 +79176,13 @@
         <v>121</v>
       </c>
       <c r="N2250" s="37" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="P2250" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2250" s="37" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="2251" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79397,7 +79397,7 @@
         <v>130</v>
       </c>
       <c r="N2259" s="37" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="O2259" s="6" t="s">
         <v>0</v>
@@ -79406,7 +79406,7 @@
         <v>19</v>
       </c>
       <c r="V2259" s="37" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="2260" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79579,7 +79579,7 @@
         <v>0</v>
       </c>
       <c r="V2266" s="37" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="2267" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79602,7 +79602,7 @@
         <v>138</v>
       </c>
       <c r="N2267" s="37" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="O2267" s="6" t="s">
         <v>0</v>
@@ -79611,7 +79611,7 @@
         <v>19</v>
       </c>
       <c r="V2267" s="37" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="2268" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79664,7 +79664,7 @@
         <v>0</v>
       </c>
       <c r="V2269" s="37" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="2270" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79831,7 +79831,7 @@
         <v>147</v>
       </c>
       <c r="N2276" s="37" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="O2276" s="6" t="s">
         <v>0</v>
@@ -79840,7 +79840,7 @@
         <v>19</v>
       </c>
       <c r="V2276" s="37" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="2277" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80060,7 +80060,7 @@
         <v>156</v>
       </c>
       <c r="N2285" s="49" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="O2285" s="5" t="s">
         <v>1</v>
@@ -80099,7 +80099,7 @@
         <v>149</v>
       </c>
       <c r="V2286" s="37" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="2287" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80395,7 +80395,7 @@
         <v>89</v>
       </c>
       <c r="T2297" s="1" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="V2297" s="37"/>
     </row>
@@ -80428,7 +80428,7 @@
         <v>19</v>
       </c>
       <c r="V2298" s="37" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="2299" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80481,7 +80481,7 @@
         <v>0</v>
       </c>
       <c r="V2300" s="37" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="2301" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80539,7 +80539,7 @@
         <v>0</v>
       </c>
       <c r="V2302" s="37" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="2303" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80688,13 +80688,13 @@
         <v>179</v>
       </c>
       <c r="N2308" s="37" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="P2308" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2308" s="37" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="2309" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81211,7 +81211,7 @@
         <v>19</v>
       </c>
       <c r="V2328" s="37" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="2329" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81432,7 +81432,7 @@
         <v>208</v>
       </c>
       <c r="N2337" s="49" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="O2337" s="5" t="s">
         <v>1</v>
@@ -81441,7 +81441,7 @@
     </row>
     <row r="2338" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2338" s="6" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="I2338" s="39" t="s">
         <v>68</v>
@@ -81474,7 +81474,7 @@
         <v>149</v>
       </c>
       <c r="V2338" s="37" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="2339" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81501,7 +81501,7 @@
         <v>17</v>
       </c>
       <c r="V2339" s="37" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="2340" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81623,13 +81623,13 @@
         <v>6</v>
       </c>
       <c r="N2344" s="37" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="P2344" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2344" s="37" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="2345" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81751,13 +81751,13 @@
         <v>11</v>
       </c>
       <c r="N2349" s="37" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="P2349" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2349" s="37" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="2350" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81981,7 +81981,7 @@
         <v>172</v>
       </c>
       <c r="V2357" s="37" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="2358" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82010,7 +82010,7 @@
         <v>17</v>
       </c>
       <c r="V2358" s="37" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="2359" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82033,13 +82033,13 @@
         <v>21</v>
       </c>
       <c r="N2359" s="37" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="P2359" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2359" s="37" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="2360" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82140,7 +82140,7 @@
         <v>0</v>
       </c>
       <c r="V2363" s="37" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="2364" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82187,7 +82187,7 @@
         <v>27</v>
       </c>
       <c r="N2365" s="37" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="O2365" s="6" t="s">
         <v>0</v>
@@ -82196,7 +82196,7 @@
         <v>19</v>
       </c>
       <c r="V2365" s="37" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="2366" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82252,7 +82252,7 @@
         <v>0</v>
       </c>
       <c r="V2367" s="37" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="2368" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82433,7 +82433,7 @@
         <v>19</v>
       </c>
       <c r="V2374" s="37" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="2375" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82489,7 +82489,7 @@
         <v>0</v>
       </c>
       <c r="V2376" s="37" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="2377" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82545,7 +82545,7 @@
         <v>0</v>
       </c>
       <c r="V2378" s="37" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="2379" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82574,7 +82574,7 @@
         <v>0</v>
       </c>
       <c r="V2379" s="37" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="2380" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82630,13 +82630,13 @@
         <v>43</v>
       </c>
       <c r="N2381" s="49" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="O2381" s="6" t="s">
         <v>17</v>
       </c>
       <c r="V2381" s="37" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="2382" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82752,7 +82752,7 @@
         <v>19</v>
       </c>
       <c r="V2385" s="37" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="2386" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82921,7 +82921,7 @@
         <v>54</v>
       </c>
       <c r="N2392" s="37" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="O2392" s="6" t="s">
         <v>0</v>
@@ -82930,7 +82930,7 @@
         <v>19</v>
       </c>
       <c r="V2392" s="37" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="2393" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82983,7 +82983,7 @@
         <v>0</v>
       </c>
       <c r="V2394" s="37" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="2395" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -83006,13 +83006,13 @@
         <v>57</v>
       </c>
       <c r="N2395" s="37" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="P2395" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2395" s="37" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="2396" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -83089,7 +83089,7 @@
         <v>0</v>
       </c>
       <c r="V2398" s="37" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="2399" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -83160,13 +83160,13 @@
         <v>63</v>
       </c>
       <c r="N2401" s="37" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="P2401" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2401" s="37" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="2402" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -83240,13 +83240,13 @@
         <v>66</v>
       </c>
       <c r="N2404" s="37" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="P2404" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2404" s="37" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="2405" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -83421,13 +83421,13 @@
         <v>73</v>
       </c>
       <c r="N2411" s="37" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="O2411" s="6" t="s">
         <v>0</v>
       </c>
       <c r="V2411" s="37" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="2412" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -83480,7 +83480,7 @@
         <v>0</v>
       </c>
       <c r="V2413" s="37" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="2414" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -83503,7 +83503,7 @@
         <v>76</v>
       </c>
       <c r="N2414" s="37" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="O2414" s="6" t="s">
         <v>0</v>
@@ -83512,7 +83512,7 @@
         <v>19</v>
       </c>
       <c r="V2414" s="37" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="2415" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -83565,7 +83565,7 @@
         <v>0</v>
       </c>
       <c r="V2416" s="37" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="2417" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -83717,7 +83717,7 @@
         <v>19</v>
       </c>
       <c r="V2422" s="37" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="2423" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -84036,13 +84036,13 @@
         <v>96</v>
       </c>
       <c r="N2434" s="49" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="O2434" s="6" t="s">
         <v>0</v>
       </c>
       <c r="V2434" s="37" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="2435" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -84065,7 +84065,7 @@
         <v>97</v>
       </c>
       <c r="N2435" s="37" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="P2435" s="11" t="s">
         <v>19</v>
@@ -84142,13 +84142,13 @@
         <v>100</v>
       </c>
       <c r="N2438" s="37" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="P2438" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2438" s="37" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="2439" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -84365,7 +84365,7 @@
         <v>109</v>
       </c>
       <c r="N2447" s="37" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="O2447" s="6" t="s">
         <v>0</v>
@@ -84374,7 +84374,7 @@
         <v>19</v>
       </c>
       <c r="V2447" s="37" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="2448" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -84406,7 +84406,7 @@
         <v>0</v>
       </c>
       <c r="V2448" s="37" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="2449" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -84438,7 +84438,7 @@
         <v>0</v>
       </c>
       <c r="V2449" s="37" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="2450" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -84470,7 +84470,7 @@
         <v>0</v>
       </c>
       <c r="V2450" s="37" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="2451" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -84613,13 +84613,13 @@
         <v>118</v>
       </c>
       <c r="N2456" s="37" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="P2456" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2456" s="37" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="2457" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -84835,7 +84835,7 @@
         <v>126</v>
       </c>
       <c r="N2464" s="37" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="O2464" s="6" t="s">
         <v>0</v>
@@ -84844,7 +84844,7 @@
         <v>19</v>
       </c>
       <c r="V2464" s="37" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="2465" spans="1:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -84964,7 +84964,7 @@
     </row>
     <row r="2469" spans="1:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2469" s="6" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="I2469" s="39" t="s">
         <v>71</v>
@@ -84991,7 +84991,7 @@
       <c r="T2469" s="6"/>
       <c r="V2469" s="37"/>
       <c r="X2469" s="6" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="2470" spans="1:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -85072,7 +85072,7 @@
         <v>134</v>
       </c>
       <c r="N2472" s="67" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="P2472" s="11" t="s">
         <v>19</v>
@@ -85080,7 +85080,7 @@
       <c r="S2472" s="6"/>
       <c r="T2472" s="6"/>
       <c r="V2472" s="37" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="2473" spans="1:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -85190,10 +85190,10 @@
         <v>89</v>
       </c>
       <c r="T2476" s="6" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="V2476" s="37" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="2477" spans="1:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -85280,7 +85280,7 @@
         <v>116</v>
       </c>
       <c r="V2479" s="37" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="2480" spans="1:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -85375,7 +85375,7 @@
         <v>145</v>
       </c>
       <c r="N2483" s="37" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="O2483" s="6" t="s">
         <v>0</v>
@@ -85384,7 +85384,7 @@
         <v>19</v>
       </c>
       <c r="V2483" s="37" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="2484" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -85455,13 +85455,13 @@
         <v>148</v>
       </c>
       <c r="N2486" s="37" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="P2486" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2486" s="37" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="2487" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -85805,7 +85805,7 @@
         <v>175</v>
       </c>
       <c r="V2499" s="37" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="2500" spans="8:22" x14ac:dyDescent="0.25">

--- a/TS Jatai Working/Padam Input Templates/TS 4.2 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 4.2 Padam Input Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F66BB43-C79F-4B75-93C2-89C74A0A13A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E701ECCB-F19B-4D6B-8EEB-29E7ED18F75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7032,9 +7032,9 @@
   <dimension ref="A1:X2500"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A878" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="V888" sqref="V888"/>
+      <selection pane="bottomLeft" activeCell="N179" sqref="N179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -14242,8 +14242,8 @@
         <f t="shared" si="8"/>
         <v>178</v>
       </c>
-      <c r="N179" s="65" t="s">
-        <v>229</v>
+      <c r="N179" s="72" t="s">
+        <v>415</v>
       </c>
       <c r="O179" s="5"/>
       <c r="P179" s="6"/>

--- a/TS Jatai Working/Padam Input Templates/TS 4.2 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 4.2 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242F7808-0EC1-4920-9423-629A08CAB8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC9D856-2315-4009-AFAE-26FCE0F8D945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4842,9 +4842,6 @@
     <t>aqgnI ityaqgnI</t>
   </si>
   <si>
-    <t>sahu#rIq iti# sa - huqrIq</t>
-  </si>
-  <si>
     <t>saha#staqmetiq saha#H - taqmAq</t>
   </si>
   <si>
@@ -6298,6 +6295,9 @@
   </si>
   <si>
     <t>uqpaqtiShTha#nte</t>
+  </si>
+  <si>
+    <t>sahu#rIq itiq sa - huqrIq</t>
   </si>
 </sst>
 </file>
@@ -7031,10 +7031,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X2500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A763" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2348" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="N778" sqref="N778"/>
+      <selection pane="bottomLeft" activeCell="V2358" sqref="V2358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -7558,7 +7558,7 @@
         <v>11</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="T1" s="10" t="s">
         <v>21</v>
@@ -9930,7 +9930,7 @@
     </row>
     <row r="61" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="D61" s="19"/>
       <c r="I61" s="39" t="s">
@@ -10194,7 +10194,7 @@
       <c r="T67" s="11"/>
       <c r="U67" s="11"/>
       <c r="V67" s="37" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="68" spans="1:22" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10972,7 +10972,7 @@
       </c>
       <c r="U88" s="11"/>
       <c r="V88" s="37" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="89" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11402,7 +11402,7 @@
         <v>99</v>
       </c>
       <c r="N100" s="37" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="O100" s="5"/>
       <c r="P100" s="11" t="s">
@@ -11414,7 +11414,7 @@
       <c r="T100" s="6"/>
       <c r="U100" s="6"/>
       <c r="V100" s="37" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="101" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11726,7 +11726,7 @@
         <v>108</v>
       </c>
       <c r="N109" s="37" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="O109" s="6" t="s">
         <v>0</v>
@@ -11740,7 +11740,7 @@
       <c r="T109" s="6"/>
       <c r="U109" s="6"/>
       <c r="V109" s="37" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="110" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12065,7 +12065,7 @@
         <v>89</v>
       </c>
       <c r="T118" s="64" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U118" s="6"/>
       <c r="V118" s="37"/>
@@ -12215,7 +12215,7 @@
       <c r="T122" s="6"/>
       <c r="U122" s="6"/>
       <c r="V122" s="37" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="123" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12250,7 +12250,7 @@
         <v>89</v>
       </c>
       <c r="T123" s="64" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U123" s="6"/>
       <c r="V123" s="37"/>
@@ -12310,7 +12310,7 @@
         <v>124</v>
       </c>
       <c r="N125" s="49" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="O125" s="5" t="s">
         <v>1</v>
@@ -12391,7 +12391,7 @@
         <v>89</v>
       </c>
       <c r="T127" s="64" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="U127" s="6"/>
       <c r="V127" s="37"/>
@@ -12505,7 +12505,7 @@
       <c r="T130" s="6"/>
       <c r="U130" s="6"/>
       <c r="V130" s="37" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="131" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12543,7 +12543,7 @@
         <v>89</v>
       </c>
       <c r="T131" s="6" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="U131" s="6"/>
       <c r="V131" s="37"/>
@@ -12661,7 +12661,7 @@
       </c>
       <c r="U134" s="6"/>
       <c r="V134" s="37" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="135" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12752,7 +12752,7 @@
         <v>136</v>
       </c>
       <c r="N137" s="49" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="O137" s="5" t="s">
         <v>1</v>
@@ -12886,7 +12886,7 @@
         <v>140</v>
       </c>
       <c r="N141" s="37" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="O141" s="5"/>
       <c r="P141" s="11" t="s">
@@ -12898,7 +12898,7 @@
       <c r="T141" s="6"/>
       <c r="U141" s="6"/>
       <c r="V141" s="37" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="142" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12923,7 +12923,7 @@
         <v>141</v>
       </c>
       <c r="N142" s="55" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="O142" s="6" t="s">
         <v>0</v>
@@ -12970,7 +12970,7 @@
         <v>89</v>
       </c>
       <c r="T143" s="6" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="U143" s="6"/>
       <c r="V143" s="37"/>
@@ -13011,7 +13011,7 @@
       <c r="T144" s="6"/>
       <c r="U144" s="6"/>
       <c r="V144" s="37" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="145" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13344,7 +13344,7 @@
         <v>153</v>
       </c>
       <c r="N154" s="37" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="O154" s="6"/>
       <c r="P154" s="11" t="s">
@@ -13356,7 +13356,7 @@
       <c r="T154" s="6"/>
       <c r="U154" s="6"/>
       <c r="V154" s="37" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="155" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13631,7 +13631,7 @@
         <v>161</v>
       </c>
       <c r="N162" s="37" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="O162" s="5"/>
       <c r="P162" s="11" t="s">
@@ -13643,7 +13643,7 @@
       <c r="T162" s="6"/>
       <c r="U162" s="6"/>
       <c r="V162" s="37" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="163" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13928,7 +13928,7 @@
         <v>169</v>
       </c>
       <c r="N170" s="37" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="O170" s="6" t="s">
         <v>0</v>
@@ -13942,7 +13942,7 @@
       <c r="T170" s="6"/>
       <c r="U170" s="6"/>
       <c r="V170" s="37" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="171" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14206,7 +14206,7 @@
         <v>177</v>
       </c>
       <c r="N178" s="37" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="O178" s="6"/>
       <c r="P178" s="11" t="s">
@@ -14218,7 +14218,7 @@
       <c r="T178" s="6"/>
       <c r="U178" s="6"/>
       <c r="V178" s="37" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="179" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14556,7 +14556,7 @@
         <v>187</v>
       </c>
       <c r="N188" s="37" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="O188" s="5"/>
       <c r="P188" s="11" t="s">
@@ -14568,7 +14568,7 @@
       <c r="T188" s="6"/>
       <c r="U188" s="6"/>
       <c r="V188" s="37" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="189" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14863,7 +14863,7 @@
         <v>196</v>
       </c>
       <c r="N197" s="37" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="O197" s="6"/>
       <c r="P197" s="11" t="s">
@@ -14875,7 +14875,7 @@
       <c r="T197" s="6"/>
       <c r="U197" s="6"/>
       <c r="V197" s="37" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="198" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -15177,7 +15177,7 @@
         <v>205</v>
       </c>
       <c r="N206" s="37" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="O206" s="5"/>
       <c r="P206" s="11" t="s">
@@ -15189,7 +15189,7 @@
       <c r="T206" s="6"/>
       <c r="U206" s="6"/>
       <c r="V206" s="37" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="207" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -15598,7 +15598,7 @@
         <v>217</v>
       </c>
       <c r="N218" s="37" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="O218" s="6"/>
       <c r="P218" s="11" t="s">
@@ -15610,7 +15610,7 @@
       <c r="T218" s="6"/>
       <c r="U218" s="6"/>
       <c r="V218" s="37" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="219" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -15851,7 +15851,7 @@
       <c r="T225" s="6"/>
       <c r="U225" s="6"/>
       <c r="V225" s="37" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="226" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16090,7 +16090,7 @@
       <c r="T232" s="6"/>
       <c r="U232" s="6"/>
       <c r="V232" s="37" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="233" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16261,7 +16261,7 @@
       <c r="T237" s="6"/>
       <c r="U237" s="6"/>
       <c r="V237" s="49" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="238" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16365,7 +16365,7 @@
       <c r="T240" s="6"/>
       <c r="U240" s="6"/>
       <c r="V240" s="37" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="241" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16661,7 +16661,7 @@
         <v>248</v>
       </c>
       <c r="N249" s="72" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="O249" s="6"/>
       <c r="P249" s="11" t="s">
@@ -16967,7 +16967,7 @@
         <v>256</v>
       </c>
       <c r="N257" s="37" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="O257" s="6" t="s">
         <v>0</v>
@@ -16981,7 +16981,7 @@
       <c r="T257" s="6"/>
       <c r="U257" s="6"/>
       <c r="V257" s="37" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="258" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17379,7 +17379,7 @@
       <c r="T267" s="6"/>
       <c r="U267" s="6"/>
       <c r="V267" s="37" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="268" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17413,7 +17413,7 @@
         <v>89</v>
       </c>
       <c r="T268" s="6" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="U268" s="6"/>
       <c r="V268" s="37"/>
@@ -17491,7 +17491,7 @@
     <row r="271" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A271" s="6"/>
       <c r="D271" s="50" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="I271" s="39" t="s">
         <v>29</v>
@@ -17526,7 +17526,7 @@
     <row r="272" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A272" s="6"/>
       <c r="D272" s="50" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="I272" s="39" t="s">
         <v>29</v>
@@ -17683,7 +17683,7 @@
         <v>9</v>
       </c>
       <c r="N276" s="37" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="O276" s="6" t="s">
         <v>0</v>
@@ -17697,7 +17697,7 @@
       <c r="T276" s="6"/>
       <c r="U276" s="6"/>
       <c r="V276" s="37" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="277" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17972,7 +17972,7 @@
         <v>17</v>
       </c>
       <c r="N284" s="37" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="O284" s="6" t="s">
         <v>0</v>
@@ -17986,7 +17986,7 @@
       <c r="T284" s="6"/>
       <c r="U284" s="6"/>
       <c r="V284" s="37" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="285" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -18323,7 +18323,7 @@
         <v>27</v>
       </c>
       <c r="N294" s="37" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="O294" s="6" t="s">
         <v>0</v>
@@ -18337,7 +18337,7 @@
       <c r="T294" s="6"/>
       <c r="U294" s="6"/>
       <c r="V294" s="37" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="295" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -18704,7 +18704,7 @@
         <v>38</v>
       </c>
       <c r="N305" s="37" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="O305" s="6" t="s">
         <v>0</v>
@@ -18718,7 +18718,7 @@
       <c r="T305" s="6"/>
       <c r="U305" s="6"/>
       <c r="V305" s="37" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="306" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19071,7 +19071,7 @@
         <v>48</v>
       </c>
       <c r="N315" s="37" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="O315" s="6"/>
       <c r="P315" s="11" t="s">
@@ -19083,7 +19083,7 @@
       <c r="T315" s="6"/>
       <c r="U315" s="6"/>
       <c r="V315" s="37" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="316" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19338,7 +19338,7 @@
         <v>56</v>
       </c>
       <c r="N323" s="37" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="O323" s="6"/>
       <c r="P323" s="11" t="s">
@@ -19350,7 +19350,7 @@
       <c r="T323" s="6"/>
       <c r="U323" s="6"/>
       <c r="V323" s="37" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="324" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20093,7 +20093,7 @@
       </c>
       <c r="U344" s="6"/>
       <c r="V344" s="37" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="345" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20359,7 +20359,7 @@
         <v>85</v>
       </c>
       <c r="N352" s="49" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="O352" s="5" t="s">
         <v>1</v>
@@ -20394,7 +20394,7 @@
         <v>86</v>
       </c>
       <c r="N353" s="37" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="O353" s="5"/>
       <c r="P353" s="11" t="s">
@@ -20406,7 +20406,7 @@
       <c r="T353" s="6"/>
       <c r="U353" s="6"/>
       <c r="V353" s="37" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="354" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20705,7 +20705,7 @@
         <v>95</v>
       </c>
       <c r="N362" s="37" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="O362" s="6"/>
       <c r="P362" s="11" t="s">
@@ -20717,7 +20717,7 @@
       <c r="T362" s="6"/>
       <c r="U362" s="6"/>
       <c r="V362" s="37" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="363" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20934,7 +20934,7 @@
     <row r="369" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A369" s="6"/>
       <c r="D369" s="50" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="H369" s="44" t="s">
         <v>99</v>
@@ -20972,7 +20972,7 @@
     <row r="370" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A370" s="6"/>
       <c r="D370" s="50" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="H370" s="44" t="s">
         <v>99</v>
@@ -21008,7 +21008,7 @@
       <c r="T370" s="6"/>
       <c r="U370" s="6"/>
       <c r="V370" s="37" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="371" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21336,7 +21336,7 @@
         <v>113</v>
       </c>
       <c r="N380" s="37" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="O380" s="5"/>
       <c r="P380" s="11" t="s">
@@ -21348,7 +21348,7 @@
       <c r="T380" s="6"/>
       <c r="U380" s="6"/>
       <c r="V380" s="37" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="381" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21575,7 +21575,7 @@
         <v>120</v>
       </c>
       <c r="N387" s="37" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="O387" s="6" t="s">
         <v>0</v>
@@ -21589,7 +21589,7 @@
       <c r="T387" s="6"/>
       <c r="U387" s="6"/>
       <c r="V387" s="37" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="388" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21921,7 +21921,7 @@
         <v>130</v>
       </c>
       <c r="N397" s="37" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="O397" s="5"/>
       <c r="P397" s="11" t="s">
@@ -21933,7 +21933,7 @@
       <c r="T397" s="6"/>
       <c r="U397" s="6"/>
       <c r="V397" s="37" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="398" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21972,7 +21972,7 @@
     <row r="399" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A399" s="6"/>
       <c r="D399" s="50" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="I399" s="39" t="s">
         <v>31</v>
@@ -22007,7 +22007,7 @@
     <row r="400" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A400" s="6"/>
       <c r="D400" s="50" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="I400" s="39" t="s">
         <v>31</v>
@@ -22250,7 +22250,7 @@
         <v>93</v>
       </c>
       <c r="V406" s="37" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="407" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22613,7 +22613,7 @@
       <c r="T416" s="6"/>
       <c r="U416" s="6"/>
       <c r="V416" s="37" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="417" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22815,7 +22815,7 @@
         <v>155</v>
       </c>
       <c r="N422" s="73" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="O422" s="6" t="s">
         <v>0</v>
@@ -22827,7 +22827,7 @@
       <c r="T422" s="6"/>
       <c r="U422" s="6"/>
       <c r="V422" s="49" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="423" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22927,7 +22927,7 @@
         <v>158</v>
       </c>
       <c r="N425" s="37" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="O425" s="5"/>
       <c r="P425" s="11" t="s">
@@ -22939,7 +22939,7 @@
       <c r="T425" s="6"/>
       <c r="U425" s="6"/>
       <c r="V425" s="37" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="426" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -23283,7 +23283,7 @@
         <v>168</v>
       </c>
       <c r="N435" s="37" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="O435" s="6"/>
       <c r="P435" s="11" t="s">
@@ -23295,7 +23295,7 @@
       <c r="T435" s="6"/>
       <c r="U435" s="6"/>
       <c r="V435" s="37" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="436" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -23589,7 +23589,7 @@
         <v>177</v>
       </c>
       <c r="N444" s="37" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="O444" s="5"/>
       <c r="P444" s="11" t="s">
@@ -23601,7 +23601,7 @@
       <c r="T444" s="6"/>
       <c r="U444" s="6"/>
       <c r="V444" s="37" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="445" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -23896,7 +23896,7 @@
         <v>186</v>
       </c>
       <c r="N453" s="37" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="O453" s="5"/>
       <c r="P453" s="11" t="s">
@@ -23908,7 +23908,7 @@
       <c r="T453" s="6"/>
       <c r="U453" s="6"/>
       <c r="V453" s="37" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="454" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24206,7 +24206,7 @@
         <v>195</v>
       </c>
       <c r="N462" s="37" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="O462" s="5"/>
       <c r="P462" s="11" t="s">
@@ -24218,7 +24218,7 @@
       <c r="T462" s="6"/>
       <c r="U462" s="6"/>
       <c r="V462" s="37" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="463" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24524,7 +24524,7 @@
         <v>204</v>
       </c>
       <c r="N471" s="37" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="O471" s="6" t="s">
         <v>0</v>
@@ -24538,7 +24538,7 @@
       <c r="T471" s="6"/>
       <c r="U471" s="6"/>
       <c r="V471" s="37" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="472" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24750,7 +24750,7 @@
         <v>6</v>
       </c>
       <c r="N477" s="37" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="O477" s="5"/>
       <c r="P477" s="11" t="s">
@@ -24762,7 +24762,7 @@
       <c r="T477" s="6"/>
       <c r="U477" s="6"/>
       <c r="V477" s="37" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="478" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25028,7 +25028,7 @@
         <v>14</v>
       </c>
       <c r="N485" s="37" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="O485" s="6" t="s">
         <v>0</v>
@@ -25042,7 +25042,7 @@
       <c r="T485" s="6"/>
       <c r="U485" s="6"/>
       <c r="V485" s="37" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="486" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25325,7 +25325,7 @@
         <v>22</v>
       </c>
       <c r="N493" s="37" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="O493" s="6" t="s">
         <v>0</v>
@@ -25339,7 +25339,7 @@
       <c r="T493" s="6"/>
       <c r="U493" s="6"/>
       <c r="V493" s="37" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="494" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25537,7 +25537,7 @@
         <v>28</v>
       </c>
       <c r="N499" s="37" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="O499" s="6" t="s">
         <v>0</v>
@@ -25551,7 +25551,7 @@
       <c r="T499" s="6"/>
       <c r="U499" s="6"/>
       <c r="V499" s="37" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="500" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25827,7 +25827,7 @@
       <c r="T507" s="6"/>
       <c r="U507" s="6"/>
       <c r="V507" s="37" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="508" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -26266,7 +26266,7 @@
         <v>49</v>
       </c>
       <c r="N520" s="37" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="O520" s="5"/>
       <c r="P520" s="11" t="s">
@@ -26278,7 +26278,7 @@
       <c r="T520" s="6"/>
       <c r="U520" s="6"/>
       <c r="V520" s="37" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="521" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -26403,7 +26403,7 @@
         <v>53</v>
       </c>
       <c r="N524" s="37" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="O524" s="5"/>
       <c r="P524" s="11" t="s">
@@ -26415,7 +26415,7 @@
       <c r="T524" s="6"/>
       <c r="U524" s="6"/>
       <c r="V524" s="37" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="525" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -26809,7 +26809,7 @@
         <v>65</v>
       </c>
       <c r="N536" s="37" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="O536" s="6"/>
       <c r="P536" s="11" t="s">
@@ -26821,7 +26821,7 @@
       <c r="T536" s="6"/>
       <c r="U536" s="6"/>
       <c r="V536" s="37" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="537" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -27161,7 +27161,7 @@
       <c r="T546" s="6"/>
       <c r="U546" s="6"/>
       <c r="V546" s="37" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="547" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -27519,7 +27519,7 @@
         <v>86</v>
       </c>
       <c r="N557" s="37" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="O557" s="5"/>
       <c r="P557" s="11" t="s">
@@ -27531,7 +27531,7 @@
       <c r="T557" s="6"/>
       <c r="U557" s="6"/>
       <c r="V557" s="37" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="558" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -27876,7 +27876,7 @@
       <c r="T567" s="6"/>
       <c r="U567" s="6"/>
       <c r="V567" s="37" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="568" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28039,7 +28039,7 @@
     </row>
     <row r="572" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A572" s="64" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D572" s="19"/>
       <c r="I572" s="39" t="s">
@@ -28163,7 +28163,7 @@
         <v>104</v>
       </c>
       <c r="N575" s="37" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="O575" s="5"/>
       <c r="P575" s="11" t="s">
@@ -28175,7 +28175,7 @@
       <c r="T575" s="6"/>
       <c r="U575" s="6"/>
       <c r="V575" s="37" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="576" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28311,11 +28311,11 @@
         <v>89</v>
       </c>
       <c r="T579" s="6" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="U579" s="6"/>
       <c r="V579" s="37" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="580" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28474,7 +28474,7 @@
         <v>113</v>
       </c>
       <c r="N584" s="37" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="O584" s="5"/>
       <c r="P584" s="11" t="s">
@@ -28486,7 +28486,7 @@
       <c r="T584" s="6"/>
       <c r="U584" s="6"/>
       <c r="V584" s="37" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="585" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28738,7 +28738,7 @@
       <c r="T591" s="6"/>
       <c r="U591" s="6"/>
       <c r="V591" s="37" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="592" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28981,7 +28981,7 @@
         <v>93</v>
       </c>
       <c r="V598" s="37" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="599" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -29156,7 +29156,7 @@
         <v>89</v>
       </c>
       <c r="T603" s="6" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="U603" s="6"/>
       <c r="V603" s="37"/>
@@ -29218,7 +29218,7 @@
         <v>134</v>
       </c>
       <c r="N605" s="37" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="O605" s="5"/>
       <c r="P605" s="11" t="s">
@@ -29267,7 +29267,7 @@
         <v>89</v>
       </c>
       <c r="T606" s="6" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="U606" s="6"/>
       <c r="V606" s="37"/>
@@ -29481,7 +29481,7 @@
         <v>93</v>
       </c>
       <c r="V612" s="37" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="613" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -29824,7 +29824,7 @@
         <v>151</v>
       </c>
       <c r="N622" s="49" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="O622" s="5" t="s">
         <v>1</v>
@@ -29902,7 +29902,7 @@
         <v>89</v>
       </c>
       <c r="T624" s="6" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="U624" s="6"/>
       <c r="V624" s="37"/>
@@ -30007,7 +30007,7 @@
       <c r="T627" s="6"/>
       <c r="U627" s="6"/>
       <c r="V627" s="37" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="628" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -30042,7 +30042,7 @@
         <v>89</v>
       </c>
       <c r="T628" s="6" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="U628" s="6"/>
       <c r="V628" s="37"/>
@@ -30151,7 +30151,7 @@
       </c>
       <c r="U631" s="6"/>
       <c r="V631" s="37" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="632" spans="1:22" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -30243,7 +30243,7 @@
         <v>163</v>
       </c>
       <c r="N634" s="49" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="O634" s="5" t="s">
         <v>1</v>
@@ -30377,7 +30377,7 @@
         <v>167</v>
       </c>
       <c r="N638" s="37" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="O638" s="5"/>
       <c r="P638" s="11" t="s">
@@ -30389,7 +30389,7 @@
       <c r="T638" s="6"/>
       <c r="U638" s="6"/>
       <c r="V638" s="37" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="639" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -30414,7 +30414,7 @@
         <v>168</v>
       </c>
       <c r="N639" s="55" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="O639" s="6" t="s">
         <v>0</v>
@@ -30461,7 +30461,7 @@
         <v>89</v>
       </c>
       <c r="T640" s="64" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="U640" s="6"/>
       <c r="V640" s="37"/>
@@ -30502,7 +30502,7 @@
       <c r="T641" s="6"/>
       <c r="U641" s="6"/>
       <c r="V641" s="37" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="642" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -30772,7 +30772,7 @@
         <v>89</v>
       </c>
       <c r="T649" s="6" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="U649" s="6"/>
       <c r="V649" s="37"/>
@@ -31141,7 +31141,7 @@
         <v>189</v>
       </c>
       <c r="N660" s="37" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="O660" s="5"/>
       <c r="P660" s="11" t="s">
@@ -31153,7 +31153,7 @@
       <c r="T660" s="6"/>
       <c r="U660" s="6"/>
       <c r="V660" s="37" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="661" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -31415,7 +31415,7 @@
         <v>197</v>
       </c>
       <c r="N668" s="37" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="O668" s="6" t="s">
         <v>0</v>
@@ -31429,7 +31429,7 @@
       <c r="T668" s="6"/>
       <c r="U668" s="6"/>
       <c r="V668" s="37" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="669" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31764,7 +31764,7 @@
         <v>175</v>
       </c>
       <c r="V678" s="37" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="679" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31950,7 +31950,7 @@
         <v>213</v>
       </c>
       <c r="N684" s="37" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="O684" s="6" t="s">
         <v>0</v>
@@ -31964,7 +31964,7 @@
       <c r="T684" s="6"/>
       <c r="U684" s="6"/>
       <c r="V684" s="37" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="685" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32052,7 +32052,7 @@
         <v>216</v>
       </c>
       <c r="N687" s="37" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="O687" s="5"/>
       <c r="P687" s="11" t="s">
@@ -32064,7 +32064,7 @@
       <c r="T687" s="6"/>
       <c r="U687" s="6"/>
       <c r="V687" s="37" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="688" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32572,7 +32572,7 @@
         <v>15</v>
       </c>
       <c r="N702" s="37" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="O702" s="5"/>
       <c r="P702" s="11" t="s">
@@ -32584,7 +32584,7 @@
       <c r="T702" s="6"/>
       <c r="U702" s="6"/>
       <c r="V702" s="37" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="703" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -32890,7 +32890,7 @@
         <v>25</v>
       </c>
       <c r="N712" s="37" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="O712" s="6"/>
       <c r="P712" s="11" t="s">
@@ -32902,7 +32902,7 @@
       <c r="T712" s="6"/>
       <c r="U712" s="6"/>
       <c r="V712" s="37" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="713" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -33310,7 +33310,7 @@
         <v>38</v>
       </c>
       <c r="N725" s="37" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="O725" s="5"/>
       <c r="P725" s="11" t="s">
@@ -33322,7 +33322,7 @@
       <c r="T725" s="6"/>
       <c r="U725" s="6"/>
       <c r="V725" s="37" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="726" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -33614,7 +33614,7 @@
       <c r="T734" s="6"/>
       <c r="U734" s="6"/>
       <c r="V734" s="37" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="735" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -33833,7 +33833,7 @@
         <v>54</v>
       </c>
       <c r="N741" s="37" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="O741" s="5"/>
       <c r="P741" s="11" t="s">
@@ -33845,7 +33845,7 @@
       <c r="T741" s="6"/>
       <c r="U741" s="6"/>
       <c r="V741" s="37" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="742" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34158,7 +34158,7 @@
         <v>64</v>
       </c>
       <c r="N751" s="37" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="O751" s="5"/>
       <c r="P751" s="11" t="s">
@@ -34170,7 +34170,7 @@
       <c r="T751" s="6"/>
       <c r="U751" s="6"/>
       <c r="V751" s="37" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="752" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34446,7 +34446,7 @@
         <v>73</v>
       </c>
       <c r="N760" s="37" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="O760" s="6" t="s">
         <v>0</v>
@@ -34460,7 +34460,7 @@
       <c r="T760" s="6"/>
       <c r="U760" s="6"/>
       <c r="V760" s="37" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="761" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35050,7 +35050,7 @@
         <v>91</v>
       </c>
       <c r="N778" s="49" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="O778" s="6" t="s">
         <v>0</v>
@@ -35097,7 +35097,7 @@
       <c r="T779" s="6"/>
       <c r="U779" s="6"/>
       <c r="V779" s="37" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="780" spans="6:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35451,7 +35451,7 @@
         <v>103</v>
       </c>
       <c r="N790" s="37" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="O790" s="5"/>
       <c r="P790" s="11" t="s">
@@ -35463,7 +35463,7 @@
       <c r="T790" s="6"/>
       <c r="U790" s="6"/>
       <c r="V790" s="37" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="791" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35903,7 +35903,7 @@
         <v>116</v>
       </c>
       <c r="N803" s="37" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="O803" s="6" t="s">
         <v>0</v>
@@ -35917,7 +35917,7 @@
       <c r="T803" s="6"/>
       <c r="U803" s="6"/>
       <c r="V803" s="37" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="804" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -36111,7 +36111,7 @@
         <v>122</v>
       </c>
       <c r="N809" s="37" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="O809" s="5"/>
       <c r="P809" s="11" t="s">
@@ -36123,7 +36123,7 @@
       <c r="T809" s="6"/>
       <c r="U809" s="6"/>
       <c r="V809" s="37" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="810" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -36373,7 +36373,7 @@
         <v>130</v>
       </c>
       <c r="N817" s="37" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="O817" s="6"/>
       <c r="P817" s="11" t="s">
@@ -36385,7 +36385,7 @@
       <c r="T817" s="6"/>
       <c r="U817" s="6"/>
       <c r="V817" s="37" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="818" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -36742,7 +36742,7 @@
         <v>141</v>
       </c>
       <c r="N828" s="37" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="O828" s="5" t="s">
         <v>18</v>
@@ -36977,7 +36977,7 @@
         <v>148</v>
       </c>
       <c r="N835" s="37" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="O835" s="5"/>
       <c r="P835" s="11" t="s">
@@ -36991,7 +36991,7 @@
         <v>172</v>
       </c>
       <c r="V835" s="37" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="836" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -37283,7 +37283,7 @@
       <c r="T844" s="6"/>
       <c r="U844" s="6"/>
       <c r="V844" s="37" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="845" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -37885,7 +37885,7 @@
       <c r="T863" s="6"/>
       <c r="U863" s="6"/>
       <c r="V863" s="49" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="864" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -37982,7 +37982,7 @@
       <c r="T866" s="6"/>
       <c r="U866" s="6"/>
       <c r="V866" s="37" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="867" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38164,7 +38164,7 @@
         <v>185</v>
       </c>
       <c r="N872" s="37" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="O872" s="5"/>
       <c r="P872" s="11" t="s">
@@ -38367,7 +38367,7 @@
         <v>191</v>
       </c>
       <c r="N878" s="37" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="O878" s="5"/>
       <c r="P878" s="11" t="s">
@@ -38379,7 +38379,7 @@
       <c r="T878" s="6"/>
       <c r="U878" s="6"/>
       <c r="V878" s="37" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="879" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38572,7 +38572,7 @@
     </row>
     <row r="885" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A885" s="6" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="I885" s="39" t="s">
         <v>40</v>
@@ -38605,7 +38605,7 @@
       <c r="T885" s="6"/>
       <c r="U885" s="6"/>
       <c r="V885" s="49" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="886" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38801,7 +38801,7 @@
       <c r="T891" s="6"/>
       <c r="U891" s="6"/>
       <c r="V891" s="37" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="892" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38824,7 +38824,7 @@
         <v>7</v>
       </c>
       <c r="N892" s="37" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="O892" s="6" t="s">
         <v>0</v>
@@ -38838,7 +38838,7 @@
       <c r="T892" s="6"/>
       <c r="U892" s="6"/>
       <c r="V892" s="37" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="893" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39287,7 +39287,7 @@
     </row>
     <row r="906" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="D906" s="52" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="H906" s="30"/>
       <c r="I906" s="39" t="s">
@@ -39309,7 +39309,7 @@
         <v>21</v>
       </c>
       <c r="N906" s="37" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="O906" s="5"/>
       <c r="P906" s="11" t="s">
@@ -39321,7 +39321,7 @@
       <c r="T906" s="6"/>
       <c r="U906" s="6"/>
       <c r="V906" s="49" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="907" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39525,7 +39525,7 @@
       <c r="T912" s="6"/>
       <c r="U912" s="6"/>
       <c r="V912" s="37" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="913" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39654,7 +39654,7 @@
       <c r="T916" s="6"/>
       <c r="U916" s="6"/>
       <c r="V916" s="37" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="917" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39858,7 +39858,7 @@
       <c r="T922" s="6"/>
       <c r="U922" s="6"/>
       <c r="V922" s="37" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="923" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40131,7 +40131,7 @@
         <v>46</v>
       </c>
       <c r="N931" s="67" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="O931" s="5"/>
       <c r="P931" s="11" t="s">
@@ -40145,7 +40145,7 @@
         <v>93</v>
       </c>
       <c r="V931" s="37" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="932" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40299,7 +40299,7 @@
         <v>51</v>
       </c>
       <c r="N936" s="60" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="O936" s="61"/>
       <c r="P936" s="62" t="s">
@@ -40311,7 +40311,7 @@
       <c r="T936" s="12"/>
       <c r="U936" s="12"/>
       <c r="V936" s="60" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="937" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40645,7 +40645,7 @@
       <c r="T946" s="6"/>
       <c r="U946" s="6"/>
       <c r="V946" s="37" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="947" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40968,7 +40968,7 @@
         <v>71</v>
       </c>
       <c r="N956" s="37" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="O956" s="6"/>
       <c r="P956" s="11" t="s">
@@ -40980,7 +40980,7 @@
       <c r="T956" s="6"/>
       <c r="U956" s="6"/>
       <c r="V956" s="37" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="957" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41269,7 +41269,7 @@
         <v>80</v>
       </c>
       <c r="N965" s="37" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="O965" s="5"/>
       <c r="P965" s="11" t="s">
@@ -41281,7 +41281,7 @@
       <c r="T965" s="6"/>
       <c r="U965" s="6"/>
       <c r="V965" s="37" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="966" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41492,7 +41492,7 @@
         <v>87</v>
       </c>
       <c r="N972" s="37" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="O972" s="5"/>
       <c r="P972" s="11" t="s">
@@ -41504,7 +41504,7 @@
       <c r="T972" s="6"/>
       <c r="U972" s="6"/>
       <c r="V972" s="37" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="973" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41748,7 +41748,7 @@
         <v>95</v>
       </c>
       <c r="N980" s="37" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="O980" s="5"/>
       <c r="P980" s="11" t="s">
@@ -42080,7 +42080,7 @@
         <v>105</v>
       </c>
       <c r="N990" s="37" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="O990" s="5"/>
       <c r="P990" s="11" t="s">
@@ -42092,7 +42092,7 @@
       <c r="T990" s="6"/>
       <c r="U990" s="6"/>
       <c r="V990" s="37" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="991" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42385,7 +42385,7 @@
       <c r="T999" s="6"/>
       <c r="U999" s="6"/>
       <c r="V999" s="37" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="1000" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42643,7 +42643,7 @@
         <v>122</v>
       </c>
       <c r="N1007" s="37" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="O1007" s="6" t="s">
         <v>0</v>
@@ -42657,7 +42657,7 @@
       <c r="T1007" s="6"/>
       <c r="U1007" s="6"/>
       <c r="V1007" s="37" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="1008" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43074,7 +43074,7 @@
         <v>135</v>
       </c>
       <c r="N1020" s="67" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="O1020" s="6" t="s">
         <v>0</v>
@@ -43088,7 +43088,7 @@
       <c r="T1020" s="6"/>
       <c r="U1020" s="6"/>
       <c r="V1020" s="37" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="1021" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43371,7 +43371,7 @@
         <v>144</v>
       </c>
       <c r="N1029" s="37" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="O1029" s="6" t="s">
         <v>0</v>
@@ -43385,7 +43385,7 @@
       <c r="T1029" s="6"/>
       <c r="U1029" s="6"/>
       <c r="V1029" s="37" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1030" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43769,7 +43769,7 @@
       <c r="T1041" s="6"/>
       <c r="U1041" s="6"/>
       <c r="V1041" s="37" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="1042" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44025,7 +44025,7 @@
         <v>164</v>
       </c>
       <c r="N1049" s="37" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="O1049" s="5"/>
       <c r="P1049" s="11" t="s">
@@ -44037,7 +44037,7 @@
       <c r="T1049" s="6"/>
       <c r="U1049" s="6"/>
       <c r="V1049" s="37" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="1050" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44410,7 +44410,7 @@
       <c r="T1060" s="6"/>
       <c r="U1060" s="6"/>
       <c r="V1060" s="49" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="1061" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44685,7 +44685,7 @@
         <v>184</v>
       </c>
       <c r="N1069" s="37" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="O1069" s="6" t="s">
         <v>0</v>
@@ -44699,7 +44699,7 @@
       <c r="T1069" s="6"/>
       <c r="U1069" s="6"/>
       <c r="V1069" s="37" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="1070" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44990,7 +44990,7 @@
       <c r="T1078" s="6"/>
       <c r="U1078" s="6"/>
       <c r="V1078" s="37" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1079" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -45246,7 +45246,7 @@
         <v>201</v>
       </c>
       <c r="N1086" s="37" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="O1086" s="6" t="s">
         <v>0</v>
@@ -45260,7 +45260,7 @@
       <c r="T1086" s="6"/>
       <c r="U1086" s="6"/>
       <c r="V1086" s="37" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="1087" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -45546,7 +45546,7 @@
         <v>210</v>
       </c>
       <c r="N1095" s="37" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="O1095" s="5"/>
       <c r="P1095" s="11" t="s">
@@ -45690,7 +45690,7 @@
         <v>116</v>
       </c>
       <c r="T1099" s="6" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="U1099" s="6"/>
       <c r="V1099" s="37"/>
@@ -45752,7 +45752,7 @@
         <v>216</v>
       </c>
       <c r="N1101" s="37" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="O1101" s="5"/>
       <c r="P1101" s="11" t="s">
@@ -45764,7 +45764,7 @@
       <c r="T1101" s="6"/>
       <c r="U1101" s="6"/>
       <c r="V1101" s="37" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="1102" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46011,7 +46011,7 @@
         <v>224</v>
       </c>
       <c r="N1109" s="37" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="O1109" s="5"/>
       <c r="P1109" s="11" t="s">
@@ -46023,7 +46023,7 @@
       <c r="T1109" s="6"/>
       <c r="U1109" s="6"/>
       <c r="V1109" s="37" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="1110" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46147,7 +46147,7 @@
         <v>228</v>
       </c>
       <c r="N1113" s="37" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="O1113" s="6" t="s">
         <v>0</v>
@@ -46161,7 +46161,7 @@
       <c r="T1113" s="6"/>
       <c r="U1113" s="6"/>
       <c r="V1113" s="37" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1114" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46246,7 +46246,7 @@
         <v>231</v>
       </c>
       <c r="N1116" s="37" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="O1116" s="5"/>
       <c r="P1116" s="11" t="s">
@@ -46260,7 +46260,7 @@
         <v>172</v>
       </c>
       <c r="V1116" s="37" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="1117" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46474,7 +46474,7 @@
         <v>238</v>
       </c>
       <c r="N1123" s="37" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="O1123" s="6"/>
       <c r="P1123" s="11" t="s">
@@ -46486,7 +46486,7 @@
       <c r="T1123" s="6"/>
       <c r="U1123" s="6"/>
       <c r="V1123" s="37" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="1124" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46571,7 +46571,7 @@
         <v>241</v>
       </c>
       <c r="N1126" s="37" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="O1126" s="6"/>
       <c r="P1126" s="11" t="s">
@@ -46583,7 +46583,7 @@
       <c r="T1126" s="6"/>
       <c r="U1126" s="6"/>
       <c r="V1126" s="37" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="1127" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46889,7 +46889,7 @@
         <v>251</v>
       </c>
       <c r="N1136" s="37" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="O1136" s="5"/>
       <c r="P1136" s="11" t="s">
@@ -46901,7 +46901,7 @@
       <c r="T1136" s="6"/>
       <c r="U1136" s="6"/>
       <c r="V1136" s="37" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="1137" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47299,7 +47299,7 @@
         <v>263</v>
       </c>
       <c r="N1148" s="37" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="O1148" s="6"/>
       <c r="P1148" s="11" t="s">
@@ -47311,7 +47311,7 @@
       <c r="T1148" s="6"/>
       <c r="U1148" s="6"/>
       <c r="V1148" s="37" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="1149" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47435,7 +47435,7 @@
         <v>267</v>
       </c>
       <c r="N1152" s="37" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="O1152" s="6" t="s">
         <v>0</v>
@@ -47449,7 +47449,7 @@
       <c r="T1152" s="6"/>
       <c r="U1152" s="6"/>
       <c r="V1152" s="37" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="1153" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47719,7 +47719,7 @@
         <v>275</v>
       </c>
       <c r="N1160" s="37" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="O1160" s="5"/>
       <c r="P1160" s="11" t="s">
@@ -47731,7 +47731,7 @@
       <c r="T1160" s="6"/>
       <c r="U1160" s="6"/>
       <c r="V1160" s="37" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1161" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47789,7 +47789,7 @@
         <v>277</v>
       </c>
       <c r="N1162" s="37" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="O1162" s="6" t="s">
         <v>0</v>
@@ -47803,7 +47803,7 @@
       <c r="T1162" s="6"/>
       <c r="U1162" s="6"/>
       <c r="V1162" s="37" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1163" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48155,7 +48155,7 @@
         <v>288</v>
       </c>
       <c r="N1173" s="37" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="O1173" s="6"/>
       <c r="P1173" s="11" t="s">
@@ -48167,7 +48167,7 @@
       <c r="T1173" s="6"/>
       <c r="U1173" s="6"/>
       <c r="V1173" s="37" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="1174" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48411,7 +48411,7 @@
         <v>296</v>
       </c>
       <c r="N1181" s="37" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="O1181" s="5"/>
       <c r="P1181" s="11" t="s">
@@ -48423,7 +48423,7 @@
       <c r="T1181" s="6"/>
       <c r="U1181" s="6"/>
       <c r="V1181" s="37" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1182" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48617,7 +48617,7 @@
       <c r="T1187" s="6"/>
       <c r="U1187" s="6"/>
       <c r="V1187" s="37" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="1188" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48782,7 +48782,7 @@
         <v>307</v>
       </c>
       <c r="N1192" s="37" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="O1192" s="6" t="s">
         <v>0</v>
@@ -48796,7 +48796,7 @@
       <c r="T1192" s="6"/>
       <c r="U1192" s="6"/>
       <c r="V1192" s="37" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1193" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49044,7 +49044,7 @@
         <v>315</v>
       </c>
       <c r="N1200" s="37" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="O1200" s="6" t="s">
         <v>0</v>
@@ -49058,7 +49058,7 @@
       <c r="T1200" s="6"/>
       <c r="U1200" s="6"/>
       <c r="V1200" s="37" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="1201" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49251,7 +49251,7 @@
     </row>
     <row r="1207" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1207" s="6" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="I1207" s="39" t="s">
         <v>46</v>
@@ -49272,7 +49272,7 @@
         <v>322</v>
       </c>
       <c r="N1207" s="37" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="O1207" s="6" t="s">
         <v>0</v>
@@ -49286,7 +49286,7 @@
       <c r="T1207" s="6"/>
       <c r="U1207" s="6"/>
       <c r="V1207" s="37" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="1208" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49478,7 +49478,7 @@
       <c r="T1213" s="6"/>
       <c r="U1213" s="6"/>
       <c r="V1213" s="37" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1214" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49699,7 +49699,7 @@
       <c r="T1220" s="6"/>
       <c r="U1220" s="6"/>
       <c r="V1220" s="37" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="1221" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49941,7 +49941,7 @@
         <v>21</v>
       </c>
       <c r="N1228" s="37" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="O1228" s="5"/>
       <c r="P1228" s="11" t="s">
@@ -49953,7 +49953,7 @@
       <c r="T1228" s="6"/>
       <c r="U1228" s="6"/>
       <c r="V1228" s="37" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1229" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50013,7 +50013,7 @@
         <v>23</v>
       </c>
       <c r="N1230" s="75" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="O1230" s="6" t="s">
         <v>0</v>
@@ -50177,7 +50177,7 @@
         <v>28</v>
       </c>
       <c r="N1235" s="37" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="O1235" s="5"/>
       <c r="P1235" s="11" t="s">
@@ -50189,7 +50189,7 @@
       <c r="T1235" s="6"/>
       <c r="U1235" s="6"/>
       <c r="V1235" s="37" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="1236" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50356,7 +50356,7 @@
       <c r="T1240" s="6"/>
       <c r="U1240" s="6"/>
       <c r="V1240" s="37" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="1241" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50507,7 +50507,7 @@
         <v>38</v>
       </c>
       <c r="N1245" s="37" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="O1245" s="5"/>
       <c r="P1245" s="11" t="s">
@@ -50519,7 +50519,7 @@
       <c r="T1245" s="6"/>
       <c r="U1245" s="6"/>
       <c r="V1245" s="37" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1246" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50761,7 +50761,7 @@
         <v>46</v>
       </c>
       <c r="N1253" s="37" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="O1253" s="5"/>
       <c r="P1253" s="11" t="s">
@@ -50773,7 +50773,7 @@
       <c r="T1253" s="6"/>
       <c r="U1253" s="6"/>
       <c r="V1253" s="37" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="1254" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50935,7 +50935,7 @@
         <v>51</v>
       </c>
       <c r="N1258" s="37" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="O1258" s="6"/>
       <c r="P1258" s="11" t="s">
@@ -50947,7 +50947,7 @@
       <c r="T1258" s="6"/>
       <c r="U1258" s="6"/>
       <c r="V1258" s="37" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="1259" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51162,7 +51162,7 @@
         <v>58</v>
       </c>
       <c r="N1265" s="37" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="O1265" s="5"/>
       <c r="P1265" s="11" t="s">
@@ -51174,7 +51174,7 @@
       <c r="T1265" s="6"/>
       <c r="U1265" s="6"/>
       <c r="V1265" s="37" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="1266" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51407,7 +51407,7 @@
         <v>65</v>
       </c>
       <c r="N1272" s="37" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="O1272" s="5"/>
       <c r="P1272" s="11" t="s">
@@ -51419,7 +51419,7 @@
       <c r="T1272" s="6"/>
       <c r="U1272" s="6"/>
       <c r="V1272" s="37" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1273" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51628,7 +51628,7 @@
         <v>72</v>
       </c>
       <c r="N1279" s="37" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="O1279" s="6" t="s">
         <v>0</v>
@@ -51642,7 +51642,7 @@
       <c r="T1279" s="6"/>
       <c r="U1279" s="6"/>
       <c r="V1279" s="37" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="1280" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51824,7 +51824,7 @@
         <v>78</v>
       </c>
       <c r="N1285" s="37" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="O1285" s="5"/>
       <c r="P1285" s="11" t="s">
@@ -51836,7 +51836,7 @@
       <c r="T1285" s="6"/>
       <c r="U1285" s="6"/>
       <c r="V1285" s="37" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="1286" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52034,7 +52034,7 @@
       <c r="T1291" s="6"/>
       <c r="U1291" s="6"/>
       <c r="V1291" s="37" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1292" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52216,7 +52216,7 @@
         <v>90</v>
       </c>
       <c r="N1297" s="75" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="O1297" s="6" t="s">
         <v>0</v>
@@ -52232,7 +52232,7 @@
         <v>93</v>
       </c>
       <c r="V1297" s="37" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="1298" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52478,7 +52478,7 @@
         <v>98</v>
       </c>
       <c r="N1305" s="37" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="O1305" s="6" t="s">
         <v>0</v>
@@ -52492,7 +52492,7 @@
       <c r="T1305" s="6"/>
       <c r="U1305" s="6"/>
       <c r="V1305" s="37" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1306" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52687,10 +52687,10 @@
       <c r="Q1311" s="6"/>
       <c r="R1311" s="6"/>
       <c r="S1311" s="6" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="T1311" s="64" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="U1311" s="6"/>
       <c r="V1311" s="37"/>
@@ -52716,7 +52716,7 @@
         <v>105</v>
       </c>
       <c r="N1312" s="37" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="O1312" s="5"/>
       <c r="P1312" s="11" t="s">
@@ -52728,7 +52728,7 @@
       <c r="T1312" s="6"/>
       <c r="U1312" s="6"/>
       <c r="V1312" s="37" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1313" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53015,7 +53015,7 @@
       <c r="T1320" s="6"/>
       <c r="U1320" s="6"/>
       <c r="V1320" s="37" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="1321" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53307,7 +53307,7 @@
         <v>122</v>
       </c>
       <c r="N1329" s="37" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="O1329" s="5"/>
       <c r="P1329" s="11" t="s">
@@ -53319,7 +53319,7 @@
       <c r="T1329" s="6"/>
       <c r="U1329" s="6"/>
       <c r="V1329" s="37" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="1330" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53543,7 +53543,7 @@
         <v>129</v>
       </c>
       <c r="N1336" s="37" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="O1336" s="5"/>
       <c r="P1336" s="11" t="s">
@@ -53555,7 +53555,7 @@
       <c r="T1336" s="6"/>
       <c r="U1336" s="6"/>
       <c r="V1336" s="37" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1337" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53707,7 +53707,7 @@
         <v>134</v>
       </c>
       <c r="N1341" s="37" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="O1341" s="5"/>
       <c r="P1341" s="11" t="s">
@@ -53719,7 +53719,7 @@
       <c r="T1341" s="6"/>
       <c r="U1341" s="6"/>
       <c r="V1341" s="37" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1342" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53941,7 +53941,7 @@
         <v>141</v>
       </c>
       <c r="N1348" s="37" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="O1348" s="5"/>
       <c r="P1348" s="11" t="s">
@@ -53953,7 +53953,7 @@
       <c r="T1348" s="6"/>
       <c r="U1348" s="6"/>
       <c r="V1348" s="37" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1349" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54215,7 +54215,7 @@
       <c r="T1356" s="6"/>
       <c r="U1356" s="6"/>
       <c r="V1356" s="37" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="1357" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54447,7 +54447,7 @@
         <v>156</v>
       </c>
       <c r="N1363" s="67" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="O1363" s="6" t="s">
         <v>0</v>
@@ -54461,7 +54461,7 @@
       <c r="T1363" s="6"/>
       <c r="U1363" s="6"/>
       <c r="V1363" s="37" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1364" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54731,7 +54731,7 @@
       <c r="T1371" s="6"/>
       <c r="U1371" s="6"/>
       <c r="V1371" s="37" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1372" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54920,7 +54920,7 @@
         <v>170</v>
       </c>
       <c r="N1377" s="37" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="O1377" s="5"/>
       <c r="P1377" s="11" t="s">
@@ -55120,7 +55120,7 @@
         <v>176</v>
       </c>
       <c r="N1383" s="37" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="O1383" s="6" t="s">
         <v>0</v>
@@ -55134,7 +55134,7 @@
       <c r="T1383" s="6"/>
       <c r="U1383" s="6"/>
       <c r="V1383" s="37" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1384" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55263,7 +55263,7 @@
         <v>180</v>
       </c>
       <c r="N1387" s="37" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="O1387" s="6" t="s">
         <v>0</v>
@@ -55277,7 +55277,7 @@
       <c r="T1387" s="6"/>
       <c r="U1387" s="6"/>
       <c r="V1387" s="37" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="1388" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55465,7 +55465,7 @@
         <v>186</v>
       </c>
       <c r="N1393" s="67" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="O1393" s="6" t="s">
         <v>0</v>
@@ -55481,7 +55481,7 @@
         <v>93</v>
       </c>
       <c r="V1393" s="37" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="1394" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55729,7 +55729,7 @@
         <v>194</v>
       </c>
       <c r="N1401" s="37" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="O1401" s="5"/>
       <c r="P1401" s="11" t="s">
@@ -55741,7 +55741,7 @@
       <c r="T1401" s="6"/>
       <c r="U1401" s="6"/>
       <c r="V1401" s="37" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="1402" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55909,7 +55909,7 @@
         <v>199</v>
       </c>
       <c r="N1406" s="67" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="O1406" s="5"/>
       <c r="P1406" s="11" t="s">
@@ -55923,7 +55923,7 @@
         <v>93</v>
       </c>
       <c r="V1406" s="37" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="1407" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56130,7 +56130,7 @@
       <c r="T1412" s="6"/>
       <c r="U1412" s="6"/>
       <c r="V1412" s="37" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1413" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56388,7 +56388,7 @@
         <v>213</v>
       </c>
       <c r="N1420" s="37" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="O1420" s="6"/>
       <c r="P1420" s="11" t="s">
@@ -56400,7 +56400,7 @@
       <c r="T1420" s="6"/>
       <c r="U1420" s="6"/>
       <c r="V1420" s="37" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="1421" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56582,7 +56582,7 @@
       <c r="T1425" s="6"/>
       <c r="U1425" s="6"/>
       <c r="V1425" s="37" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="1426" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56670,7 +56670,7 @@
         <v>221</v>
       </c>
       <c r="N1428" s="37" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="O1428" s="5"/>
       <c r="P1428" s="6"/>
@@ -56798,7 +56798,7 @@
         <v>225</v>
       </c>
       <c r="N1432" s="37" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="O1432" s="5"/>
       <c r="P1432" s="11" t="s">
@@ -56810,7 +56810,7 @@
       <c r="T1432" s="6"/>
       <c r="U1432" s="6"/>
       <c r="V1432" s="37" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1433" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57062,7 +57062,7 @@
         <v>233</v>
       </c>
       <c r="N1440" s="37" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="O1440" s="6" t="s">
         <v>0</v>
@@ -57076,7 +57076,7 @@
       <c r="T1440" s="6"/>
       <c r="U1440" s="6"/>
       <c r="V1440" s="37" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="1441" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57330,7 +57330,7 @@
         <v>241</v>
       </c>
       <c r="N1448" s="37" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="O1448" s="5"/>
       <c r="P1448" s="11" t="s">
@@ -57342,7 +57342,7 @@
       <c r="T1448" s="6"/>
       <c r="U1448" s="6"/>
       <c r="V1448" s="37" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="1449" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57622,7 +57622,7 @@
         <v>250</v>
       </c>
       <c r="N1457" s="37" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="O1457" s="5"/>
       <c r="P1457" s="11" t="s">
@@ -57634,7 +57634,7 @@
       <c r="T1457" s="6"/>
       <c r="U1457" s="6"/>
       <c r="V1457" s="37" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="1458" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57836,7 +57836,7 @@
         <v>256</v>
       </c>
       <c r="N1463" s="37" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="O1463" s="6" t="s">
         <v>0</v>
@@ -57850,7 +57850,7 @@
       <c r="T1463" s="6"/>
       <c r="U1463" s="6"/>
       <c r="V1463" s="37" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="1464" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58036,7 +58036,7 @@
         <v>262</v>
       </c>
       <c r="N1469" s="37" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="O1469" s="5"/>
       <c r="P1469" s="11" t="s">
@@ -58048,7 +58048,7 @@
       <c r="T1469" s="6"/>
       <c r="U1469" s="6"/>
       <c r="V1469" s="37" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="1470" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58213,7 +58213,7 @@
     </row>
     <row r="1475" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1475" s="6" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="C1475" s="35"/>
       <c r="H1475" s="30"/>
@@ -58236,7 +58236,7 @@
         <v>268</v>
       </c>
       <c r="N1475" s="37" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="O1475" s="5"/>
       <c r="P1475" s="11" t="s">
@@ -58248,7 +58248,7 @@
       <c r="T1475" s="6"/>
       <c r="U1475" s="6"/>
       <c r="V1475" s="37" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="1476" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58612,7 +58612,7 @@
       <c r="T1486" s="6"/>
       <c r="U1486" s="6"/>
       <c r="V1486" s="37" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="1487" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58926,7 +58926,7 @@
         <v>21</v>
       </c>
       <c r="N1496" s="37" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="O1496" s="5"/>
       <c r="P1496" s="11" t="s">
@@ -58938,7 +58938,7 @@
       <c r="T1496" s="6"/>
       <c r="U1496" s="6"/>
       <c r="V1496" s="37" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="1497" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58962,7 +58962,7 @@
         <v>22</v>
       </c>
       <c r="N1497" s="49" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="O1497" s="6" t="s">
         <v>0</v>
@@ -59105,7 +59105,7 @@
       <c r="T1501" s="6"/>
       <c r="U1501" s="6"/>
       <c r="V1501" s="37" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="1502" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59295,7 +59295,7 @@
         <v>32</v>
       </c>
       <c r="N1507" s="37" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="O1507" s="5"/>
       <c r="P1507" s="11" t="s">
@@ -59307,7 +59307,7 @@
       <c r="T1507" s="6"/>
       <c r="U1507" s="6"/>
       <c r="V1507" s="37" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="1508" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59623,7 +59623,7 @@
         <v>42</v>
       </c>
       <c r="N1517" s="37" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="O1517" s="6"/>
       <c r="P1517" s="11" t="s">
@@ -59635,7 +59635,7 @@
       <c r="T1517" s="6"/>
       <c r="U1517" s="6"/>
       <c r="V1517" s="37" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="1518" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59723,7 +59723,7 @@
         <v>45</v>
       </c>
       <c r="N1520" s="37" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="O1520" s="5"/>
       <c r="P1520" s="11" t="s">
@@ -59735,7 +59735,7 @@
       <c r="T1520" s="6"/>
       <c r="U1520" s="6"/>
       <c r="V1520" s="37" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="1521" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60068,7 +60068,7 @@
         <v>55</v>
       </c>
       <c r="N1530" s="37" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="O1530" s="6"/>
       <c r="P1530" s="11" t="s">
@@ -60080,7 +60080,7 @@
       <c r="T1530" s="6"/>
       <c r="U1530" s="6"/>
       <c r="V1530" s="37" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="1531" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60408,7 +60408,7 @@
         <v>65</v>
       </c>
       <c r="N1540" s="37" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="O1540" s="5"/>
       <c r="P1540" s="11" t="s">
@@ -60420,7 +60420,7 @@
       <c r="T1540" s="6"/>
       <c r="U1540" s="6"/>
       <c r="V1540" s="37" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="1541" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60662,7 +60662,7 @@
         <v>73</v>
       </c>
       <c r="N1548" s="67" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="O1548" s="6" t="s">
         <v>17</v>
@@ -60676,7 +60676,7 @@
       <c r="T1548" s="6"/>
       <c r="U1548" s="6"/>
       <c r="V1548" s="37" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="1549" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60889,7 +60889,7 @@
         <v>80</v>
       </c>
       <c r="N1555" s="37" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="O1555" s="5"/>
       <c r="P1555" s="11" t="s">
@@ -60901,7 +60901,7 @@
       <c r="T1555" s="6"/>
       <c r="U1555" s="6"/>
       <c r="V1555" s="37" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="1556" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61122,7 +61122,7 @@
         <v>87</v>
       </c>
       <c r="N1562" s="37" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="O1562" s="5"/>
       <c r="P1562" s="11" t="s">
@@ -61136,7 +61136,7 @@
         <v>172</v>
       </c>
       <c r="V1562" s="37" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="1563" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61391,7 +61391,7 @@
       <c r="T1570" s="6"/>
       <c r="U1570" s="6"/>
       <c r="V1570" s="37" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="1571" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61611,7 +61611,7 @@
         <v>102</v>
       </c>
       <c r="N1577" s="37" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="O1577" s="5"/>
       <c r="P1577" s="11" t="s">
@@ -61623,7 +61623,7 @@
       <c r="T1577" s="6"/>
       <c r="U1577" s="6"/>
       <c r="V1577" s="37" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="1578" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61658,7 +61658,7 @@
       <c r="T1578" s="6"/>
       <c r="U1578" s="6"/>
       <c r="V1578" s="49" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="1579" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61836,7 +61836,7 @@
         <v>19</v>
       </c>
       <c r="V1584" s="37" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="1585" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62015,7 +62015,7 @@
         <v>19</v>
       </c>
       <c r="V1590" s="37" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="1591" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62086,7 +62086,7 @@
         <v>118</v>
       </c>
       <c r="N1593" s="37" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="O1593" s="6" t="s">
         <v>0</v>
@@ -62435,7 +62435,7 @@
         <v>19</v>
       </c>
       <c r="V1606" s="37" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1607" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62618,7 +62618,7 @@
         <v>19</v>
       </c>
       <c r="V1613" s="37" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="1614" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62771,7 +62771,7 @@
         <v>144</v>
       </c>
       <c r="N1619" s="37" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="P1619" s="11" t="s">
         <v>19</v>
@@ -62954,7 +62954,7 @@
         <v>19</v>
       </c>
       <c r="V1626" s="37" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="1627" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63203,13 +63203,13 @@
         <v>161</v>
       </c>
       <c r="N1636" s="37" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="P1636" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V1636" s="37" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1637" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63406,7 +63406,7 @@
         <v>169</v>
       </c>
       <c r="N1644" s="37" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="P1644" s="11" t="s">
         <v>19</v>
@@ -63486,7 +63486,7 @@
         <v>172</v>
       </c>
       <c r="N1647" s="37" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="O1647" s="6" t="s">
         <v>0</v>
@@ -63495,7 +63495,7 @@
         <v>19</v>
       </c>
       <c r="V1647" s="37" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="1648" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63767,7 +63767,7 @@
         <v>182</v>
       </c>
       <c r="N1657" s="67" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="O1657" s="6" t="s">
         <v>0</v>
@@ -63779,7 +63779,7 @@
         <v>93</v>
       </c>
       <c r="V1657" s="37" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="1658" spans="6:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63960,7 +63960,7 @@
         <v>189</v>
       </c>
       <c r="N1664" s="37" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="P1664" s="11" t="s">
         <v>19</v>
@@ -64308,7 +64308,7 @@
         <v>19</v>
       </c>
       <c r="V1676" s="37" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="1677" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64573,13 +64573,13 @@
         <v>22</v>
       </c>
       <c r="N1686" s="37" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="P1686" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V1686" s="37" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1687" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64802,13 +64802,13 @@
         <v>31</v>
       </c>
       <c r="N1695" s="37" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="P1695" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V1695" s="37" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="1696" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64909,7 +64909,7 @@
         <v>18</v>
       </c>
       <c r="V1699" s="49" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="1700" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65033,7 +65033,7 @@
         <v>40</v>
       </c>
       <c r="N1704" s="37" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="P1704" s="11" t="s">
         <v>19</v>
@@ -65042,7 +65042,7 @@
         <v>172</v>
       </c>
       <c r="V1704" s="37" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="1705" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65236,13 +65236,13 @@
         <v>48</v>
       </c>
       <c r="N1712" s="37" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="P1712" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V1712" s="37" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="1713" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65459,13 +65459,13 @@
         <v>57</v>
       </c>
       <c r="N1721" s="37" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="P1721" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V1721" s="37" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="1722" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65700,7 +65700,7 @@
         <v>66</v>
       </c>
       <c r="N1730" s="37" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="P1730" s="11" t="s">
         <v>19</v>
@@ -65712,7 +65712,7 @@
         <v>152</v>
       </c>
       <c r="V1730" s="37" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="1731" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66009,7 +66009,7 @@
         <v>77</v>
       </c>
       <c r="N1741" s="37" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="P1741" s="11" t="s">
         <v>19</v>
@@ -66021,7 +66021,7 @@
         <v>153</v>
       </c>
       <c r="V1741" s="37" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1742" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66205,7 +66205,7 @@
         <v>89</v>
       </c>
       <c r="T1748" s="1" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="V1748" s="37"/>
     </row>
@@ -66259,13 +66259,13 @@
         <v>86</v>
       </c>
       <c r="N1750" s="37" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="P1750" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V1750" s="37" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="1751" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66504,13 +66504,13 @@
         <v>96</v>
       </c>
       <c r="N1760" s="37" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="P1760" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V1760" s="37" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="1761" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66721,7 +66721,7 @@
     </row>
     <row r="1769" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1769" s="6" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="H1769" s="44" t="s">
         <v>154</v>
@@ -66829,13 +66829,13 @@
         <v>108</v>
       </c>
       <c r="N1772" s="37" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="P1772" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V1772" s="37" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="1773" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67061,13 +67061,13 @@
         <v>117</v>
       </c>
       <c r="N1781" s="37" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="P1781" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V1781" s="37" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="1782" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67270,7 +67270,7 @@
         <v>19</v>
       </c>
       <c r="V1789" s="37" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1790" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67446,7 +67446,7 @@
         <v>19</v>
       </c>
       <c r="V1796" s="37" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="1797" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67661,13 +67661,13 @@
         <v>140</v>
       </c>
       <c r="N1804" s="37" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="P1804" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V1804" s="37" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="1805" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67848,7 +67848,7 @@
         <v>19</v>
       </c>
       <c r="V1811" s="37" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="1812" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68035,7 +68035,7 @@
         <v>19</v>
       </c>
       <c r="V1818" s="37" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1819" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68184,7 +68184,7 @@
     </row>
     <row r="1825" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1825" s="6" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="I1825" s="39" t="s">
         <v>58</v>
@@ -68211,7 +68211,7 @@
         <v>19</v>
       </c>
       <c r="V1825" s="37" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="1826" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68357,7 +68357,7 @@
         <v>6</v>
       </c>
       <c r="N1831" s="37" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="O1831" s="6" t="s">
         <v>0</v>
@@ -68366,7 +68366,7 @@
         <v>19</v>
       </c>
       <c r="V1831" s="37" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="1832" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68619,7 +68619,7 @@
         <v>19</v>
       </c>
       <c r="V1841" s="37" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="1842" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69354,7 +69354,7 @@
         <v>0</v>
       </c>
       <c r="V1871" s="49" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="1872" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69818,7 +69818,7 @@
         <v>19</v>
       </c>
       <c r="V1889" s="37" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1890" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69937,7 +69937,7 @@
         <v>19</v>
       </c>
       <c r="V1893" s="37" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="1894" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70137,7 +70137,7 @@
         <v>19</v>
       </c>
       <c r="V1901" s="37" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="1902" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70261,7 +70261,7 @@
         <v>81</v>
       </c>
       <c r="N1906" s="37" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="O1906" s="6" t="s">
         <v>0</v>
@@ -70270,7 +70270,7 @@
         <v>19</v>
       </c>
       <c r="V1906" s="37" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="1907" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70443,7 +70443,7 @@
         <v>19</v>
       </c>
       <c r="V1913" s="37" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="1914" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70727,13 +70727,13 @@
         <v>99</v>
       </c>
       <c r="N1924" s="37" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="P1924" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V1924" s="37" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="1925" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70856,13 +70856,13 @@
         <v>104</v>
       </c>
       <c r="N1929" s="37" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="P1929" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V1929" s="37" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="1930" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71010,13 +71010,13 @@
         <v>110</v>
       </c>
       <c r="N1935" s="37" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="P1935" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V1935" s="37" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="1936" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71117,7 +71117,7 @@
         <v>19</v>
       </c>
       <c r="V1939" s="37" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1940" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71289,13 +71289,13 @@
         <v>121</v>
       </c>
       <c r="N1946" s="37" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="P1946" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V1946" s="37" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="1947" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71423,7 +71423,7 @@
         <v>19</v>
       </c>
       <c r="V1951" s="37" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="1952" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71591,7 +71591,7 @@
         <v>19</v>
       </c>
       <c r="V1957" s="37" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="1958" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71692,7 +71692,7 @@
         <v>19</v>
       </c>
       <c r="V1961" s="37" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="1962" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71883,13 +71883,13 @@
         <v>144</v>
       </c>
       <c r="N1969" s="37" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="P1969" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V1969" s="37" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="1970" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71960,7 +71960,7 @@
         <v>147</v>
       </c>
       <c r="N1972" s="37" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="O1972" s="6" t="s">
         <v>0</v>
@@ -71969,7 +71969,7 @@
         <v>19</v>
       </c>
       <c r="V1972" s="37" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="1973" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72135,13 +72135,13 @@
         <v>154</v>
       </c>
       <c r="N1979" s="37" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="P1979" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V1979" s="37" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="1980" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72236,7 +72236,7 @@
         <v>158</v>
       </c>
       <c r="N1983" s="37" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="O1983" s="6" t="s">
         <v>0</v>
@@ -72245,7 +72245,7 @@
         <v>19</v>
       </c>
       <c r="V1983" s="37" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="1984" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72364,13 +72364,13 @@
         <v>163</v>
       </c>
       <c r="N1988" s="37" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="P1988" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V1988" s="37" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="1989" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72492,13 +72492,13 @@
         <v>168</v>
       </c>
       <c r="N1993" s="37" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="P1993" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V1993" s="37" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="1994" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72726,7 +72726,7 @@
         <v>177</v>
       </c>
       <c r="N2002" s="37" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="O2002" s="6" t="s">
         <v>0</v>
@@ -72735,7 +72735,7 @@
         <v>19</v>
       </c>
       <c r="V2002" s="37" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="2003" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72782,7 +72782,7 @@
         <v>179</v>
       </c>
       <c r="N2004" s="49" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="V2004" s="37"/>
     </row>
@@ -72860,7 +72860,7 @@
         <v>89</v>
       </c>
       <c r="T2007" s="1" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="V2007" s="37"/>
     </row>
@@ -72890,7 +72890,7 @@
         <v>19</v>
       </c>
       <c r="V2008" s="37" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="2009" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73111,7 +73111,7 @@
         <v>19</v>
       </c>
       <c r="V2017" s="37" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="2018" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73187,7 +73187,7 @@
         <v>195</v>
       </c>
       <c r="N2020" s="37" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="V2020" s="37"/>
     </row>
@@ -73283,13 +73283,13 @@
         <v>199</v>
       </c>
       <c r="N2024" s="37" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="P2024" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2024" s="37" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="2025" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73524,7 +73524,7 @@
         <v>19</v>
       </c>
       <c r="V2033" s="37" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="2034" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73733,13 +73733,13 @@
         <v>216</v>
       </c>
       <c r="N2041" s="37" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="P2041" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2041" s="37" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="2042" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73810,13 +73810,13 @@
         <v>219</v>
       </c>
       <c r="N2044" s="37" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="P2044" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2044" s="37" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="2045" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74027,7 +74027,7 @@
         <v>19</v>
       </c>
       <c r="V2051" s="37" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="2052" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74050,7 +74050,7 @@
         <v>227</v>
       </c>
       <c r="N2052" s="49" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="O2052" s="5" t="s">
         <v>1</v>
@@ -74125,13 +74125,13 @@
         <v>230</v>
       </c>
       <c r="N2055" s="37" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="P2055" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2055" s="37" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="2056" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74331,7 +74331,7 @@
     </row>
     <row r="2064" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2064" s="68" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="B2064" s="69"/>
       <c r="C2064" s="70"/>
@@ -74429,13 +74429,13 @@
         <v>242</v>
       </c>
       <c r="N2067" s="37" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="P2067" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2067" s="37" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="2068" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74660,13 +74660,13 @@
         <v>251</v>
       </c>
       <c r="N2076" s="37" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="P2076" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2076" s="37" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="2077" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74863,7 +74863,7 @@
         <v>19</v>
       </c>
       <c r="V2084" s="37" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="2085" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75006,13 +75006,13 @@
         <v>265</v>
       </c>
       <c r="N2090" s="37" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="P2090" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2090" s="37" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="2091" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75272,13 +75272,13 @@
         <v>275</v>
       </c>
       <c r="N2100" s="37" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="P2100" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2100" s="37" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="2101" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75379,13 +75379,13 @@
         <v>279</v>
       </c>
       <c r="N2104" s="37" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="P2104" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2104" s="37" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="2105" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75483,13 +75483,13 @@
         <v>283</v>
       </c>
       <c r="N2108" s="37" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="P2108" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2108" s="37" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="2109" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75584,13 +75584,13 @@
         <v>287</v>
       </c>
       <c r="N2112" s="37" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="P2112" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2112" s="37" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="2113" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75806,13 +75806,13 @@
         <v>295</v>
       </c>
       <c r="N2120" s="37" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="P2120" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2120" s="37" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="2121" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76032,7 +76032,7 @@
         <v>304</v>
       </c>
       <c r="N2129" s="37" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="P2129" s="11" t="s">
         <v>19</v>
@@ -76213,7 +76213,7 @@
         <v>7</v>
       </c>
       <c r="N2136" s="37" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="O2136" s="6" t="s">
         <v>0</v>
@@ -76222,7 +76222,7 @@
         <v>19</v>
       </c>
       <c r="V2136" s="37" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="2137" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76472,13 +76472,13 @@
         <v>16</v>
       </c>
       <c r="N2145" s="37" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="P2145" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2145" s="37" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="2146" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76706,13 +76706,13 @@
         <v>25</v>
       </c>
       <c r="N2154" s="37" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="P2154" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2154" s="37" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="2155" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76933,7 +76933,7 @@
         <v>34</v>
       </c>
       <c r="N2163" s="49" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="O2163" s="5" t="s">
         <v>1</v>
@@ -76972,7 +76972,7 @@
         <v>149</v>
       </c>
       <c r="V2164" s="37" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="2165" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77169,7 +77169,7 @@
         <v>19</v>
       </c>
       <c r="V2172" s="37" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="2173" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77406,7 +77406,7 @@
         <v>52</v>
       </c>
       <c r="N2181" s="37" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="O2181" s="6" t="s">
         <v>0</v>
@@ -77415,7 +77415,7 @@
         <v>19</v>
       </c>
       <c r="V2181" s="37" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="2182" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77611,13 +77611,13 @@
         <v>60</v>
       </c>
       <c r="N2189" s="37" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="P2189" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2189" s="37" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="2190" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77838,7 +77838,7 @@
         <v>69</v>
       </c>
       <c r="N2198" s="49" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="O2198" s="5" t="s">
         <v>1</v>
@@ -77877,7 +77877,7 @@
         <v>149</v>
       </c>
       <c r="V2199" s="37" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="2200" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78076,7 +78076,7 @@
         <v>78</v>
       </c>
       <c r="N2207" s="37" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="O2207" s="6" t="s">
         <v>0</v>
@@ -78085,7 +78085,7 @@
         <v>19</v>
       </c>
       <c r="V2207" s="37" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="2208" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78310,7 +78310,7 @@
         <v>87</v>
       </c>
       <c r="N2216" s="37" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="O2216" s="6" t="s">
         <v>0</v>
@@ -78319,7 +78319,7 @@
         <v>19</v>
       </c>
       <c r="V2216" s="37" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="2217" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78502,7 +78502,7 @@
         <v>19</v>
       </c>
       <c r="V2223" s="37" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="2224" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78716,7 +78716,7 @@
         <v>103</v>
       </c>
       <c r="N2232" s="37" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="O2232" s="6" t="s">
         <v>0</v>
@@ -78725,7 +78725,7 @@
         <v>19</v>
       </c>
       <c r="V2232" s="37" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="2233" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78946,7 +78946,7 @@
         <v>112</v>
       </c>
       <c r="N2241" s="49" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="O2241" s="5" t="s">
         <v>1</v>
@@ -78985,7 +78985,7 @@
         <v>149</v>
       </c>
       <c r="V2242" s="37" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="2243" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79176,13 +79176,13 @@
         <v>121</v>
       </c>
       <c r="N2250" s="37" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="P2250" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2250" s="37" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="2251" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79397,7 +79397,7 @@
         <v>130</v>
       </c>
       <c r="N2259" s="37" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="O2259" s="6" t="s">
         <v>0</v>
@@ -79406,7 +79406,7 @@
         <v>19</v>
       </c>
       <c r="V2259" s="37" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="2260" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79602,7 +79602,7 @@
         <v>138</v>
       </c>
       <c r="N2267" s="37" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="O2267" s="6" t="s">
         <v>0</v>
@@ -79611,7 +79611,7 @@
         <v>19</v>
       </c>
       <c r="V2267" s="37" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="2268" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79831,7 +79831,7 @@
         <v>147</v>
       </c>
       <c r="N2276" s="37" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="O2276" s="6" t="s">
         <v>0</v>
@@ -79840,7 +79840,7 @@
         <v>19</v>
       </c>
       <c r="V2276" s="37" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="2277" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80060,7 +80060,7 @@
         <v>156</v>
       </c>
       <c r="N2285" s="49" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="O2285" s="5" t="s">
         <v>1</v>
@@ -80099,7 +80099,7 @@
         <v>149</v>
       </c>
       <c r="V2286" s="37" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="2287" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80395,7 +80395,7 @@
         <v>89</v>
       </c>
       <c r="T2297" s="1" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="V2297" s="37"/>
     </row>
@@ -80428,7 +80428,7 @@
         <v>19</v>
       </c>
       <c r="V2298" s="37" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="2299" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80688,13 +80688,13 @@
         <v>179</v>
       </c>
       <c r="N2308" s="37" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="P2308" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2308" s="37" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="2309" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81211,7 +81211,7 @@
         <v>19</v>
       </c>
       <c r="V2328" s="37" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="2329" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81432,7 +81432,7 @@
         <v>208</v>
       </c>
       <c r="N2337" s="49" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="O2337" s="5" t="s">
         <v>1</v>
@@ -81441,7 +81441,7 @@
     </row>
     <row r="2338" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2338" s="6" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="I2338" s="39" t="s">
         <v>68</v>
@@ -81474,7 +81474,7 @@
         <v>149</v>
       </c>
       <c r="V2338" s="37" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="2339" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81623,13 +81623,13 @@
         <v>6</v>
       </c>
       <c r="N2344" s="37" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="P2344" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2344" s="37" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="2345" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81751,13 +81751,13 @@
         <v>11</v>
       </c>
       <c r="N2349" s="37" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="P2349" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2349" s="37" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="2350" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82009,8 +82009,8 @@
       <c r="O2358" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="V2358" s="37" t="s">
-        <v>1604</v>
+      <c r="V2358" s="49" t="s">
+        <v>2089</v>
       </c>
     </row>
     <row r="2359" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82033,13 +82033,13 @@
         <v>21</v>
       </c>
       <c r="N2359" s="37" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="P2359" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2359" s="37" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="2360" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82140,7 +82140,7 @@
         <v>0</v>
       </c>
       <c r="V2363" s="37" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="2364" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82187,7 +82187,7 @@
         <v>27</v>
       </c>
       <c r="N2365" s="37" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="O2365" s="6" t="s">
         <v>0</v>
@@ -82196,7 +82196,7 @@
         <v>19</v>
       </c>
       <c r="V2365" s="37" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="2366" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82252,7 +82252,7 @@
         <v>0</v>
       </c>
       <c r="V2367" s="37" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="2368" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82433,7 +82433,7 @@
         <v>19</v>
       </c>
       <c r="V2374" s="37" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="2375" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82489,7 +82489,7 @@
         <v>0</v>
       </c>
       <c r="V2376" s="37" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="2377" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82545,7 +82545,7 @@
         <v>0</v>
       </c>
       <c r="V2378" s="37" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="2379" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82574,7 +82574,7 @@
         <v>0</v>
       </c>
       <c r="V2379" s="37" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="2380" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82630,13 +82630,13 @@
         <v>43</v>
       </c>
       <c r="N2381" s="49" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="O2381" s="6" t="s">
         <v>17</v>
       </c>
       <c r="V2381" s="37" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="2382" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82752,7 +82752,7 @@
         <v>19</v>
       </c>
       <c r="V2385" s="37" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="2386" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82921,7 +82921,7 @@
         <v>54</v>
       </c>
       <c r="N2392" s="37" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="O2392" s="6" t="s">
         <v>0</v>
@@ -82930,7 +82930,7 @@
         <v>19</v>
       </c>
       <c r="V2392" s="37" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="2393" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82983,7 +82983,7 @@
         <v>0</v>
       </c>
       <c r="V2394" s="37" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="2395" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -83006,13 +83006,13 @@
         <v>57</v>
       </c>
       <c r="N2395" s="37" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="P2395" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2395" s="37" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="2396" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -83089,7 +83089,7 @@
         <v>0</v>
       </c>
       <c r="V2398" s="37" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="2399" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -83160,13 +83160,13 @@
         <v>63</v>
       </c>
       <c r="N2401" s="37" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="P2401" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2401" s="37" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="2402" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -83240,13 +83240,13 @@
         <v>66</v>
       </c>
       <c r="N2404" s="37" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="P2404" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2404" s="37" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="2405" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -83421,13 +83421,13 @@
         <v>73</v>
       </c>
       <c r="N2411" s="37" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="O2411" s="6" t="s">
         <v>0</v>
       </c>
       <c r="V2411" s="37" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="2412" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -83480,7 +83480,7 @@
         <v>0</v>
       </c>
       <c r="V2413" s="37" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="2414" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -83503,7 +83503,7 @@
         <v>76</v>
       </c>
       <c r="N2414" s="37" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="O2414" s="6" t="s">
         <v>0</v>
@@ -83512,7 +83512,7 @@
         <v>19</v>
       </c>
       <c r="V2414" s="37" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="2415" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -83565,7 +83565,7 @@
         <v>0</v>
       </c>
       <c r="V2416" s="37" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="2417" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -83717,7 +83717,7 @@
         <v>19</v>
       </c>
       <c r="V2422" s="37" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="2423" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -84036,13 +84036,13 @@
         <v>96</v>
       </c>
       <c r="N2434" s="49" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="O2434" s="6" t="s">
         <v>0</v>
       </c>
       <c r="V2434" s="37" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="2435" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -84065,7 +84065,7 @@
         <v>97</v>
       </c>
       <c r="N2435" s="37" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="P2435" s="11" t="s">
         <v>19</v>
@@ -84142,13 +84142,13 @@
         <v>100</v>
       </c>
       <c r="N2438" s="37" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="P2438" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2438" s="37" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="2439" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -84365,7 +84365,7 @@
         <v>109</v>
       </c>
       <c r="N2447" s="37" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="O2447" s="6" t="s">
         <v>0</v>
@@ -84374,7 +84374,7 @@
         <v>19</v>
       </c>
       <c r="V2447" s="37" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="2448" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -84406,7 +84406,7 @@
         <v>0</v>
       </c>
       <c r="V2448" s="37" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="2449" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -84438,7 +84438,7 @@
         <v>0</v>
       </c>
       <c r="V2449" s="37" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="2450" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -84470,7 +84470,7 @@
         <v>0</v>
       </c>
       <c r="V2450" s="37" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="2451" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -84613,13 +84613,13 @@
         <v>118</v>
       </c>
       <c r="N2456" s="37" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="P2456" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2456" s="37" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="2457" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -84835,7 +84835,7 @@
         <v>126</v>
       </c>
       <c r="N2464" s="37" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="O2464" s="6" t="s">
         <v>0</v>
@@ -84844,7 +84844,7 @@
         <v>19</v>
       </c>
       <c r="V2464" s="37" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="2465" spans="1:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -84964,7 +84964,7 @@
     </row>
     <row r="2469" spans="1:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2469" s="6" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="I2469" s="39" t="s">
         <v>71</v>
@@ -84991,7 +84991,7 @@
       <c r="T2469" s="6"/>
       <c r="V2469" s="37"/>
       <c r="X2469" s="6" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="2470" spans="1:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -85072,7 +85072,7 @@
         <v>134</v>
       </c>
       <c r="N2472" s="67" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="P2472" s="11" t="s">
         <v>19</v>
@@ -85080,7 +85080,7 @@
       <c r="S2472" s="6"/>
       <c r="T2472" s="6"/>
       <c r="V2472" s="37" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="2473" spans="1:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -85190,10 +85190,10 @@
         <v>89</v>
       </c>
       <c r="T2476" s="6" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="V2476" s="37" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="2477" spans="1:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -85280,7 +85280,7 @@
         <v>116</v>
       </c>
       <c r="V2479" s="37" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="2480" spans="1:24" ht="20.25" x14ac:dyDescent="0.25">
@@ -85375,7 +85375,7 @@
         <v>145</v>
       </c>
       <c r="N2483" s="37" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="O2483" s="6" t="s">
         <v>0</v>
@@ -85384,7 +85384,7 @@
         <v>19</v>
       </c>
       <c r="V2483" s="37" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="2484" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -85455,13 +85455,13 @@
         <v>148</v>
       </c>
       <c r="N2486" s="37" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="P2486" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V2486" s="37" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="2487" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -85805,7 +85805,7 @@
         <v>175</v>
       </c>
       <c r="V2499" s="37" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="2500" spans="8:22" x14ac:dyDescent="0.25">
